--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45733.01041666666</v>
+        <v>45734.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45733.02083333334</v>
+        <v>45734.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45733.03125</v>
+        <v>45734.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45733.04166666666</v>
+        <v>45734.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45733.05208333334</v>
+        <v>45734.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45733.0625</v>
+        <v>45734.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45733.07291666666</v>
+        <v>45734.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45733.08333333334</v>
+        <v>45734.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45733.09375</v>
+        <v>45734.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45733.10416666666</v>
+        <v>45734.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45733.11458333334</v>
+        <v>45734.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45733.125</v>
+        <v>45734.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45733.13541666666</v>
+        <v>45734.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45733.14583333334</v>
+        <v>45734.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45733.15625</v>
+        <v>45734.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45733.16666666666</v>
+        <v>45734.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45733.17708333334</v>
+        <v>45734.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45733.1875</v>
+        <v>45734.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45733.19791666666</v>
+        <v>45734.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45733.20833333334</v>
+        <v>45734.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45733.21875</v>
+        <v>45734.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45733.22916666666</v>
+        <v>45734.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45733.23958333334</v>
+        <v>45734.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,183 +581,183 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45733.25</v>
+        <v>45734.25</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45733.26041666666</v>
+        <v>45734.26041666666</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45733.27083333334</v>
+        <v>45734.27083333334</v>
       </c>
       <c r="B27">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45733.28125</v>
+        <v>45734.28125</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45733.29166666666</v>
+        <v>45734.29166666666</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45733.30208333334</v>
+        <v>45734.30208333334</v>
       </c>
       <c r="B30">
-        <v>143</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45733.3125</v>
+        <v>45734.3125</v>
       </c>
       <c r="B31">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45733.32291666666</v>
+        <v>45734.32291666666</v>
       </c>
       <c r="B32">
-        <v>181</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45733.33333333334</v>
+        <v>45734.33333333334</v>
       </c>
       <c r="B33">
-        <v>206</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45733.34375</v>
+        <v>45734.34375</v>
       </c>
       <c r="B34">
-        <v>239</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45733.35416666666</v>
+        <v>45734.35416666666</v>
       </c>
       <c r="B35">
-        <v>288</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45733.36458333334</v>
+        <v>45734.36458333334</v>
       </c>
       <c r="B36">
-        <v>336</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45733.375</v>
+        <v>45734.375</v>
       </c>
       <c r="B37">
-        <v>330</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45733.38541666666</v>
+        <v>45734.38541666666</v>
       </c>
       <c r="B38">
-        <v>354</v>
+        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45733.39583333334</v>
+        <v>45734.39583333334</v>
       </c>
       <c r="B39">
-        <v>383</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45733.40625</v>
+        <v>45734.40625</v>
       </c>
       <c r="B40">
-        <v>400</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45733.41666666666</v>
+        <v>45734.41666666666</v>
       </c>
       <c r="B41">
-        <v>412</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45733.42708333334</v>
+        <v>45734.42708333334</v>
       </c>
       <c r="B42">
-        <v>456</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45733.4375</v>
+        <v>45734.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45733.44791666666</v>
+        <v>45734.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>856</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45733.45833333334</v>
+        <v>45734.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>902</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45733.46875</v>
+        <v>45734.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45733.47916666666</v>
+        <v>45734.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45733.48958333334</v>
+        <v>45734.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45733.5</v>
+        <v>45734.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45733.51041666666</v>
+        <v>45734.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45733.52083333334</v>
+        <v>45734.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45733.53125</v>
+        <v>45734.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45733.54166666666</v>
+        <v>45734.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45733.55208333334</v>
+        <v>45734.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45733.5625</v>
+        <v>45734.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45733.57291666666</v>
+        <v>45734.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45733.58333333334</v>
+        <v>45734.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45733.59375</v>
+        <v>45734.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45733.60416666666</v>
+        <v>45734.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45733.61458333334</v>
+        <v>45734.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45733.625</v>
+        <v>45734.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45733.63541666666</v>
+        <v>45734.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45733.64583333334</v>
+        <v>45734.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45733.65625</v>
+        <v>45734.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45733.66666666666</v>
+        <v>45734.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45733.67708333334</v>
+        <v>45734.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45733.6875</v>
+        <v>45734.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45733.69791666666</v>
+        <v>45734.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45733.70833333334</v>
+        <v>45734.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45733.71875</v>
+        <v>45734.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45733.72916666666</v>
+        <v>45734.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45733.73958333334</v>
+        <v>45734.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45733.75</v>
+        <v>45734.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45733.76041666666</v>
+        <v>45734.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45733.77083333334</v>
+        <v>45734.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45733.78125</v>
+        <v>45734.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45733.79166666666</v>
+        <v>45734.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45733.80208333334</v>
+        <v>45734.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45733.8125</v>
+        <v>45734.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45733.82291666666</v>
+        <v>45734.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45733.83333333334</v>
+        <v>45734.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45733.84375</v>
+        <v>45734.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45733.85416666666</v>
+        <v>45734.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45733.86458333334</v>
+        <v>45734.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45733.875</v>
+        <v>45734.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45733.88541666666</v>
+        <v>45734.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45733.89583333334</v>
+        <v>45734.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45733.90625</v>
+        <v>45734.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45733.91666666666</v>
+        <v>45734.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45733.92708333334</v>
+        <v>45734.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45733.9375</v>
+        <v>45734.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45733.94791666666</v>
+        <v>45734.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45733.95833333334</v>
+        <v>45734.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45733.96875</v>
+        <v>45734.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45733.97916666666</v>
+        <v>45734.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45733.98958333334</v>
+        <v>45734.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45734.01041666666</v>
+        <v>45736.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45734.02083333334</v>
+        <v>45736.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45734.03125</v>
+        <v>45736.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45734.04166666666</v>
+        <v>45736.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45734.05208333334</v>
+        <v>45736.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45734.0625</v>
+        <v>45736.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45734.07291666666</v>
+        <v>45736.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45734.08333333334</v>
+        <v>45736.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45734.09375</v>
+        <v>45736.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45734.10416666666</v>
+        <v>45736.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45734.11458333334</v>
+        <v>45736.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45734.125</v>
+        <v>45736.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45734.13541666666</v>
+        <v>45736.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45734.14583333334</v>
+        <v>45736.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45734.15625</v>
+        <v>45736.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45734.16666666666</v>
+        <v>45736.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45734.17708333334</v>
+        <v>45736.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45734.1875</v>
+        <v>45736.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45734.19791666666</v>
+        <v>45736.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45734.20833333334</v>
+        <v>45736.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45734.21875</v>
+        <v>45736.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45734.22916666666</v>
+        <v>45736.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,231 +573,231 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45734.23958333334</v>
+        <v>45736.23958333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45734.25</v>
+        <v>45736.25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45734.26041666666</v>
+        <v>45736.26041666666</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45734.27083333334</v>
+        <v>45736.27083333334</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45734.28125</v>
+        <v>45736.28125</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45734.29166666666</v>
+        <v>45736.29166666666</v>
       </c>
       <c r="B29">
-        <v>62</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45734.30208333334</v>
+        <v>45736.30208333334</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45734.3125</v>
+        <v>45736.3125</v>
       </c>
       <c r="B31">
-        <v>212</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45734.32291666666</v>
+        <v>45736.32291666666</v>
       </c>
       <c r="B32">
-        <v>330</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45734.33333333334</v>
+        <v>45736.33333333334</v>
       </c>
       <c r="B33">
-        <v>386</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45734.34375</v>
+        <v>45736.34375</v>
       </c>
       <c r="B34">
-        <v>469</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45734.35416666666</v>
+        <v>45736.35416666666</v>
       </c>
       <c r="B35">
-        <v>528</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45734.36458333334</v>
+        <v>45736.36458333334</v>
       </c>
       <c r="B36">
-        <v>582</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45734.375</v>
+        <v>45736.375</v>
       </c>
       <c r="B37">
-        <v>633</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45734.38541666666</v>
+        <v>45736.38541666666</v>
       </c>
       <c r="B38">
-        <v>695</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45734.39583333334</v>
+        <v>45736.39583333334</v>
       </c>
       <c r="B39">
-        <v>756</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45734.40625</v>
+        <v>45736.40625</v>
       </c>
       <c r="B40">
-        <v>799</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45734.41666666666</v>
+        <v>45736.41666666666</v>
       </c>
       <c r="B41">
-        <v>814</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45734.42708333334</v>
+        <v>45736.42708333334</v>
       </c>
       <c r="B42">
-        <v>839</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45734.4375</v>
+        <v>45736.4375</v>
       </c>
       <c r="B43">
-        <v>839</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45734.44791666666</v>
+        <v>45736.44791666666</v>
       </c>
       <c r="B44">
-        <v>856</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45734.45833333334</v>
+        <v>45736.45833333334</v>
       </c>
       <c r="B45">
-        <v>902</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45734.46875</v>
+        <v>45736.46875</v>
       </c>
       <c r="B46">
-        <v>961</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45734.47916666666</v>
+        <v>45736.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45734.48958333334</v>
+        <v>45736.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45734.5</v>
+        <v>45736.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45734.51041666666</v>
+        <v>45736.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45734.52083333334</v>
+        <v>45736.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45734.53125</v>
+        <v>45736.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45734.54166666666</v>
+        <v>45736.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45734.55208333334</v>
+        <v>45736.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45734.5625</v>
+        <v>45736.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45734.57291666666</v>
+        <v>45736.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45734.58333333334</v>
+        <v>45736.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45734.59375</v>
+        <v>45736.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45734.60416666666</v>
+        <v>45736.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45734.61458333334</v>
+        <v>45736.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45734.625</v>
+        <v>45736.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45734.63541666666</v>
+        <v>45736.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45734.64583333334</v>
+        <v>45736.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45734.65625</v>
+        <v>45736.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45734.66666666666</v>
+        <v>45736.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45734.67708333334</v>
+        <v>45736.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45734.6875</v>
+        <v>45736.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45734.69791666666</v>
+        <v>45736.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45734.70833333334</v>
+        <v>45736.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45734.71875</v>
+        <v>45736.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45734.72916666666</v>
+        <v>45736.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45734.73958333334</v>
+        <v>45736.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45734.75</v>
+        <v>45736.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45734.76041666666</v>
+        <v>45736.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45734.77083333334</v>
+        <v>45736.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45734.78125</v>
+        <v>45736.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45734.79166666666</v>
+        <v>45736.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45734.80208333334</v>
+        <v>45736.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45734.8125</v>
+        <v>45736.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45734.82291666666</v>
+        <v>45736.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45734.83333333334</v>
+        <v>45736.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45734.84375</v>
+        <v>45736.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45734.85416666666</v>
+        <v>45736.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45734.86458333334</v>
+        <v>45736.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45734.875</v>
+        <v>45736.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45734.88541666666</v>
+        <v>45736.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45734.89583333334</v>
+        <v>45736.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45734.90625</v>
+        <v>45736.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45734.91666666666</v>
+        <v>45736.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45734.92708333334</v>
+        <v>45736.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45734.9375</v>
+        <v>45736.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45734.94791666666</v>
+        <v>45736.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45734.95833333334</v>
+        <v>45736.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45734.96875</v>
+        <v>45736.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45734.97916666666</v>
+        <v>45736.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45734.98958333334</v>
+        <v>45736.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45735</v>
+        <v>45737</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45736.01041666666</v>
+        <v>45740.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45736.02083333334</v>
+        <v>45740.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45736.03125</v>
+        <v>45740.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45736.04166666666</v>
+        <v>45740.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45736.05208333334</v>
+        <v>45740.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45736.0625</v>
+        <v>45740.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45736.07291666666</v>
+        <v>45740.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45736.08333333334</v>
+        <v>45740.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45736.09375</v>
+        <v>45740.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45736.10416666666</v>
+        <v>45740.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45736.11458333334</v>
+        <v>45740.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45736.125</v>
+        <v>45740.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45736.13541666666</v>
+        <v>45740.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45736.14583333334</v>
+        <v>45740.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45736.15625</v>
+        <v>45740.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45736.16666666666</v>
+        <v>45740.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45736.17708333334</v>
+        <v>45740.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45736.1875</v>
+        <v>45740.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45736.19791666666</v>
+        <v>45740.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45736.20833333334</v>
+        <v>45740.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45736.21875</v>
+        <v>45740.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45736.22916666666</v>
+        <v>45740.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,231 +573,231 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45736.23958333334</v>
+        <v>45740.23958333334</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45736.25</v>
+        <v>45740.25</v>
       </c>
       <c r="B25">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45736.26041666666</v>
+        <v>45740.26041666666</v>
       </c>
       <c r="B26">
-        <v>138</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45736.27083333334</v>
+        <v>45740.27083333334</v>
       </c>
       <c r="B27">
-        <v>226</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45736.28125</v>
+        <v>45740.28125</v>
       </c>
       <c r="B28">
-        <v>332</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45736.29166666666</v>
+        <v>45740.29166666666</v>
       </c>
       <c r="B29">
-        <v>431</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45736.30208333334</v>
+        <v>45740.30208333334</v>
       </c>
       <c r="B30">
-        <v>596</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45736.3125</v>
+        <v>45740.3125</v>
       </c>
       <c r="B31">
-        <v>693</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45736.32291666666</v>
+        <v>45740.32291666666</v>
       </c>
       <c r="B32">
-        <v>775</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45736.33333333334</v>
+        <v>45740.33333333334</v>
       </c>
       <c r="B33">
-        <v>859</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45736.34375</v>
+        <v>45740.34375</v>
       </c>
       <c r="B34">
-        <v>1032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45736.35416666666</v>
+        <v>45740.35416666666</v>
       </c>
       <c r="B35">
-        <v>1035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45736.36458333334</v>
+        <v>45740.36458333334</v>
       </c>
       <c r="B36">
-        <v>1129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45736.375</v>
+        <v>45740.375</v>
       </c>
       <c r="B37">
-        <v>1183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45736.38541666666</v>
+        <v>45740.38541666666</v>
       </c>
       <c r="B38">
-        <v>1355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45736.39583333334</v>
+        <v>45740.39583333334</v>
       </c>
       <c r="B39">
-        <v>1458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45736.40625</v>
+        <v>45740.40625</v>
       </c>
       <c r="B40">
-        <v>1455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45736.41666666666</v>
+        <v>45740.41666666666</v>
       </c>
       <c r="B41">
-        <v>1419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45736.42708333334</v>
+        <v>45740.42708333334</v>
       </c>
       <c r="B42">
-        <v>1529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45736.4375</v>
+        <v>45740.4375</v>
       </c>
       <c r="B43">
-        <v>1533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45736.44791666666</v>
+        <v>45740.44791666666</v>
       </c>
       <c r="B44">
-        <v>1577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45736.45833333334</v>
+        <v>45740.45833333334</v>
       </c>
       <c r="B45">
-        <v>1605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45736.46875</v>
+        <v>45740.46875</v>
       </c>
       <c r="B46">
-        <v>1590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45736.47916666666</v>
+        <v>45740.47916666666</v>
       </c>
       <c r="B47">
-        <v>1592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45736.48958333334</v>
+        <v>45740.48958333334</v>
       </c>
       <c r="B48">
-        <v>1601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45736.5</v>
+        <v>45740.5</v>
       </c>
       <c r="B49">
-        <v>1599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45736.51041666666</v>
+        <v>45740.51041666666</v>
       </c>
       <c r="B50">
-        <v>1592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45736.52083333334</v>
+        <v>45740.52083333334</v>
       </c>
       <c r="B51">
-        <v>1603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45736.53125</v>
+        <v>45740.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45736.54166666666</v>
+        <v>45740.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45736.55208333334</v>
+        <v>45740.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45736.5625</v>
+        <v>45740.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45736.57291666666</v>
+        <v>45740.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45736.58333333334</v>
+        <v>45740.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45736.59375</v>
+        <v>45740.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45736.60416666666</v>
+        <v>45740.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45736.61458333334</v>
+        <v>45740.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45736.625</v>
+        <v>45740.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45736.63541666666</v>
+        <v>45740.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45736.64583333334</v>
+        <v>45740.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45736.65625</v>
+        <v>45740.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45736.66666666666</v>
+        <v>45740.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45736.67708333334</v>
+        <v>45740.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45736.6875</v>
+        <v>45740.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45736.69791666666</v>
+        <v>45740.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45736.70833333334</v>
+        <v>45740.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45736.71875</v>
+        <v>45740.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45736.72916666666</v>
+        <v>45740.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45736.73958333334</v>
+        <v>45740.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45736.75</v>
+        <v>45740.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45736.76041666666</v>
+        <v>45740.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45736.77083333334</v>
+        <v>45740.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45736.78125</v>
+        <v>45740.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45736.79166666666</v>
+        <v>45740.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45736.80208333334</v>
+        <v>45740.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45736.8125</v>
+        <v>45740.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45736.82291666666</v>
+        <v>45740.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45736.83333333334</v>
+        <v>45740.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45736.84375</v>
+        <v>45740.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45736.85416666666</v>
+        <v>45740.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45736.86458333334</v>
+        <v>45740.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45736.875</v>
+        <v>45740.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45736.88541666666</v>
+        <v>45740.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45736.89583333334</v>
+        <v>45740.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45736.90625</v>
+        <v>45740.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45736.91666666666</v>
+        <v>45740.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45736.92708333334</v>
+        <v>45740.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45736.9375</v>
+        <v>45740.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45736.94791666666</v>
+        <v>45740.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45736.95833333334</v>
+        <v>45740.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45736.96875</v>
+        <v>45740.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45736.97916666666</v>
+        <v>45740.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45736.98958333334</v>
+        <v>45740.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45740.01041666666</v>
+        <v>45741.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45740.02083333334</v>
+        <v>45741.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45740.03125</v>
+        <v>45741.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45740.04166666666</v>
+        <v>45741.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45740.05208333334</v>
+        <v>45741.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45740.0625</v>
+        <v>45741.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45740.07291666666</v>
+        <v>45741.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45740.08333333334</v>
+        <v>45741.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45740.09375</v>
+        <v>45741.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45740.10416666666</v>
+        <v>45741.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45740.11458333334</v>
+        <v>45741.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45740.125</v>
+        <v>45741.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45740.13541666666</v>
+        <v>45741.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45740.14583333334</v>
+        <v>45741.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45740.15625</v>
+        <v>45741.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45740.16666666666</v>
+        <v>45741.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45740.17708333334</v>
+        <v>45741.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45740.1875</v>
+        <v>45741.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45740.19791666666</v>
+        <v>45741.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45740.20833333334</v>
+        <v>45741.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45740.21875</v>
+        <v>45741.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45740.22916666666</v>
+        <v>45741.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,183 +573,183 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45740.23958333334</v>
+        <v>45741.23958333334</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45740.25</v>
+        <v>45741.25</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45740.26041666666</v>
+        <v>45741.26041666666</v>
       </c>
       <c r="B26">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45740.27083333334</v>
+        <v>45741.27083333334</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45740.28125</v>
+        <v>45741.28125</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45740.29166666666</v>
+        <v>45741.29166666666</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45740.30208333334</v>
+        <v>45741.30208333334</v>
       </c>
       <c r="B30">
-        <v>218</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45740.3125</v>
+        <v>45741.3125</v>
       </c>
       <c r="B31">
-        <v>283</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45740.32291666666</v>
+        <v>45741.32291666666</v>
       </c>
       <c r="B32">
-        <v>321</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45740.33333333334</v>
+        <v>45741.33333333334</v>
       </c>
       <c r="B33">
-        <v>355</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45740.34375</v>
+        <v>45741.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45740.35416666666</v>
+        <v>45741.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45740.36458333334</v>
+        <v>45741.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45740.375</v>
+        <v>45741.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45740.38541666666</v>
+        <v>45741.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45740.39583333334</v>
+        <v>45741.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45740.40625</v>
+        <v>45741.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45740.41666666666</v>
+        <v>45741.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45740.42708333334</v>
+        <v>45741.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>880</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45740.4375</v>
+        <v>45741.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45740.44791666666</v>
+        <v>45741.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45740.45833333334</v>
+        <v>45741.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45740.46875</v>
+        <v>45741.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45740.47916666666</v>
+        <v>45741.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45740.48958333334</v>
+        <v>45741.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45740.5</v>
+        <v>45741.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45740.51041666666</v>
+        <v>45741.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45740.52083333334</v>
+        <v>45741.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45740.53125</v>
+        <v>45741.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45740.54166666666</v>
+        <v>45741.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45740.55208333334</v>
+        <v>45741.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45740.5625</v>
+        <v>45741.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45740.57291666666</v>
+        <v>45741.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45740.58333333334</v>
+        <v>45741.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45740.59375</v>
+        <v>45741.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45740.60416666666</v>
+        <v>45741.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45740.61458333334</v>
+        <v>45741.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45740.625</v>
+        <v>45741.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45740.63541666666</v>
+        <v>45741.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45740.64583333334</v>
+        <v>45741.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45740.65625</v>
+        <v>45741.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45740.66666666666</v>
+        <v>45741.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45740.67708333334</v>
+        <v>45741.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45740.6875</v>
+        <v>45741.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45740.69791666666</v>
+        <v>45741.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45740.70833333334</v>
+        <v>45741.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45740.71875</v>
+        <v>45741.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45740.72916666666</v>
+        <v>45741.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45740.73958333334</v>
+        <v>45741.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45740.75</v>
+        <v>45741.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45740.76041666666</v>
+        <v>45741.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45740.77083333334</v>
+        <v>45741.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45740.78125</v>
+        <v>45741.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45740.79166666666</v>
+        <v>45741.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45740.80208333334</v>
+        <v>45741.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45740.8125</v>
+        <v>45741.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45740.82291666666</v>
+        <v>45741.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45740.83333333334</v>
+        <v>45741.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45740.84375</v>
+        <v>45741.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45740.85416666666</v>
+        <v>45741.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45740.86458333334</v>
+        <v>45741.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45740.875</v>
+        <v>45741.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45740.88541666666</v>
+        <v>45741.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45740.89583333334</v>
+        <v>45741.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45740.90625</v>
+        <v>45741.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45740.91666666666</v>
+        <v>45741.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45740.92708333334</v>
+        <v>45741.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45740.9375</v>
+        <v>45741.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45740.94791666666</v>
+        <v>45741.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45740.95833333334</v>
+        <v>45741.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45740.96875</v>
+        <v>45741.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45740.97916666666</v>
+        <v>45741.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45740.98958333334</v>
+        <v>45741.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -752,7 +752,7 @@
         <v>45741.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -760,7 +760,7 @@
         <v>45741.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -768,7 +768,7 @@
         <v>45741.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49" spans="1:2">

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45741.01041666666</v>
+        <v>45744.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45741.02083333334</v>
+        <v>45744.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45741.03125</v>
+        <v>45744.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45741.04166666666</v>
+        <v>45744.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45741.05208333334</v>
+        <v>45744.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45741.0625</v>
+        <v>45744.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45741.07291666666</v>
+        <v>45744.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45741.08333333334</v>
+        <v>45744.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45741.09375</v>
+        <v>45744.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45741.10416666666</v>
+        <v>45744.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45741.11458333334</v>
+        <v>45744.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45741.125</v>
+        <v>45744.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45741.13541666666</v>
+        <v>45744.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45741.14583333334</v>
+        <v>45744.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45741.15625</v>
+        <v>45744.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45741.16666666666</v>
+        <v>45744.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45741.17708333334</v>
+        <v>45744.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45741.1875</v>
+        <v>45744.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45741.19791666666</v>
+        <v>45744.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45741.20833333334</v>
+        <v>45744.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45741.21875</v>
+        <v>45744.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45741.22916666666</v>
+        <v>45744.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,271 +573,271 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45741.23958333334</v>
+        <v>45744.23958333334</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45741.25</v>
+        <v>45744.25</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45741.26041666666</v>
+        <v>45744.26041666666</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45741.27083333334</v>
+        <v>45744.27083333334</v>
       </c>
       <c r="B27">
-        <v>129</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45741.28125</v>
+        <v>45744.28125</v>
       </c>
       <c r="B28">
-        <v>173</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45741.29166666666</v>
+        <v>45744.29166666666</v>
       </c>
       <c r="B29">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45741.30208333334</v>
+        <v>45744.30208333334</v>
       </c>
       <c r="B30">
-        <v>341</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45741.3125</v>
+        <v>45744.3125</v>
       </c>
       <c r="B31">
-        <v>431</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45741.32291666666</v>
+        <v>45744.32291666666</v>
       </c>
       <c r="B32">
-        <v>496</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45741.33333333334</v>
+        <v>45744.33333333334</v>
       </c>
       <c r="B33">
-        <v>486</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45741.34375</v>
+        <v>45744.34375</v>
       </c>
       <c r="B34">
-        <v>581</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45741.35416666666</v>
+        <v>45744.35416666666</v>
       </c>
       <c r="B35">
-        <v>657</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45741.36458333334</v>
+        <v>45744.36458333334</v>
       </c>
       <c r="B36">
-        <v>671</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45741.375</v>
+        <v>45744.375</v>
       </c>
       <c r="B37">
-        <v>723</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45741.38541666666</v>
+        <v>45744.38541666666</v>
       </c>
       <c r="B38">
-        <v>790</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45741.39583333334</v>
+        <v>45744.39583333334</v>
       </c>
       <c r="B39">
-        <v>797</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45741.40625</v>
+        <v>45744.40625</v>
       </c>
       <c r="B40">
-        <v>850</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45741.41666666666</v>
+        <v>45744.41666666666</v>
       </c>
       <c r="B41">
-        <v>868</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45741.42708333334</v>
+        <v>45744.42708333334</v>
       </c>
       <c r="B42">
-        <v>880</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45741.4375</v>
+        <v>45744.4375</v>
       </c>
       <c r="B43">
-        <v>930</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45741.44791666666</v>
+        <v>45744.44791666666</v>
       </c>
       <c r="B44">
-        <v>945</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45741.45833333334</v>
+        <v>45744.45833333334</v>
       </c>
       <c r="B45">
-        <v>944</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45741.46875</v>
+        <v>45744.46875</v>
       </c>
       <c r="B46">
-        <v>957</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45741.47916666666</v>
+        <v>45744.47916666666</v>
       </c>
       <c r="B47">
-        <v>927</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45741.48958333334</v>
+        <v>45744.48958333334</v>
       </c>
       <c r="B48">
-        <v>901</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45741.5</v>
+        <v>45744.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45741.51041666666</v>
+        <v>45744.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45741.52083333334</v>
+        <v>45744.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45741.53125</v>
+        <v>45744.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45741.54166666666</v>
+        <v>45744.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45741.55208333334</v>
+        <v>45744.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45741.5625</v>
+        <v>45744.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45741.57291666666</v>
+        <v>45744.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45741.58333333334</v>
+        <v>45744.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45741.59375</v>
+        <v>45744.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45741.60416666666</v>
+        <v>45744.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45741.61458333334</v>
+        <v>45744.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45741.625</v>
+        <v>45744.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45741.63541666666</v>
+        <v>45744.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45741.64583333334</v>
+        <v>45744.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45741.65625</v>
+        <v>45744.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45741.66666666666</v>
+        <v>45744.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45741.67708333334</v>
+        <v>45744.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45741.6875</v>
+        <v>45744.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45741.69791666666</v>
+        <v>45744.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45741.70833333334</v>
+        <v>45744.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45741.71875</v>
+        <v>45744.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45741.72916666666</v>
+        <v>45744.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45741.73958333334</v>
+        <v>45744.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45741.75</v>
+        <v>45744.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45741.76041666666</v>
+        <v>45744.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45741.77083333334</v>
+        <v>45744.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45741.78125</v>
+        <v>45744.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45741.79166666666</v>
+        <v>45744.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45741.80208333334</v>
+        <v>45744.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45741.8125</v>
+        <v>45744.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45741.82291666666</v>
+        <v>45744.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45741.83333333334</v>
+        <v>45744.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45741.84375</v>
+        <v>45744.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45741.85416666666</v>
+        <v>45744.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45741.86458333334</v>
+        <v>45744.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45741.875</v>
+        <v>45744.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45741.88541666666</v>
+        <v>45744.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45741.89583333334</v>
+        <v>45744.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45741.90625</v>
+        <v>45744.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45741.91666666666</v>
+        <v>45744.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45741.92708333334</v>
+        <v>45744.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45741.9375</v>
+        <v>45744.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45741.94791666666</v>
+        <v>45744.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45741.95833333334</v>
+        <v>45744.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45741.96875</v>
+        <v>45744.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45741.97916666666</v>
+        <v>45744.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45741.98958333334</v>
+        <v>45744.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45744.01041666666</v>
+        <v>45747.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45744.02083333334</v>
+        <v>45747.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45744.03125</v>
+        <v>45747.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45744.04166666666</v>
+        <v>45747.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45744.05208333334</v>
+        <v>45747.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45744.0625</v>
+        <v>45747.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45744.07291666666</v>
+        <v>45747.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45744.08333333334</v>
+        <v>45747.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45744.09375</v>
+        <v>45747.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45744.10416666666</v>
+        <v>45747.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45744.11458333334</v>
+        <v>45747.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45744.125</v>
+        <v>45747.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45744.13541666666</v>
+        <v>45747.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45744.14583333334</v>
+        <v>45747.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45744.15625</v>
+        <v>45747.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45744.16666666666</v>
+        <v>45747.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45744.17708333334</v>
+        <v>45747.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45744.1875</v>
+        <v>45747.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45744.19791666666</v>
+        <v>45747.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45744.20833333334</v>
+        <v>45747.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45744.21875</v>
+        <v>45747.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45744.22916666666</v>
+        <v>45747.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,271 +573,271 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45744.23958333334</v>
+        <v>45747.23958333334</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45744.25</v>
+        <v>45747.25</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45744.26041666666</v>
+        <v>45747.26041666666</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45744.27083333334</v>
+        <v>45747.27083333334</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45744.28125</v>
+        <v>45747.28125</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45744.29166666666</v>
+        <v>45747.29166666666</v>
       </c>
       <c r="B29">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45744.30208333334</v>
+        <v>45747.30208333334</v>
       </c>
       <c r="B30">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45744.3125</v>
+        <v>45747.3125</v>
       </c>
       <c r="B31">
-        <v>172</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45744.32291666666</v>
+        <v>45747.32291666666</v>
       </c>
       <c r="B32">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45744.33333333334</v>
+        <v>45747.33333333334</v>
       </c>
       <c r="B33">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45744.34375</v>
+        <v>45747.34375</v>
       </c>
       <c r="B34">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45744.35416666666</v>
+        <v>45747.35416666666</v>
       </c>
       <c r="B35">
-        <v>260</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45744.36458333334</v>
+        <v>45747.36458333334</v>
       </c>
       <c r="B36">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45744.375</v>
+        <v>45747.375</v>
       </c>
       <c r="B37">
-        <v>284</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45744.38541666666</v>
+        <v>45747.38541666666</v>
       </c>
       <c r="B38">
-        <v>305</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45744.39583333334</v>
+        <v>45747.39583333334</v>
       </c>
       <c r="B39">
-        <v>333</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45744.40625</v>
+        <v>45747.40625</v>
       </c>
       <c r="B40">
-        <v>356</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45744.41666666666</v>
+        <v>45747.41666666666</v>
       </c>
       <c r="B41">
-        <v>379</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45744.42708333334</v>
+        <v>45747.42708333334</v>
       </c>
       <c r="B42">
-        <v>454</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45744.4375</v>
+        <v>45747.4375</v>
       </c>
       <c r="B43">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45744.44791666666</v>
+        <v>45747.44791666666</v>
       </c>
       <c r="B44">
-        <v>452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45744.45833333334</v>
+        <v>45747.45833333334</v>
       </c>
       <c r="B45">
-        <v>513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45744.46875</v>
+        <v>45747.46875</v>
       </c>
       <c r="B46">
-        <v>545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45744.47916666666</v>
+        <v>45747.47916666666</v>
       </c>
       <c r="B47">
-        <v>587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45744.48958333334</v>
+        <v>45747.48958333334</v>
       </c>
       <c r="B48">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45744.5</v>
+        <v>45747.5</v>
       </c>
       <c r="B49">
-        <v>560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45744.51041666666</v>
+        <v>45747.51041666666</v>
       </c>
       <c r="B50">
-        <v>657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45744.52083333334</v>
+        <v>45747.52083333334</v>
       </c>
       <c r="B51">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45744.53125</v>
+        <v>45747.53125</v>
       </c>
       <c r="B52">
-        <v>589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45744.54166666666</v>
+        <v>45747.54166666666</v>
       </c>
       <c r="B53">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45744.55208333334</v>
+        <v>45747.55208333334</v>
       </c>
       <c r="B54">
-        <v>574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45744.5625</v>
+        <v>45747.5625</v>
       </c>
       <c r="B55">
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45744.57291666666</v>
+        <v>45747.57291666666</v>
       </c>
       <c r="B56">
-        <v>541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45744.58333333334</v>
+        <v>45747.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45744.59375</v>
+        <v>45747.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45744.60416666666</v>
+        <v>45747.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45744.61458333334</v>
+        <v>45747.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45744.625</v>
+        <v>45747.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45744.63541666666</v>
+        <v>45747.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45744.64583333334</v>
+        <v>45747.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45744.65625</v>
+        <v>45747.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45744.66666666666</v>
+        <v>45747.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45744.67708333334</v>
+        <v>45747.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45744.6875</v>
+        <v>45747.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45744.69791666666</v>
+        <v>45747.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45744.70833333334</v>
+        <v>45747.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45744.71875</v>
+        <v>45747.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45744.72916666666</v>
+        <v>45747.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45744.73958333334</v>
+        <v>45747.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45744.75</v>
+        <v>45747.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45744.76041666666</v>
+        <v>45747.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45744.77083333334</v>
+        <v>45747.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45744.78125</v>
+        <v>45747.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45744.79166666666</v>
+        <v>45747.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45744.80208333334</v>
+        <v>45747.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45744.8125</v>
+        <v>45747.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45744.82291666666</v>
+        <v>45747.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45744.83333333334</v>
+        <v>45747.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45744.84375</v>
+        <v>45747.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45744.85416666666</v>
+        <v>45747.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45744.86458333334</v>
+        <v>45747.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45744.875</v>
+        <v>45747.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45744.88541666666</v>
+        <v>45747.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45744.89583333334</v>
+        <v>45747.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45744.90625</v>
+        <v>45747.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45744.91666666666</v>
+        <v>45747.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45744.92708333334</v>
+        <v>45747.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45744.9375</v>
+        <v>45747.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45744.94791666666</v>
+        <v>45747.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45744.95833333334</v>
+        <v>45747.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45744.96875</v>
+        <v>45747.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45744.97916666666</v>
+        <v>45747.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45744.98958333334</v>
+        <v>45747.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -728,7 +728,7 @@
         <v>45747.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>664</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -736,7 +736,7 @@
         <v>45747.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45747.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -752,7 +752,7 @@
         <v>45747.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -760,7 +760,7 @@
         <v>45747.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -768,7 +768,7 @@
         <v>45747.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -776,7 +776,7 @@
         <v>45747.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -784,7 +784,7 @@
         <v>45747.51041666666</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>797</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45747.01041666666</v>
+        <v>45751.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45747.02083333334</v>
+        <v>45751.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45747.03125</v>
+        <v>45751.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45747.04166666666</v>
+        <v>45751.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45747.05208333334</v>
+        <v>45751.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45747.0625</v>
+        <v>45751.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45747.07291666666</v>
+        <v>45751.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45747.08333333334</v>
+        <v>45751.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45747.09375</v>
+        <v>45751.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45747.10416666666</v>
+        <v>45751.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45747.11458333334</v>
+        <v>45751.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45747.125</v>
+        <v>45751.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45747.13541666666</v>
+        <v>45751.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45747.14583333334</v>
+        <v>45751.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45747.15625</v>
+        <v>45751.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45747.16666666666</v>
+        <v>45751.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45747.17708333334</v>
+        <v>45751.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45747.1875</v>
+        <v>45751.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45747.19791666666</v>
+        <v>45751.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45747.20833333334</v>
+        <v>45751.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45747.21875</v>
+        <v>45751.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45747.22916666666</v>
+        <v>45751.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45747.23958333334</v>
+        <v>45751.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45747.25</v>
+        <v>45751.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45747.26041666666</v>
+        <v>45751.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,327 +597,327 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45747.27083333334</v>
+        <v>45751.27083333334</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45747.28125</v>
+        <v>45751.28125</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45747.29166666666</v>
+        <v>45751.29166666666</v>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45747.30208333334</v>
+        <v>45751.30208333334</v>
       </c>
       <c r="B30">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45747.3125</v>
+        <v>45751.3125</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45747.32291666666</v>
+        <v>45751.32291666666</v>
       </c>
       <c r="B32">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45747.33333333334</v>
+        <v>45751.33333333334</v>
       </c>
       <c r="B33">
-        <v>183</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45747.34375</v>
+        <v>45751.34375</v>
       </c>
       <c r="B34">
-        <v>253</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45747.35416666666</v>
+        <v>45751.35416666666</v>
       </c>
       <c r="B35">
-        <v>316</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45747.36458333334</v>
+        <v>45751.36458333334</v>
       </c>
       <c r="B36">
-        <v>345</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45747.375</v>
+        <v>45751.375</v>
       </c>
       <c r="B37">
-        <v>387</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45747.38541666666</v>
+        <v>45751.38541666666</v>
       </c>
       <c r="B38">
-        <v>462</v>
+        <v>653</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45747.39583333334</v>
+        <v>45751.39583333334</v>
       </c>
       <c r="B39">
-        <v>543</v>
+        <v>726</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45747.40625</v>
+        <v>45751.40625</v>
       </c>
       <c r="B40">
-        <v>606</v>
+        <v>777</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45747.41666666666</v>
+        <v>45751.41666666666</v>
       </c>
       <c r="B41">
-        <v>661</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45747.42708333334</v>
+        <v>45751.42708333334</v>
       </c>
       <c r="B42">
-        <v>672</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45747.4375</v>
+        <v>45751.4375</v>
       </c>
       <c r="B43">
-        <v>664</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45747.44791666666</v>
+        <v>45751.44791666666</v>
       </c>
       <c r="B44">
-        <v>657</v>
+        <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45747.45833333334</v>
+        <v>45751.45833333334</v>
       </c>
       <c r="B45">
-        <v>691</v>
+        <v>894</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45747.46875</v>
+        <v>45751.46875</v>
       </c>
       <c r="B46">
-        <v>769</v>
+        <v>899</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45747.47916666666</v>
+        <v>45751.47916666666</v>
       </c>
       <c r="B47">
-        <v>829</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45747.48958333334</v>
+        <v>45751.48958333334</v>
       </c>
       <c r="B48">
-        <v>845</v>
+        <v>905</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45747.5</v>
+        <v>45751.5</v>
       </c>
       <c r="B49">
-        <v>819</v>
+        <v>899</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45747.51041666666</v>
+        <v>45751.51041666666</v>
       </c>
       <c r="B50">
-        <v>797</v>
+        <v>907</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45747.52083333334</v>
+        <v>45751.52083333334</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45747.53125</v>
+        <v>45751.53125</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>947</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45747.54166666666</v>
+        <v>45751.54166666666</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45747.55208333334</v>
+        <v>45751.55208333334</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>861</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45747.5625</v>
+        <v>45751.5625</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>859</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45747.57291666666</v>
+        <v>45751.57291666666</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45747.58333333334</v>
+        <v>45751.58333333334</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45747.59375</v>
+        <v>45751.59375</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>891</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45747.60416666666</v>
+        <v>45751.60416666666</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45747.61458333334</v>
+        <v>45751.61458333334</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45747.625</v>
+        <v>45751.625</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>757</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45747.63541666666</v>
+        <v>45751.63541666666</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>663</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45747.64583333334</v>
+        <v>45751.64583333334</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45747.65625</v>
+        <v>45751.65625</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45747.66666666666</v>
+        <v>45751.66666666666</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45747.67708333334</v>
+        <v>45751.67708333334</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45747.6875</v>
+        <v>45751.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45747.69791666666</v>
+        <v>45751.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45747.70833333334</v>
+        <v>45751.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45747.71875</v>
+        <v>45751.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45747.72916666666</v>
+        <v>45751.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45747.73958333334</v>
+        <v>45751.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45747.75</v>
+        <v>45751.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45747.76041666666</v>
+        <v>45751.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45747.77083333334</v>
+        <v>45751.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45747.78125</v>
+        <v>45751.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45747.79166666666</v>
+        <v>45751.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45747.80208333334</v>
+        <v>45751.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45747.8125</v>
+        <v>45751.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45747.82291666666</v>
+        <v>45751.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45747.83333333334</v>
+        <v>45751.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45747.84375</v>
+        <v>45751.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45747.85416666666</v>
+        <v>45751.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45747.86458333334</v>
+        <v>45751.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45747.875</v>
+        <v>45751.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45747.88541666666</v>
+        <v>45751.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45747.89583333334</v>
+        <v>45751.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45747.90625</v>
+        <v>45751.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45747.91666666666</v>
+        <v>45751.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45747.92708333334</v>
+        <v>45751.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45747.9375</v>
+        <v>45751.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45747.94791666666</v>
+        <v>45751.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45747.95833333334</v>
+        <v>45751.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45747.96875</v>
+        <v>45751.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45747.97916666666</v>
+        <v>45751.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45747.98958333334</v>
+        <v>45751.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45748</v>
+        <v>45752</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45751.01041666666</v>
+        <v>45758.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45751.02083333334</v>
+        <v>45758.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45751.03125</v>
+        <v>45758.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45751.04166666666</v>
+        <v>45758.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45751.05208333334</v>
+        <v>45758.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45751.0625</v>
+        <v>45758.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45751.07291666666</v>
+        <v>45758.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45751.08333333334</v>
+        <v>45758.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45751.09375</v>
+        <v>45758.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45751.10416666666</v>
+        <v>45758.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45751.11458333334</v>
+        <v>45758.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45751.125</v>
+        <v>45758.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45751.13541666666</v>
+        <v>45758.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45751.14583333334</v>
+        <v>45758.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45751.15625</v>
+        <v>45758.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45751.16666666666</v>
+        <v>45758.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45751.17708333334</v>
+        <v>45758.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45751.1875</v>
+        <v>45758.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45751.19791666666</v>
+        <v>45758.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45751.20833333334</v>
+        <v>45758.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45751.21875</v>
+        <v>45758.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45751.22916666666</v>
+        <v>45758.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45751.23958333334</v>
+        <v>45758.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,343 +581,343 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45751.25</v>
+        <v>45758.25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45751.26041666666</v>
+        <v>45758.26041666666</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45751.27083333334</v>
+        <v>45758.27083333334</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45751.28125</v>
+        <v>45758.28125</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45751.29166666666</v>
+        <v>45758.29166666666</v>
       </c>
       <c r="B29">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45751.30208333334</v>
+        <v>45758.30208333334</v>
       </c>
       <c r="B30">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45751.3125</v>
+        <v>45758.3125</v>
       </c>
       <c r="B31">
-        <v>187</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45751.32291666666</v>
+        <v>45758.32291666666</v>
       </c>
       <c r="B32">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45751.33333333334</v>
+        <v>45758.33333333334</v>
       </c>
       <c r="B33">
-        <v>340</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45751.34375</v>
+        <v>45758.34375</v>
       </c>
       <c r="B34">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45751.35416666666</v>
+        <v>45758.35416666666</v>
       </c>
       <c r="B35">
-        <v>461</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45751.36458333334</v>
+        <v>45758.36458333334</v>
       </c>
       <c r="B36">
-        <v>517</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45751.375</v>
+        <v>45758.375</v>
       </c>
       <c r="B37">
-        <v>582</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45751.38541666666</v>
+        <v>45758.38541666666</v>
       </c>
       <c r="B38">
-        <v>653</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45751.39583333334</v>
+        <v>45758.39583333334</v>
       </c>
       <c r="B39">
-        <v>726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45751.40625</v>
+        <v>45758.40625</v>
       </c>
       <c r="B40">
-        <v>777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45751.41666666666</v>
+        <v>45758.41666666666</v>
       </c>
       <c r="B41">
-        <v>717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45751.42708333334</v>
+        <v>45758.42708333334</v>
       </c>
       <c r="B42">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45751.4375</v>
+        <v>45758.4375</v>
       </c>
       <c r="B43">
-        <v>870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45751.44791666666</v>
+        <v>45758.44791666666</v>
       </c>
       <c r="B44">
-        <v>865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45751.45833333334</v>
+        <v>45758.45833333334</v>
       </c>
       <c r="B45">
-        <v>894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45751.46875</v>
+        <v>45758.46875</v>
       </c>
       <c r="B46">
-        <v>899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45751.47916666666</v>
+        <v>45758.47916666666</v>
       </c>
       <c r="B47">
-        <v>928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45751.48958333334</v>
+        <v>45758.48958333334</v>
       </c>
       <c r="B48">
-        <v>905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45751.5</v>
+        <v>45758.5</v>
       </c>
       <c r="B49">
-        <v>899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45751.51041666666</v>
+        <v>45758.51041666666</v>
       </c>
       <c r="B50">
-        <v>907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45751.52083333334</v>
+        <v>45758.52083333334</v>
       </c>
       <c r="B51">
-        <v>890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45751.53125</v>
+        <v>45758.53125</v>
       </c>
       <c r="B52">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45751.54166666666</v>
+        <v>45758.54166666666</v>
       </c>
       <c r="B53">
-        <v>943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45751.55208333334</v>
+        <v>45758.55208333334</v>
       </c>
       <c r="B54">
-        <v>861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45751.5625</v>
+        <v>45758.5625</v>
       </c>
       <c r="B55">
-        <v>859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45751.57291666666</v>
+        <v>45758.57291666666</v>
       </c>
       <c r="B56">
-        <v>874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45751.58333333334</v>
+        <v>45758.58333333334</v>
       </c>
       <c r="B57">
-        <v>882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45751.59375</v>
+        <v>45758.59375</v>
       </c>
       <c r="B58">
-        <v>891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45751.60416666666</v>
+        <v>45758.60416666666</v>
       </c>
       <c r="B59">
-        <v>855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45751.61458333334</v>
+        <v>45758.61458333334</v>
       </c>
       <c r="B60">
-        <v>826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45751.625</v>
+        <v>45758.625</v>
       </c>
       <c r="B61">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45751.63541666666</v>
+        <v>45758.63541666666</v>
       </c>
       <c r="B62">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45751.64583333334</v>
+        <v>45758.64583333334</v>
       </c>
       <c r="B63">
-        <v>640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45751.65625</v>
+        <v>45758.65625</v>
       </c>
       <c r="B64">
-        <v>599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45751.66666666666</v>
+        <v>45758.66666666666</v>
       </c>
       <c r="B65">
-        <v>584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45751.67708333334</v>
+        <v>45758.67708333334</v>
       </c>
       <c r="B66">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45751.6875</v>
+        <v>45758.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45751.69791666666</v>
+        <v>45758.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45751.70833333334</v>
+        <v>45758.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45751.71875</v>
+        <v>45758.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45751.72916666666</v>
+        <v>45758.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45751.73958333334</v>
+        <v>45758.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45751.75</v>
+        <v>45758.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45751.76041666666</v>
+        <v>45758.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45751.77083333334</v>
+        <v>45758.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45751.78125</v>
+        <v>45758.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45751.79166666666</v>
+        <v>45758.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45751.80208333334</v>
+        <v>45758.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45751.8125</v>
+        <v>45758.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45751.82291666666</v>
+        <v>45758.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45751.83333333334</v>
+        <v>45758.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45751.84375</v>
+        <v>45758.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45751.85416666666</v>
+        <v>45758.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45751.86458333334</v>
+        <v>45758.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45751.875</v>
+        <v>45758.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45751.88541666666</v>
+        <v>45758.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45751.89583333334</v>
+        <v>45758.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45751.90625</v>
+        <v>45758.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45751.91666666666</v>
+        <v>45758.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45751.92708333334</v>
+        <v>45758.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45751.9375</v>
+        <v>45758.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45751.94791666666</v>
+        <v>45758.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45751.95833333334</v>
+        <v>45758.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45751.96875</v>
+        <v>45758.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45751.97916666666</v>
+        <v>45758.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45751.98958333334</v>
+        <v>45758.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45752</v>
+        <v>45759</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45758.01041666666</v>
+        <v>45776.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45758.02083333334</v>
+        <v>45776.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45758.03125</v>
+        <v>45776.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45758.04166666666</v>
+        <v>45776.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45758.05208333334</v>
+        <v>45776.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45758.0625</v>
+        <v>45776.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45758.07291666666</v>
+        <v>45776.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45758.08333333334</v>
+        <v>45776.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45758.09375</v>
+        <v>45776.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45758.10416666666</v>
+        <v>45776.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45758.11458333334</v>
+        <v>45776.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45758.125</v>
+        <v>45776.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45758.13541666666</v>
+        <v>45776.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45758.14583333334</v>
+        <v>45776.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45758.15625</v>
+        <v>45776.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45758.16666666666</v>
+        <v>45776.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45758.17708333334</v>
+        <v>45776.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45758.1875</v>
+        <v>45776.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45758.19791666666</v>
+        <v>45776.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45758.20833333334</v>
+        <v>45776.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45758.21875</v>
+        <v>45776.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,143 +565,143 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45758.22916666666</v>
+        <v>45776.22916666666</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45758.23958333334</v>
+        <v>45776.23958333334</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45758.25</v>
+        <v>45776.25</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45758.26041666666</v>
+        <v>45776.26041666666</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45758.27083333334</v>
+        <v>45776.27083333334</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45758.28125</v>
+        <v>45776.28125</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45758.29166666666</v>
+        <v>45776.29166666666</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45758.30208333334</v>
+        <v>45776.30208333334</v>
       </c>
       <c r="B30">
-        <v>189</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45758.3125</v>
+        <v>45776.3125</v>
       </c>
       <c r="B31">
-        <v>259</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45758.32291666666</v>
+        <v>45776.32291666666</v>
       </c>
       <c r="B32">
-        <v>317</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45758.33333333334</v>
+        <v>45776.33333333334</v>
       </c>
       <c r="B33">
-        <v>381</v>
+        <v>814</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45758.34375</v>
+        <v>45776.34375</v>
       </c>
       <c r="B34">
-        <v>454</v>
+        <v>984</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45758.35416666666</v>
+        <v>45776.35416666666</v>
       </c>
       <c r="B35">
-        <v>531</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45758.36458333334</v>
+        <v>45776.36458333334</v>
       </c>
       <c r="B36">
-        <v>574</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45758.375</v>
+        <v>45776.375</v>
       </c>
       <c r="B37">
-        <v>659</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45758.38541666666</v>
+        <v>45776.38541666666</v>
       </c>
       <c r="B38">
-        <v>670</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45758.39583333334</v>
+        <v>45776.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45758.40625</v>
+        <v>45776.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45758.41666666666</v>
+        <v>45776.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45758.42708333334</v>
+        <v>45776.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45758.4375</v>
+        <v>45776.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45758.44791666666</v>
+        <v>45776.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45758.45833333334</v>
+        <v>45776.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45758.46875</v>
+        <v>45776.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45758.47916666666</v>
+        <v>45776.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45758.48958333334</v>
+        <v>45776.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45758.5</v>
+        <v>45776.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45758.51041666666</v>
+        <v>45776.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45758.52083333334</v>
+        <v>45776.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45758.53125</v>
+        <v>45776.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45758.54166666666</v>
+        <v>45776.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45758.55208333334</v>
+        <v>45776.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45758.5625</v>
+        <v>45776.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45758.57291666666</v>
+        <v>45776.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45758.58333333334</v>
+        <v>45776.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45758.59375</v>
+        <v>45776.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45758.60416666666</v>
+        <v>45776.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45758.61458333334</v>
+        <v>45776.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45758.625</v>
+        <v>45776.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45758.63541666666</v>
+        <v>45776.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45758.64583333334</v>
+        <v>45776.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45758.65625</v>
+        <v>45776.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45758.66666666666</v>
+        <v>45776.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45758.67708333334</v>
+        <v>45776.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45758.6875</v>
+        <v>45776.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45758.69791666666</v>
+        <v>45776.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45758.70833333334</v>
+        <v>45776.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45758.71875</v>
+        <v>45776.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45758.72916666666</v>
+        <v>45776.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45758.73958333334</v>
+        <v>45776.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45758.75</v>
+        <v>45776.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45758.76041666666</v>
+        <v>45776.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45758.77083333334</v>
+        <v>45776.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45758.78125</v>
+        <v>45776.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45758.79166666666</v>
+        <v>45776.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45758.80208333334</v>
+        <v>45776.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45758.8125</v>
+        <v>45776.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45758.82291666666</v>
+        <v>45776.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45758.83333333334</v>
+        <v>45776.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45758.84375</v>
+        <v>45776.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45758.85416666666</v>
+        <v>45776.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45758.86458333334</v>
+        <v>45776.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45758.875</v>
+        <v>45776.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45758.88541666666</v>
+        <v>45776.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45758.89583333334</v>
+        <v>45776.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45758.90625</v>
+        <v>45776.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45758.91666666666</v>
+        <v>45776.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45758.92708333334</v>
+        <v>45776.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45758.9375</v>
+        <v>45776.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45758.94791666666</v>
+        <v>45776.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45758.95833333334</v>
+        <v>45776.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45758.96875</v>
+        <v>45776.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45758.97916666666</v>
+        <v>45776.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45758.98958333334</v>
+        <v>45776.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45759</v>
+        <v>45777</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,143 +565,143 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45776.27083333334</v>
+        <v>45786.27083333334</v>
       </c>
       <c r="B27">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45776.28125</v>
+        <v>45786.28125</v>
       </c>
       <c r="B28">
-        <v>249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45776.29166666666</v>
+        <v>45786.29166666666</v>
       </c>
       <c r="B29">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45776.30208333334</v>
+        <v>45786.30208333334</v>
       </c>
       <c r="B30">
-        <v>513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45776.3125</v>
+        <v>45786.3125</v>
       </c>
       <c r="B31">
-        <v>619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45776.32291666666</v>
+        <v>45786.32291666666</v>
       </c>
       <c r="B32">
-        <v>717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45776.33333333334</v>
+        <v>45786.33333333334</v>
       </c>
       <c r="B33">
-        <v>814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45776.34375</v>
+        <v>45786.34375</v>
       </c>
       <c r="B34">
-        <v>984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45776.35416666666</v>
+        <v>45786.35416666666</v>
       </c>
       <c r="B35">
-        <v>1095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45776.36458333334</v>
+        <v>45786.36458333334</v>
       </c>
       <c r="B36">
-        <v>1157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45776.375</v>
+        <v>45786.375</v>
       </c>
       <c r="B37">
-        <v>1169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45776.38541666666</v>
+        <v>45786.38541666666</v>
       </c>
       <c r="B38">
-        <v>1294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45776.39583333334</v>
+        <v>45786.39583333334</v>
       </c>
       <c r="B39">
-        <v>1411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45776.40625</v>
+        <v>45786.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45776.41666666666</v>
+        <v>45786.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45776.42708333334</v>
+        <v>45786.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45776.4375</v>
+        <v>45786.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45776.44791666666</v>
+        <v>45786.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45776.45833333334</v>
+        <v>45786.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45776.46875</v>
+        <v>45786.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45776.47916666666</v>
+        <v>45786.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45776.48958333334</v>
+        <v>45786.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45776.5</v>
+        <v>45786.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45776.51041666666</v>
+        <v>45786.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45776.52083333334</v>
+        <v>45786.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45776.53125</v>
+        <v>45786.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45776.54166666666</v>
+        <v>45786.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45776.55208333334</v>
+        <v>45786.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45776.5625</v>
+        <v>45786.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45776.57291666666</v>
+        <v>45786.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45776.58333333334</v>
+        <v>45786.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45776.59375</v>
+        <v>45786.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45776.60416666666</v>
+        <v>45786.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45776.61458333334</v>
+        <v>45786.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45776.625</v>
+        <v>45786.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45776.63541666666</v>
+        <v>45786.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45776.64583333334</v>
+        <v>45786.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45776.65625</v>
+        <v>45786.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45776.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45776.67708333334</v>
+        <v>45786.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45776.6875</v>
+        <v>45786.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45776.69791666666</v>
+        <v>45786.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45776.70833333334</v>
+        <v>45786.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45776.71875</v>
+        <v>45786.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45776.72916666666</v>
+        <v>45786.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45776.73958333334</v>
+        <v>45786.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45776.75</v>
+        <v>45786.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45776.76041666666</v>
+        <v>45786.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45776.77083333334</v>
+        <v>45786.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45776.78125</v>
+        <v>45786.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45776.79166666666</v>
+        <v>45786.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45776.80208333334</v>
+        <v>45786.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45776.8125</v>
+        <v>45786.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45776.82291666666</v>
+        <v>45786.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45776.83333333334</v>
+        <v>45786.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45776.84375</v>
+        <v>45786.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45776.85416666666</v>
+        <v>45786.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45776.86458333334</v>
+        <v>45786.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45776.875</v>
+        <v>45786.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45776.88541666666</v>
+        <v>45786.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45776.89583333334</v>
+        <v>45786.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45776.90625</v>
+        <v>45786.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45776.91666666666</v>
+        <v>45786.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45776.92708333334</v>
+        <v>45786.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45776.9375</v>
+        <v>45786.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45776.94791666666</v>
+        <v>45786.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45776.95833333334</v>
+        <v>45786.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45776.96875</v>
+        <v>45786.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45776.97916666666</v>
+        <v>45786.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45776.98958333334</v>
+        <v>45786.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45777</v>
+        <v>45787</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,159 +557,159 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45786.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45786.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45786.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45786.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45786.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45786.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45786.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45786.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45786.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45786.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45786.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45786.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45786.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45786.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45786.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45786.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45786.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45786.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45786.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45786.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45786.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45786.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45786.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45786.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45786.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45786.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45786.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45786.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45786.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45786.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45786.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45786.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45786.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45786.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45786.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45786.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45786.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45786.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45786.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45786.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45786.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45786.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45786.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45786.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45786.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45786.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45786.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45786.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45786.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45786.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45786.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45786.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45786.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45786.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45786.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45786.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45786.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45786.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45786.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45786.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45786.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45786.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45786.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45786.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45786.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45786.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45786.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45786.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45786.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45786.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45787</v>
+        <v>45798</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45797.01041666666</v>
+        <v>45799.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45797.02083333334</v>
+        <v>45799.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45797.03125</v>
+        <v>45799.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45797.04166666666</v>
+        <v>45799.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45797.05208333334</v>
+        <v>45799.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45797.0625</v>
+        <v>45799.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45797.07291666666</v>
+        <v>45799.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45797.08333333334</v>
+        <v>45799.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45797.09375</v>
+        <v>45799.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45797.10416666666</v>
+        <v>45799.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45797.11458333334</v>
+        <v>45799.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45797.125</v>
+        <v>45799.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45797.13541666666</v>
+        <v>45799.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45797.14583333334</v>
+        <v>45799.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45797.15625</v>
+        <v>45799.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45797.16666666666</v>
+        <v>45799.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45797.17708333334</v>
+        <v>45799.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45797.1875</v>
+        <v>45799.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45797.19791666666</v>
+        <v>45799.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45797.20833333334</v>
+        <v>45799.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,191 +557,191 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45797.21875</v>
+        <v>45799.21875</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45797.22916666666</v>
+        <v>45799.22916666666</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45797.23958333334</v>
+        <v>45799.23958333334</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45797.25</v>
+        <v>45799.25</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45797.26041666666</v>
+        <v>45799.26041666666</v>
       </c>
       <c r="B26">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45797.27083333334</v>
+        <v>45799.27083333334</v>
       </c>
       <c r="B27">
-        <v>250</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45797.28125</v>
+        <v>45799.28125</v>
       </c>
       <c r="B28">
-        <v>330</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45797.29166666666</v>
+        <v>45799.29166666666</v>
       </c>
       <c r="B29">
-        <v>419</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45797.30208333334</v>
+        <v>45799.30208333334</v>
       </c>
       <c r="B30">
-        <v>587</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45797.3125</v>
+        <v>45799.3125</v>
       </c>
       <c r="B31">
-        <v>675</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45797.32291666666</v>
+        <v>45799.32291666666</v>
       </c>
       <c r="B32">
-        <v>772</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45797.33333333334</v>
+        <v>45799.33333333334</v>
       </c>
       <c r="B33">
-        <v>850</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45797.34375</v>
+        <v>45799.34375</v>
       </c>
       <c r="B34">
-        <v>1005</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45797.35416666666</v>
+        <v>45799.35416666666</v>
       </c>
       <c r="B35">
-        <v>1123</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45797.36458333334</v>
+        <v>45799.36458333334</v>
       </c>
       <c r="B36">
-        <v>1208</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45797.375</v>
+        <v>45799.375</v>
       </c>
       <c r="B37">
-        <v>1244</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45797.38541666666</v>
+        <v>45799.38541666666</v>
       </c>
       <c r="B38">
-        <v>1346</v>
+        <v>879</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45797.39583333334</v>
+        <v>45799.39583333334</v>
       </c>
       <c r="B39">
-        <v>1375</v>
+        <v>917</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45797.40625</v>
+        <v>45799.40625</v>
       </c>
       <c r="B40">
-        <v>1393</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45797.41666666666</v>
+        <v>45799.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45797.42708333334</v>
+        <v>45799.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45797.4375</v>
+        <v>45799.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45797.44791666666</v>
+        <v>45799.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45797.45833333334</v>
+        <v>45799.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45797.46875</v>
+        <v>45799.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45797.47916666666</v>
+        <v>45799.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45797.48958333334</v>
+        <v>45799.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45797.5</v>
+        <v>45799.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45797.51041666666</v>
+        <v>45799.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45797.52083333334</v>
+        <v>45799.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45797.53125</v>
+        <v>45799.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45797.54166666666</v>
+        <v>45799.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45797.55208333334</v>
+        <v>45799.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45797.5625</v>
+        <v>45799.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45797.57291666666</v>
+        <v>45799.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45797.58333333334</v>
+        <v>45799.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45797.59375</v>
+        <v>45799.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45797.60416666666</v>
+        <v>45799.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45797.61458333334</v>
+        <v>45799.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45797.625</v>
+        <v>45799.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45797.63541666666</v>
+        <v>45799.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45797.64583333334</v>
+        <v>45799.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45797.65625</v>
+        <v>45799.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45797.66666666666</v>
+        <v>45799.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45797.67708333334</v>
+        <v>45799.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45797.6875</v>
+        <v>45799.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45797.69791666666</v>
+        <v>45799.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45797.70833333334</v>
+        <v>45799.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45797.71875</v>
+        <v>45799.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45797.72916666666</v>
+        <v>45799.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45797.73958333334</v>
+        <v>45799.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45797.75</v>
+        <v>45799.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45797.76041666666</v>
+        <v>45799.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45797.77083333334</v>
+        <v>45799.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45797.78125</v>
+        <v>45799.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45797.79166666666</v>
+        <v>45799.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45797.80208333334</v>
+        <v>45799.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45797.8125</v>
+        <v>45799.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45797.82291666666</v>
+        <v>45799.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45797.83333333334</v>
+        <v>45799.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45797.84375</v>
+        <v>45799.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45797.85416666666</v>
+        <v>45799.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45797.86458333334</v>
+        <v>45799.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45797.875</v>
+        <v>45799.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45797.88541666666</v>
+        <v>45799.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45797.89583333334</v>
+        <v>45799.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45797.90625</v>
+        <v>45799.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45797.91666666666</v>
+        <v>45799.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45797.92708333334</v>
+        <v>45799.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45797.9375</v>
+        <v>45799.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45797.94791666666</v>
+        <v>45799.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45797.95833333334</v>
+        <v>45799.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45797.96875</v>
+        <v>45799.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45797.97916666666</v>
+        <v>45799.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45797.98958333334</v>
+        <v>45799.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45798</v>
+        <v>45800</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45799.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45799.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45799.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45799.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45799.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45799.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45799.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45799.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45799.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45799.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45799.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45799.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45799.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45799.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45799.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45799.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45799.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45799.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45799.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45799.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,191 +557,191 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45799.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45799.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45799.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B24">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45799.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B25">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45799.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B26">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45799.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B27">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45799.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B28">
-        <v>218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45799.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B29">
-        <v>251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45799.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B30">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45799.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B31">
-        <v>398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45799.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B32">
-        <v>487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45799.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B33">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45799.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B34">
-        <v>614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45799.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B35">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45799.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B36">
-        <v>778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45799.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B37">
-        <v>827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45799.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B38">
-        <v>879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45799.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B39">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45799.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B40">
-        <v>1057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45799.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B41">
-        <v>1099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45799.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B42">
-        <v>1154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45799.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B43">
-        <v>1216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45799.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B44">
-        <v>1212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45799.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45799.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45799.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45799.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45799.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45799.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45799.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45799.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45799.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45799.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45799.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45799.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45799.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45799.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45799.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45799.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45799.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45799.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45799.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45799.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45799.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45799.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45799.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45799.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45799.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45799.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45799.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45799.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45799.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45799.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45799.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45799.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45799.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45799.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45799.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45799.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45799.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45799.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45799.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45799.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45799.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45799.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45799.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45799.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45799.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45799.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45799.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45799.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45799.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45799.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45799.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45799.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45800</v>
+        <v>45808</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45807.01041666666</v>
+        <v>45810.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45807.02083333334</v>
+        <v>45810.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45807.03125</v>
+        <v>45810.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45807.04166666666</v>
+        <v>45810.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45807.05208333334</v>
+        <v>45810.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45807.0625</v>
+        <v>45810.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45807.07291666666</v>
+        <v>45810.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45807.08333333334</v>
+        <v>45810.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45807.09375</v>
+        <v>45810.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45807.10416666666</v>
+        <v>45810.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45807.11458333334</v>
+        <v>45810.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45807.125</v>
+        <v>45810.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45807.13541666666</v>
+        <v>45810.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45807.14583333334</v>
+        <v>45810.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45807.15625</v>
+        <v>45810.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45807.16666666666</v>
+        <v>45810.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45807.17708333334</v>
+        <v>45810.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45807.1875</v>
+        <v>45810.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45807.19791666666</v>
+        <v>45810.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,175 +549,175 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45807.20833333334</v>
+        <v>45810.20833333334</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45807.21875</v>
+        <v>45810.21875</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45807.22916666666</v>
+        <v>45810.22916666666</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45807.23958333334</v>
+        <v>45810.23958333334</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45807.25</v>
+        <v>45810.25</v>
       </c>
       <c r="B25">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45807.26041666666</v>
+        <v>45810.26041666666</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45807.27083333334</v>
+        <v>45810.27083333334</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45807.28125</v>
+        <v>45810.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45807.29166666666</v>
+        <v>45810.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45807.30208333334</v>
+        <v>45810.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45807.3125</v>
+        <v>45810.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45807.32291666666</v>
+        <v>45810.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45807.33333333334</v>
+        <v>45810.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45807.34375</v>
+        <v>45810.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45807.35416666666</v>
+        <v>45810.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45807.36458333334</v>
+        <v>45810.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45807.375</v>
+        <v>45810.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45807.38541666666</v>
+        <v>45810.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45807.39583333334</v>
+        <v>45810.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45807.40625</v>
+        <v>45810.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45807.41666666666</v>
+        <v>45810.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45807.42708333334</v>
+        <v>45810.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45807.4375</v>
+        <v>45810.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45807.44791666666</v>
+        <v>45810.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45807.45833333334</v>
+        <v>45810.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45807.46875</v>
+        <v>45810.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45807.47916666666</v>
+        <v>45810.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45807.48958333334</v>
+        <v>45810.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45807.5</v>
+        <v>45810.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45807.51041666666</v>
+        <v>45810.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45807.52083333334</v>
+        <v>45810.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45807.53125</v>
+        <v>45810.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45807.54166666666</v>
+        <v>45810.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45807.55208333334</v>
+        <v>45810.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45807.5625</v>
+        <v>45810.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45807.57291666666</v>
+        <v>45810.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45807.58333333334</v>
+        <v>45810.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45807.59375</v>
+        <v>45810.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45807.60416666666</v>
+        <v>45810.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45807.61458333334</v>
+        <v>45810.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45807.625</v>
+        <v>45810.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45807.63541666666</v>
+        <v>45810.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45807.64583333334</v>
+        <v>45810.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45807.65625</v>
+        <v>45810.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45807.66666666666</v>
+        <v>45810.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45807.67708333334</v>
+        <v>45810.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45807.6875</v>
+        <v>45810.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45807.69791666666</v>
+        <v>45810.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45807.70833333334</v>
+        <v>45810.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45807.71875</v>
+        <v>45810.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45807.72916666666</v>
+        <v>45810.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45807.73958333334</v>
+        <v>45810.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45807.75</v>
+        <v>45810.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45807.76041666666</v>
+        <v>45810.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45807.77083333334</v>
+        <v>45810.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45807.78125</v>
+        <v>45810.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45807.79166666666</v>
+        <v>45810.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45807.80208333334</v>
+        <v>45810.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45807.8125</v>
+        <v>45810.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45807.82291666666</v>
+        <v>45810.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45807.83333333334</v>
+        <v>45810.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45807.84375</v>
+        <v>45810.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45807.85416666666</v>
+        <v>45810.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45807.86458333334</v>
+        <v>45810.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45807.875</v>
+        <v>45810.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45807.88541666666</v>
+        <v>45810.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45807.89583333334</v>
+        <v>45810.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45807.90625</v>
+        <v>45810.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45807.91666666666</v>
+        <v>45810.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45807.92708333334</v>
+        <v>45810.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45807.9375</v>
+        <v>45810.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45807.94791666666</v>
+        <v>45810.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45807.95833333334</v>
+        <v>45810.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45807.96875</v>
+        <v>45810.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45807.97916666666</v>
+        <v>45810.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45807.98958333334</v>
+        <v>45810.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45808</v>
+        <v>45811</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45810.01041666666</v>
+        <v>45821.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45810.02083333334</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45810.03125</v>
+        <v>45821.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45810.04166666666</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45810.05208333334</v>
+        <v>45821.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45810.0625</v>
+        <v>45821.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45810.07291666666</v>
+        <v>45821.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45810.08333333334</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45810.09375</v>
+        <v>45821.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45810.10416666666</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45810.11458333334</v>
+        <v>45821.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45810.125</v>
+        <v>45821.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45810.13541666666</v>
+        <v>45821.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45810.14583333334</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45810.15625</v>
+        <v>45821.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45810.16666666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45810.17708333334</v>
+        <v>45821.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45810.1875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45810.19791666666</v>
+        <v>45821.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,175 +549,175 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45810.20833333334</v>
+        <v>45821.20833333334</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45810.21875</v>
+        <v>45821.21875</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45810.22916666666</v>
+        <v>45821.22916666666</v>
       </c>
       <c r="B23">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45810.23958333334</v>
+        <v>45821.23958333334</v>
       </c>
       <c r="B24">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45810.25</v>
+        <v>45821.25</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45810.26041666666</v>
+        <v>45821.26041666666</v>
       </c>
       <c r="B26">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45810.27083333334</v>
+        <v>45821.27083333334</v>
       </c>
       <c r="B27">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45810.28125</v>
+        <v>45821.28125</v>
       </c>
       <c r="B28">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45810.29166666666</v>
+        <v>45821.29166666666</v>
       </c>
       <c r="B29">
-        <v>437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45810.30208333334</v>
+        <v>45821.30208333334</v>
       </c>
       <c r="B30">
-        <v>616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45810.3125</v>
+        <v>45821.3125</v>
       </c>
       <c r="B31">
-        <v>733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45810.32291666666</v>
+        <v>45821.32291666666</v>
       </c>
       <c r="B32">
-        <v>840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45810.33333333334</v>
+        <v>45821.33333333334</v>
       </c>
       <c r="B33">
-        <v>939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45810.34375</v>
+        <v>45821.34375</v>
       </c>
       <c r="B34">
-        <v>1057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45810.35416666666</v>
+        <v>45821.35416666666</v>
       </c>
       <c r="B35">
-        <v>1149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45810.36458333334</v>
+        <v>45821.36458333334</v>
       </c>
       <c r="B36">
-        <v>1255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45810.375</v>
+        <v>45821.375</v>
       </c>
       <c r="B37">
-        <v>1280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45810.38541666666</v>
+        <v>45821.38541666666</v>
       </c>
       <c r="B38">
-        <v>1411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45810.39583333334</v>
+        <v>45821.39583333334</v>
       </c>
       <c r="B39">
-        <v>1476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45810.40625</v>
+        <v>45821.40625</v>
       </c>
       <c r="B40">
-        <v>1547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45810.41666666666</v>
+        <v>45821.41666666666</v>
       </c>
       <c r="B41">
-        <v>1586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45810.42708333334</v>
+        <v>45821.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45810.4375</v>
+        <v>45821.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45810.44791666666</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45810.45833333334</v>
+        <v>45821.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45810.46875</v>
+        <v>45821.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45810.47916666666</v>
+        <v>45821.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45810.48958333334</v>
+        <v>45821.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45810.5</v>
+        <v>45821.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45810.51041666666</v>
+        <v>45821.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45810.52083333334</v>
+        <v>45821.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45810.53125</v>
+        <v>45821.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45810.54166666666</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45810.55208333334</v>
+        <v>45821.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45810.5625</v>
+        <v>45821.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45810.57291666666</v>
+        <v>45821.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45810.58333333334</v>
+        <v>45821.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45810.59375</v>
+        <v>45821.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45810.60416666666</v>
+        <v>45821.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45810.61458333334</v>
+        <v>45821.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45810.625</v>
+        <v>45821.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45810.63541666666</v>
+        <v>45821.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45810.64583333334</v>
+        <v>45821.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45810.65625</v>
+        <v>45821.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45810.66666666666</v>
+        <v>45821.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45810.67708333334</v>
+        <v>45821.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45810.6875</v>
+        <v>45821.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45810.69791666666</v>
+        <v>45821.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45810.70833333334</v>
+        <v>45821.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45810.71875</v>
+        <v>45821.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45810.72916666666</v>
+        <v>45821.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45810.73958333334</v>
+        <v>45821.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45810.75</v>
+        <v>45821.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45810.76041666666</v>
+        <v>45821.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45810.77083333334</v>
+        <v>45821.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45810.78125</v>
+        <v>45821.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45810.79166666666</v>
+        <v>45821.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45810.80208333334</v>
+        <v>45821.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45810.8125</v>
+        <v>45821.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45810.82291666666</v>
+        <v>45821.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45810.83333333334</v>
+        <v>45821.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45810.84375</v>
+        <v>45821.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45810.85416666666</v>
+        <v>45821.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45810.86458333334</v>
+        <v>45821.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45810.875</v>
+        <v>45821.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45810.88541666666</v>
+        <v>45821.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45810.89583333334</v>
+        <v>45821.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45810.90625</v>
+        <v>45821.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45810.91666666666</v>
+        <v>45821.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45810.92708333334</v>
+        <v>45821.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45810.9375</v>
+        <v>45821.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45810.94791666666</v>
+        <v>45821.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45810.95833333334</v>
+        <v>45821.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45810.96875</v>
+        <v>45821.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45810.97916666666</v>
+        <v>45821.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45810.98958333334</v>
+        <v>45821.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45811</v>
+        <v>45822</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,175 +549,175 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B23">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45821.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B26">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45821.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45821.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45821.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45821.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45821.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45821.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45821.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45821.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45821.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45821.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45821.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45821.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45821.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45821.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45821.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45821.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45821.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45821.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45821.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45821.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45821.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45821.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45821.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45821.51041666666</v>
+        <v>45825.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45821.52083333334</v>
+        <v>45825.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45821.53125</v>
+        <v>45825.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45821.54166666666</v>
+        <v>45825.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45821.55208333334</v>
+        <v>45825.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45821.5625</v>
+        <v>45825.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45821.57291666666</v>
+        <v>45825.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45821.58333333334</v>
+        <v>45825.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45821.59375</v>
+        <v>45825.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45821.60416666666</v>
+        <v>45825.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45821.61458333334</v>
+        <v>45825.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45821.625</v>
+        <v>45825.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45821.63541666666</v>
+        <v>45825.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45821.64583333334</v>
+        <v>45825.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45821.65625</v>
+        <v>45825.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45821.66666666666</v>
+        <v>45825.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45821.67708333334</v>
+        <v>45825.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45821.6875</v>
+        <v>45825.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45821.69791666666</v>
+        <v>45825.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45821.70833333334</v>
+        <v>45825.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45821.71875</v>
+        <v>45825.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45821.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45821.73958333334</v>
+        <v>45825.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45821.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45821.76041666666</v>
+        <v>45825.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45821.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45821.78125</v>
+        <v>45825.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45821.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45821.80208333334</v>
+        <v>45825.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45821.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45821.82291666666</v>
+        <v>45825.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45821.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45821.84375</v>
+        <v>45825.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45821.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45821.86458333334</v>
+        <v>45825.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45821.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45821.88541666666</v>
+        <v>45825.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45821.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45821.90625</v>
+        <v>45825.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45821.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45821.92708333334</v>
+        <v>45825.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45821.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45821.94791666666</v>
+        <v>45825.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45821.95833333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45821.96875</v>
+        <v>45825.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45821.97916666666</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45821.98958333334</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45822</v>
+        <v>45826</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45825.01041666666</v>
+        <v>45828.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45825.02083333334</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45825.03125</v>
+        <v>45828.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45825.04166666666</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45825.05208333334</v>
+        <v>45828.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45825.0625</v>
+        <v>45828.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45825.07291666666</v>
+        <v>45828.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45825.08333333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45825.09375</v>
+        <v>45828.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45825.10416666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45825.11458333334</v>
+        <v>45828.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45825.125</v>
+        <v>45828.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45825.13541666666</v>
+        <v>45828.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45825.14583333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45825.15625</v>
+        <v>45828.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45825.16666666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45825.17708333334</v>
+        <v>45828.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45825.1875</v>
+        <v>45828.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45825.19791666666</v>
+        <v>45828.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,223 +549,223 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45825.20833333334</v>
+        <v>45828.20833333334</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45825.21875</v>
+        <v>45828.21875</v>
       </c>
       <c r="B22">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45825.22916666666</v>
+        <v>45828.22916666666</v>
       </c>
       <c r="B23">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45825.23958333334</v>
+        <v>45828.23958333334</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45825.25</v>
+        <v>45828.25</v>
       </c>
       <c r="B25">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45825.26041666666</v>
+        <v>45828.26041666666</v>
       </c>
       <c r="B26">
-        <v>229</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45825.27083333334</v>
+        <v>45828.27083333334</v>
       </c>
       <c r="B27">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45825.28125</v>
+        <v>45828.28125</v>
       </c>
       <c r="B28">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45825.29166666666</v>
+        <v>45828.29166666666</v>
       </c>
       <c r="B29">
-        <v>470</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45825.30208333334</v>
+        <v>45828.30208333334</v>
       </c>
       <c r="B30">
-        <v>599</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45825.3125</v>
+        <v>45828.3125</v>
       </c>
       <c r="B31">
-        <v>729</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45825.32291666666</v>
+        <v>45828.32291666666</v>
       </c>
       <c r="B32">
-        <v>828</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45825.33333333334</v>
+        <v>45828.33333333334</v>
       </c>
       <c r="B33">
-        <v>898</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45825.34375</v>
+        <v>45828.34375</v>
       </c>
       <c r="B34">
-        <v>1021</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45825.35416666666</v>
+        <v>45828.35416666666</v>
       </c>
       <c r="B35">
-        <v>1138</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45825.36458333334</v>
+        <v>45828.36458333334</v>
       </c>
       <c r="B36">
-        <v>1250</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45825.375</v>
+        <v>45828.375</v>
       </c>
       <c r="B37">
-        <v>1324</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45825.38541666666</v>
+        <v>45828.38541666666</v>
       </c>
       <c r="B38">
-        <v>1428</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45825.39583333334</v>
+        <v>45828.39583333334</v>
       </c>
       <c r="B39">
-        <v>1498</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45825.40625</v>
+        <v>45828.40625</v>
       </c>
       <c r="B40">
-        <v>1540</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45825.41666666666</v>
+        <v>45828.41666666666</v>
       </c>
       <c r="B41">
-        <v>1560</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45825.42708333334</v>
+        <v>45828.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45825.4375</v>
+        <v>45828.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45825.44791666666</v>
+        <v>45828.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45825.45833333334</v>
+        <v>45828.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45825.46875</v>
+        <v>45828.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45825.47916666666</v>
+        <v>45828.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45825.48958333334</v>
+        <v>45828.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45825.5</v>
+        <v>45828.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45825.51041666666</v>
+        <v>45828.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45825.52083333334</v>
+        <v>45828.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45825.53125</v>
+        <v>45828.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45825.54166666666</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45825.55208333334</v>
+        <v>45828.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45825.5625</v>
+        <v>45828.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45825.57291666666</v>
+        <v>45828.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45825.58333333334</v>
+        <v>45828.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45825.59375</v>
+        <v>45828.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45825.60416666666</v>
+        <v>45828.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45825.61458333334</v>
+        <v>45828.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45825.625</v>
+        <v>45828.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45825.63541666666</v>
+        <v>45828.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45825.64583333334</v>
+        <v>45828.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45825.65625</v>
+        <v>45828.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45825.66666666666</v>
+        <v>45828.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45825.67708333334</v>
+        <v>45828.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45825.6875</v>
+        <v>45828.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45825.69791666666</v>
+        <v>45828.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45825.70833333334</v>
+        <v>45828.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45825.71875</v>
+        <v>45828.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45825.72916666666</v>
+        <v>45828.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45825.73958333334</v>
+        <v>45828.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45825.75</v>
+        <v>45828.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45825.76041666666</v>
+        <v>45828.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45825.77083333334</v>
+        <v>45828.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45825.78125</v>
+        <v>45828.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45825.79166666666</v>
+        <v>45828.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45825.80208333334</v>
+        <v>45828.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45825.8125</v>
+        <v>45828.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45825.82291666666</v>
+        <v>45828.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45825.83333333334</v>
+        <v>45828.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45825.84375</v>
+        <v>45828.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45825.85416666666</v>
+        <v>45828.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45825.86458333334</v>
+        <v>45828.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45825.875</v>
+        <v>45828.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45825.88541666666</v>
+        <v>45828.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45825.89583333334</v>
+        <v>45828.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45825.90625</v>
+        <v>45828.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45825.91666666666</v>
+        <v>45828.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45825.92708333334</v>
+        <v>45828.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45825.9375</v>
+        <v>45828.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45825.94791666666</v>
+        <v>45828.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45825.95833333334</v>
+        <v>45828.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45825.96875</v>
+        <v>45828.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45825.97916666666</v>
+        <v>45828.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45825.98958333334</v>
+        <v>45828.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45828.01041666666</v>
+        <v>45859.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45828.02083333334</v>
+        <v>45859.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45828.03125</v>
+        <v>45859.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45828.04166666666</v>
+        <v>45859.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45828.05208333334</v>
+        <v>45859.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45828.0625</v>
+        <v>45859.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45828.07291666666</v>
+        <v>45859.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45828.08333333334</v>
+        <v>45859.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45828.09375</v>
+        <v>45859.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45828.10416666666</v>
+        <v>45859.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45828.11458333334</v>
+        <v>45859.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45828.125</v>
+        <v>45859.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45828.13541666666</v>
+        <v>45859.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45828.14583333334</v>
+        <v>45859.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45828.15625</v>
+        <v>45859.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45828.16666666666</v>
+        <v>45859.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45828.17708333334</v>
+        <v>45859.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45828.1875</v>
+        <v>45859.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45828.19791666666</v>
+        <v>45859.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,223 +549,223 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45828.20833333334</v>
+        <v>45859.20833333334</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45828.21875</v>
+        <v>45859.21875</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45828.22916666666</v>
+        <v>45859.22916666666</v>
       </c>
       <c r="B23">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45828.23958333334</v>
+        <v>45859.23958333334</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45828.25</v>
+        <v>45859.25</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45828.26041666666</v>
+        <v>45859.26041666666</v>
       </c>
       <c r="B26">
-        <v>199</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45828.27083333334</v>
+        <v>45859.27083333334</v>
       </c>
       <c r="B27">
-        <v>262</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45828.28125</v>
+        <v>45859.28125</v>
       </c>
       <c r="B28">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45828.29166666666</v>
+        <v>45859.29166666666</v>
       </c>
       <c r="B29">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45828.30208333334</v>
+        <v>45859.30208333334</v>
       </c>
       <c r="B30">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45828.3125</v>
+        <v>45859.3125</v>
       </c>
       <c r="B31">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45828.32291666666</v>
+        <v>45859.32291666666</v>
       </c>
       <c r="B32">
-        <v>660</v>
+        <v>748</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45828.33333333334</v>
+        <v>45859.33333333334</v>
       </c>
       <c r="B33">
-        <v>783</v>
+        <v>850</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45828.34375</v>
+        <v>45859.34375</v>
       </c>
       <c r="B34">
-        <v>912</v>
+        <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45828.35416666666</v>
+        <v>45859.35416666666</v>
       </c>
       <c r="B35">
-        <v>1006</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45828.36458333334</v>
+        <v>45859.36458333334</v>
       </c>
       <c r="B36">
-        <v>1052</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45828.375</v>
+        <v>45859.375</v>
       </c>
       <c r="B37">
-        <v>1134</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45828.38541666666</v>
+        <v>45859.38541666666</v>
       </c>
       <c r="B38">
-        <v>1251</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45828.39583333334</v>
+        <v>45859.39583333334</v>
       </c>
       <c r="B39">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45828.40625</v>
+        <v>45859.40625</v>
       </c>
       <c r="B40">
-        <v>1344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45828.41666666666</v>
+        <v>45859.41666666666</v>
       </c>
       <c r="B41">
-        <v>1351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45828.42708333334</v>
+        <v>45859.42708333334</v>
       </c>
       <c r="B42">
-        <v>1424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45828.4375</v>
+        <v>45859.4375</v>
       </c>
       <c r="B43">
-        <v>1482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45828.44791666666</v>
+        <v>45859.44791666666</v>
       </c>
       <c r="B44">
-        <v>1545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45828.45833333334</v>
+        <v>45859.45833333334</v>
       </c>
       <c r="B45">
-        <v>1557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45828.46875</v>
+        <v>45859.46875</v>
       </c>
       <c r="B46">
-        <v>1643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45828.47916666666</v>
+        <v>45859.47916666666</v>
       </c>
       <c r="B47">
-        <v>1678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45828.48958333334</v>
+        <v>45859.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45828.5</v>
+        <v>45859.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45828.51041666666</v>
+        <v>45859.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45828.52083333334</v>
+        <v>45859.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45828.53125</v>
+        <v>45859.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45828.54166666666</v>
+        <v>45859.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45828.55208333334</v>
+        <v>45859.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45828.5625</v>
+        <v>45859.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45828.57291666666</v>
+        <v>45859.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45828.58333333334</v>
+        <v>45859.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45828.59375</v>
+        <v>45859.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45828.60416666666</v>
+        <v>45859.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45828.61458333334</v>
+        <v>45859.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45828.625</v>
+        <v>45859.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45828.63541666666</v>
+        <v>45859.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45828.64583333334</v>
+        <v>45859.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45828.65625</v>
+        <v>45859.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45828.66666666666</v>
+        <v>45859.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45828.67708333334</v>
+        <v>45859.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45828.6875</v>
+        <v>45859.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45828.69791666666</v>
+        <v>45859.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45828.70833333334</v>
+        <v>45859.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45828.71875</v>
+        <v>45859.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45828.72916666666</v>
+        <v>45859.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45828.73958333334</v>
+        <v>45859.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45828.75</v>
+        <v>45859.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45828.76041666666</v>
+        <v>45859.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45828.77083333334</v>
+        <v>45859.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45828.78125</v>
+        <v>45859.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45828.79166666666</v>
+        <v>45859.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45828.80208333334</v>
+        <v>45859.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45828.8125</v>
+        <v>45859.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45828.82291666666</v>
+        <v>45859.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45828.83333333334</v>
+        <v>45859.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45828.84375</v>
+        <v>45859.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45828.85416666666</v>
+        <v>45859.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45828.86458333334</v>
+        <v>45859.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45828.875</v>
+        <v>45859.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45828.88541666666</v>
+        <v>45859.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45828.89583333334</v>
+        <v>45859.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45828.90625</v>
+        <v>45859.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45828.91666666666</v>
+        <v>45859.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45828.92708333334</v>
+        <v>45859.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45828.9375</v>
+        <v>45859.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45828.94791666666</v>
+        <v>45859.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45828.95833333334</v>
+        <v>45859.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45828.96875</v>
+        <v>45859.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45828.97916666666</v>
+        <v>45859.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45828.98958333334</v>
+        <v>45859.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45829</v>
+        <v>45860</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45859.01041666666</v>
+        <v>45863.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45859.02083333334</v>
+        <v>45863.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45859.03125</v>
+        <v>45863.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45859.04166666666</v>
+        <v>45863.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45859.05208333334</v>
+        <v>45863.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45859.0625</v>
+        <v>45863.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45859.07291666666</v>
+        <v>45863.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45859.08333333334</v>
+        <v>45863.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45859.09375</v>
+        <v>45863.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45859.10416666666</v>
+        <v>45863.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45859.11458333334</v>
+        <v>45863.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45859.125</v>
+        <v>45863.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45859.13541666666</v>
+        <v>45863.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45859.14583333334</v>
+        <v>45863.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45859.15625</v>
+        <v>45863.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45859.16666666666</v>
+        <v>45863.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45859.17708333334</v>
+        <v>45863.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45859.1875</v>
+        <v>45863.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45859.19791666666</v>
+        <v>45863.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45859.20833333334</v>
+        <v>45863.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,23 +557,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45859.21875</v>
+        <v>45863.21875</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45859.22916666666</v>
+        <v>45863.22916666666</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45859.23958333334</v>
+        <v>45863.23958333334</v>
       </c>
       <c r="B24">
         <v>45</v>
@@ -581,127 +581,127 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45859.25</v>
+        <v>45863.25</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45859.26041666666</v>
+        <v>45863.26041666666</v>
       </c>
       <c r="B26">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45859.27083333334</v>
+        <v>45863.27083333334</v>
       </c>
       <c r="B27">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45859.28125</v>
+        <v>45863.28125</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45859.29166666666</v>
+        <v>45863.29166666666</v>
       </c>
       <c r="B29">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45859.30208333334</v>
+        <v>45863.30208333334</v>
       </c>
       <c r="B30">
-        <v>508</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45859.3125</v>
+        <v>45863.3125</v>
       </c>
       <c r="B31">
-        <v>616</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45859.32291666666</v>
+        <v>45863.32291666666</v>
       </c>
       <c r="B32">
-        <v>748</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45859.33333333334</v>
+        <v>45863.33333333334</v>
       </c>
       <c r="B33">
-        <v>850</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45859.34375</v>
+        <v>45863.34375</v>
       </c>
       <c r="B34">
-        <v>950</v>
+        <v>883</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45859.35416666666</v>
+        <v>45863.35416666666</v>
       </c>
       <c r="B35">
-        <v>1033</v>
+        <v>959</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45859.36458333334</v>
+        <v>45863.36458333334</v>
       </c>
       <c r="B36">
-        <v>1101</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45859.375</v>
+        <v>45863.375</v>
       </c>
       <c r="B37">
-        <v>1166</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45859.38541666666</v>
+        <v>45863.38541666666</v>
       </c>
       <c r="B38">
-        <v>1241</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45859.39583333334</v>
+        <v>45863.39583333334</v>
       </c>
       <c r="B39">
-        <v>1304</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45859.40625</v>
+        <v>45863.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45859.41666666666</v>
+        <v>45863.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45859.42708333334</v>
+        <v>45863.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45859.4375</v>
+        <v>45863.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45859.44791666666</v>
+        <v>45863.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45859.45833333334</v>
+        <v>45863.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45859.46875</v>
+        <v>45863.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45859.47916666666</v>
+        <v>45863.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45859.48958333334</v>
+        <v>45863.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45859.5</v>
+        <v>45863.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45859.51041666666</v>
+        <v>45863.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45859.52083333334</v>
+        <v>45863.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45859.53125</v>
+        <v>45863.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45859.54166666666</v>
+        <v>45863.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45859.55208333334</v>
+        <v>45863.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45859.5625</v>
+        <v>45863.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45859.57291666666</v>
+        <v>45863.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45859.58333333334</v>
+        <v>45863.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45859.59375</v>
+        <v>45863.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45859.60416666666</v>
+        <v>45863.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45859.61458333334</v>
+        <v>45863.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45859.625</v>
+        <v>45863.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45859.63541666666</v>
+        <v>45863.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45859.64583333334</v>
+        <v>45863.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45859.65625</v>
+        <v>45863.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45859.66666666666</v>
+        <v>45863.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45859.67708333334</v>
+        <v>45863.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45859.6875</v>
+        <v>45863.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45859.69791666666</v>
+        <v>45863.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45859.70833333334</v>
+        <v>45863.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45859.71875</v>
+        <v>45863.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45859.72916666666</v>
+        <v>45863.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45859.73958333334</v>
+        <v>45863.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45859.75</v>
+        <v>45863.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45859.76041666666</v>
+        <v>45863.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45859.77083333334</v>
+        <v>45863.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45859.78125</v>
+        <v>45863.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45859.79166666666</v>
+        <v>45863.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45859.80208333334</v>
+        <v>45863.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45859.8125</v>
+        <v>45863.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45859.82291666666</v>
+        <v>45863.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45859.83333333334</v>
+        <v>45863.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45859.84375</v>
+        <v>45863.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45859.85416666666</v>
+        <v>45863.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45859.86458333334</v>
+        <v>45863.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45859.875</v>
+        <v>45863.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45859.88541666666</v>
+        <v>45863.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45859.89583333334</v>
+        <v>45863.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45859.90625</v>
+        <v>45863.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45859.91666666666</v>
+        <v>45863.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45859.92708333334</v>
+        <v>45863.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45859.9375</v>
+        <v>45863.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45859.94791666666</v>
+        <v>45863.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45859.95833333334</v>
+        <v>45863.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45859.96875</v>
+        <v>45863.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45859.97916666666</v>
+        <v>45863.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45859.98958333334</v>
+        <v>45863.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45860</v>
+        <v>45864</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45863.01041666666</v>
+        <v>45875.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45863.02083333334</v>
+        <v>45875.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45863.03125</v>
+        <v>45875.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45863.04166666666</v>
+        <v>45875.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45863.05208333334</v>
+        <v>45875.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45863.0625</v>
+        <v>45875.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45863.07291666666</v>
+        <v>45875.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45863.08333333334</v>
+        <v>45875.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45863.09375</v>
+        <v>45875.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45863.10416666666</v>
+        <v>45875.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45863.11458333334</v>
+        <v>45875.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45863.125</v>
+        <v>45875.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45863.13541666666</v>
+        <v>45875.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45863.14583333334</v>
+        <v>45875.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45863.15625</v>
+        <v>45875.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45863.16666666666</v>
+        <v>45875.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45863.17708333334</v>
+        <v>45875.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45863.1875</v>
+        <v>45875.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45863.19791666666</v>
+        <v>45875.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45863.20833333334</v>
+        <v>45875.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,151 +557,151 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45863.21875</v>
+        <v>45875.21875</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45863.22916666666</v>
+        <v>45875.22916666666</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45863.23958333334</v>
+        <v>45875.23958333334</v>
       </c>
       <c r="B24">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45863.25</v>
+        <v>45875.25</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45863.26041666666</v>
+        <v>45875.26041666666</v>
       </c>
       <c r="B26">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45863.27083333334</v>
+        <v>45875.27083333334</v>
       </c>
       <c r="B27">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45863.28125</v>
+        <v>45875.28125</v>
       </c>
       <c r="B28">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45863.29166666666</v>
+        <v>45875.29166666666</v>
       </c>
       <c r="B29">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45863.30208333334</v>
+        <v>45875.30208333334</v>
       </c>
       <c r="B30">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45863.3125</v>
+        <v>45875.3125</v>
       </c>
       <c r="B31">
-        <v>587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45863.32291666666</v>
+        <v>45875.32291666666</v>
       </c>
       <c r="B32">
-        <v>677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45863.33333333334</v>
+        <v>45875.33333333334</v>
       </c>
       <c r="B33">
-        <v>778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45863.34375</v>
+        <v>45875.34375</v>
       </c>
       <c r="B34">
-        <v>883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45863.35416666666</v>
+        <v>45875.35416666666</v>
       </c>
       <c r="B35">
-        <v>959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45863.36458333334</v>
+        <v>45875.36458333334</v>
       </c>
       <c r="B36">
-        <v>1037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45863.375</v>
+        <v>45875.375</v>
       </c>
       <c r="B37">
-        <v>1099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45863.38541666666</v>
+        <v>45875.38541666666</v>
       </c>
       <c r="B38">
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45863.39583333334</v>
+        <v>45875.39583333334</v>
       </c>
       <c r="B39">
-        <v>1231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45863.40625</v>
+        <v>45875.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45863.41666666666</v>
+        <v>45875.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45863.42708333334</v>
+        <v>45875.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45863.4375</v>
+        <v>45875.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45863.44791666666</v>
+        <v>45875.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45863.45833333334</v>
+        <v>45875.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45863.46875</v>
+        <v>45875.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45863.47916666666</v>
+        <v>45875.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45863.48958333334</v>
+        <v>45875.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45863.5</v>
+        <v>45875.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45863.51041666666</v>
+        <v>45875.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45863.52083333334</v>
+        <v>45875.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45863.53125</v>
+        <v>45875.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45863.54166666666</v>
+        <v>45875.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45863.55208333334</v>
+        <v>45875.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45863.5625</v>
+        <v>45875.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45863.57291666666</v>
+        <v>45875.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45863.58333333334</v>
+        <v>45875.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45863.59375</v>
+        <v>45875.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45863.60416666666</v>
+        <v>45875.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45863.61458333334</v>
+        <v>45875.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45863.625</v>
+        <v>45875.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45863.63541666666</v>
+        <v>45875.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45863.64583333334</v>
+        <v>45875.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45863.65625</v>
+        <v>45875.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45863.66666666666</v>
+        <v>45875.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45863.67708333334</v>
+        <v>45875.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45863.6875</v>
+        <v>45875.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45863.69791666666</v>
+        <v>45875.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45863.70833333334</v>
+        <v>45875.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45863.71875</v>
+        <v>45875.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45863.72916666666</v>
+        <v>45875.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45863.73958333334</v>
+        <v>45875.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45863.75</v>
+        <v>45875.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45863.76041666666</v>
+        <v>45875.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45863.77083333334</v>
+        <v>45875.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45863.78125</v>
+        <v>45875.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45863.79166666666</v>
+        <v>45875.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45863.80208333334</v>
+        <v>45875.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45863.8125</v>
+        <v>45875.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45863.82291666666</v>
+        <v>45875.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45863.83333333334</v>
+        <v>45875.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45863.84375</v>
+        <v>45875.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45863.85416666666</v>
+        <v>45875.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45863.86458333334</v>
+        <v>45875.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45863.875</v>
+        <v>45875.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45863.88541666666</v>
+        <v>45875.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45863.89583333334</v>
+        <v>45875.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45863.90625</v>
+        <v>45875.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45863.91666666666</v>
+        <v>45875.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45863.92708333334</v>
+        <v>45875.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45863.9375</v>
+        <v>45875.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45863.94791666666</v>
+        <v>45875.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45863.95833333334</v>
+        <v>45875.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45863.96875</v>
+        <v>45875.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45863.97916666666</v>
+        <v>45875.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45863.98958333334</v>
+        <v>45875.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45864</v>
+        <v>45876</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45875.01041666666</v>
+        <v>45889.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45875.02083333334</v>
+        <v>45889.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45875.03125</v>
+        <v>45889.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45875.04166666666</v>
+        <v>45889.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45875.05208333334</v>
+        <v>45889.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45875.0625</v>
+        <v>45889.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45875.07291666666</v>
+        <v>45889.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45875.08333333334</v>
+        <v>45889.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45875.09375</v>
+        <v>45889.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45875.10416666666</v>
+        <v>45889.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45875.11458333334</v>
+        <v>45889.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45875.125</v>
+        <v>45889.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45875.13541666666</v>
+        <v>45889.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45875.14583333334</v>
+        <v>45889.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45875.15625</v>
+        <v>45889.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45875.16666666666</v>
+        <v>45889.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45875.17708333334</v>
+        <v>45889.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45875.1875</v>
+        <v>45889.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45875.19791666666</v>
+        <v>45889.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45875.20833333334</v>
+        <v>45889.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45875.21875</v>
+        <v>45889.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,159 +565,159 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45875.22916666666</v>
+        <v>45889.22916666666</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45875.23958333334</v>
+        <v>45889.23958333334</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45875.25</v>
+        <v>45889.25</v>
       </c>
       <c r="B25">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45875.26041666666</v>
+        <v>45889.26041666666</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45875.27083333334</v>
+        <v>45889.27083333334</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45875.28125</v>
+        <v>45889.28125</v>
       </c>
       <c r="B28">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45875.29166666666</v>
+        <v>45889.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45875.30208333334</v>
+        <v>45889.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45875.3125</v>
+        <v>45889.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45875.32291666666</v>
+        <v>45889.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45875.33333333334</v>
+        <v>45889.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45875.34375</v>
+        <v>45889.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45875.35416666666</v>
+        <v>45889.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>924</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45875.36458333334</v>
+        <v>45889.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>996</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45875.375</v>
+        <v>45889.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45875.38541666666</v>
+        <v>45889.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45875.39583333334</v>
+        <v>45889.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45875.40625</v>
+        <v>45889.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45875.41666666666</v>
+        <v>45889.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45875.42708333334</v>
+        <v>45889.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45875.4375</v>
+        <v>45889.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45875.44791666666</v>
+        <v>45889.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45875.45833333334</v>
+        <v>45889.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45875.46875</v>
+        <v>45889.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45875.47916666666</v>
+        <v>45889.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45875.48958333334</v>
+        <v>45889.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45875.5</v>
+        <v>45889.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45875.51041666666</v>
+        <v>45889.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45875.52083333334</v>
+        <v>45889.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45875.53125</v>
+        <v>45889.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45875.54166666666</v>
+        <v>45889.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45875.55208333334</v>
+        <v>45889.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45875.5625</v>
+        <v>45889.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45875.57291666666</v>
+        <v>45889.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45875.58333333334</v>
+        <v>45889.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45875.59375</v>
+        <v>45889.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45875.60416666666</v>
+        <v>45889.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45875.61458333334</v>
+        <v>45889.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45875.625</v>
+        <v>45889.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45875.63541666666</v>
+        <v>45889.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45875.64583333334</v>
+        <v>45889.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45875.65625</v>
+        <v>45889.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45875.66666666666</v>
+        <v>45889.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45875.67708333334</v>
+        <v>45889.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45875.6875</v>
+        <v>45889.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45875.69791666666</v>
+        <v>45889.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45875.70833333334</v>
+        <v>45889.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45875.71875</v>
+        <v>45889.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45875.72916666666</v>
+        <v>45889.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45875.73958333334</v>
+        <v>45889.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45875.75</v>
+        <v>45889.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45875.76041666666</v>
+        <v>45889.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45875.77083333334</v>
+        <v>45889.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45875.78125</v>
+        <v>45889.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45875.79166666666</v>
+        <v>45889.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45875.80208333334</v>
+        <v>45889.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45875.8125</v>
+        <v>45889.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45875.82291666666</v>
+        <v>45889.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45875.83333333334</v>
+        <v>45889.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45875.84375</v>
+        <v>45889.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45875.85416666666</v>
+        <v>45889.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45875.86458333334</v>
+        <v>45889.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45875.875</v>
+        <v>45889.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45875.88541666666</v>
+        <v>45889.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45875.89583333334</v>
+        <v>45889.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45875.90625</v>
+        <v>45889.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45875.91666666666</v>
+        <v>45889.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45875.92708333334</v>
+        <v>45889.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45875.9375</v>
+        <v>45889.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45875.94791666666</v>
+        <v>45889.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45875.95833333334</v>
+        <v>45889.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45875.96875</v>
+        <v>45889.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45875.97916666666</v>
+        <v>45889.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45875.98958333334</v>
+        <v>45889.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45876</v>
+        <v>45890</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45889.01041666666</v>
+        <v>45890.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45889.02083333334</v>
+        <v>45890.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45889.03125</v>
+        <v>45890.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45889.04166666666</v>
+        <v>45890.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45889.05208333334</v>
+        <v>45890.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45889.0625</v>
+        <v>45890.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45889.07291666666</v>
+        <v>45890.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45889.08333333334</v>
+        <v>45890.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45889.09375</v>
+        <v>45890.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45889.10416666666</v>
+        <v>45890.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45889.11458333334</v>
+        <v>45890.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45889.125</v>
+        <v>45890.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45889.13541666666</v>
+        <v>45890.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45889.14583333334</v>
+        <v>45890.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45889.15625</v>
+        <v>45890.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45889.16666666666</v>
+        <v>45890.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45889.17708333334</v>
+        <v>45890.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45889.1875</v>
+        <v>45890.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45889.19791666666</v>
+        <v>45890.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45889.20833333334</v>
+        <v>45890.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45889.21875</v>
+        <v>45890.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45889.22916666666</v>
+        <v>45890.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,151 +573,151 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45889.23958333334</v>
+        <v>45890.23958333334</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45889.25</v>
+        <v>45890.25</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45889.26041666666</v>
+        <v>45890.26041666666</v>
       </c>
       <c r="B26">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45889.27083333334</v>
+        <v>45890.27083333334</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45889.28125</v>
+        <v>45890.28125</v>
       </c>
       <c r="B28">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45889.29166666666</v>
+        <v>45890.29166666666</v>
       </c>
       <c r="B29">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45889.30208333334</v>
+        <v>45890.30208333334</v>
       </c>
       <c r="B30">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45889.3125</v>
+        <v>45890.3125</v>
       </c>
       <c r="B31">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45889.32291666666</v>
+        <v>45890.32291666666</v>
       </c>
       <c r="B32">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45889.33333333334</v>
+        <v>45890.33333333334</v>
       </c>
       <c r="B33">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45889.34375</v>
+        <v>45890.34375</v>
       </c>
       <c r="B34">
-        <v>837</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45889.35416666666</v>
+        <v>45890.35416666666</v>
       </c>
       <c r="B35">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45889.36458333334</v>
+        <v>45890.36458333334</v>
       </c>
       <c r="B36">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45889.375</v>
+        <v>45890.375</v>
       </c>
       <c r="B37">
-        <v>1052</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45889.38541666666</v>
+        <v>45890.38541666666</v>
       </c>
       <c r="B38">
-        <v>1139</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45889.39583333334</v>
+        <v>45890.39583333334</v>
       </c>
       <c r="B39">
-        <v>1216</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45889.40625</v>
+        <v>45890.40625</v>
       </c>
       <c r="B40">
-        <v>1247</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45889.41666666666</v>
+        <v>45890.41666666666</v>
       </c>
       <c r="B41">
-        <v>1310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45889.42708333334</v>
+        <v>45890.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45889.4375</v>
+        <v>45890.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45889.44791666666</v>
+        <v>45890.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45889.45833333334</v>
+        <v>45890.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45889.46875</v>
+        <v>45890.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45889.47916666666</v>
+        <v>45890.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45889.48958333334</v>
+        <v>45890.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45889.5</v>
+        <v>45890.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45889.51041666666</v>
+        <v>45890.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45889.52083333334</v>
+        <v>45890.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45889.53125</v>
+        <v>45890.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45889.54166666666</v>
+        <v>45890.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45889.55208333334</v>
+        <v>45890.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45889.5625</v>
+        <v>45890.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45889.57291666666</v>
+        <v>45890.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45889.58333333334</v>
+        <v>45890.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45889.59375</v>
+        <v>45890.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45889.60416666666</v>
+        <v>45890.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45889.61458333334</v>
+        <v>45890.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45889.625</v>
+        <v>45890.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45889.63541666666</v>
+        <v>45890.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45889.64583333334</v>
+        <v>45890.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45889.65625</v>
+        <v>45890.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45889.66666666666</v>
+        <v>45890.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45889.67708333334</v>
+        <v>45890.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45889.6875</v>
+        <v>45890.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45889.69791666666</v>
+        <v>45890.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45889.70833333334</v>
+        <v>45890.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45889.71875</v>
+        <v>45890.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45889.72916666666</v>
+        <v>45890.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45889.73958333334</v>
+        <v>45890.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45889.75</v>
+        <v>45890.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45889.76041666666</v>
+        <v>45890.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45889.77083333334</v>
+        <v>45890.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45889.78125</v>
+        <v>45890.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45889.79166666666</v>
+        <v>45890.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45889.80208333334</v>
+        <v>45890.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45889.8125</v>
+        <v>45890.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45889.82291666666</v>
+        <v>45890.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45889.83333333334</v>
+        <v>45890.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45889.84375</v>
+        <v>45890.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45889.85416666666</v>
+        <v>45890.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45889.86458333334</v>
+        <v>45890.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45889.875</v>
+        <v>45890.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45889.88541666666</v>
+        <v>45890.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45889.89583333334</v>
+        <v>45890.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45889.90625</v>
+        <v>45890.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45889.91666666666</v>
+        <v>45890.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45889.92708333334</v>
+        <v>45890.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45889.9375</v>
+        <v>45890.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45889.94791666666</v>
+        <v>45890.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45889.95833333334</v>
+        <v>45890.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45889.96875</v>
+        <v>45890.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45889.97916666666</v>
+        <v>45890.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45889.98958333334</v>
+        <v>45890.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,159 +573,159 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B26">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B28">
-        <v>182</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B29">
-        <v>280</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B30">
-        <v>390</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B31">
-        <v>487</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B32">
-        <v>584</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B33">
-        <v>700</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B34">
-        <v>816</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B35">
-        <v>916</v>
+        <v>923</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B36">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B37">
-        <v>1036</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B38">
-        <v>1110</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B39">
-        <v>1173</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B40">
-        <v>1233</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45890.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45890.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45890.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45890.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45890.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45890.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45890.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45890.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45890.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45890.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45890.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45890.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45890.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45890.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45890.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45890.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45890.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45890.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45890.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45890.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45890.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45890.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45890.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45890.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45890.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45890.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45890.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45890.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45890.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45890.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45890.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45890.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45890.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45890.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45890.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45890.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45890.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45890.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45890.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45890.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45890.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45890.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45890.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45890.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45890.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45890.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45890.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45890.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45890.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45890.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45890.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45890.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45890.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45890.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45890.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45890.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45891</v>
+        <v>45919</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,143 +589,143 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B29">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B30">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B31">
-        <v>399</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B32">
-        <v>524</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B33">
-        <v>620</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B34">
-        <v>789</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B35">
-        <v>923</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B36">
-        <v>1011</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B37">
-        <v>1066</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B38">
-        <v>1170</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B39">
-        <v>1266</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B40">
-        <v>1253</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45918.41666666666</v>
+        <v>45919.41666666666</v>
       </c>
       <c r="B41">
-        <v>1260</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45918.42708333334</v>
+        <v>45919.42708333334</v>
       </c>
       <c r="B42">
-        <v>1284</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45918.4375</v>
+        <v>45919.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45918.44791666666</v>
+        <v>45919.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45918.45833333334</v>
+        <v>45919.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45918.46875</v>
+        <v>45919.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45918.47916666666</v>
+        <v>45919.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45918.48958333334</v>
+        <v>45919.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45918.5</v>
+        <v>45919.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45918.51041666666</v>
+        <v>45919.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45918.52083333334</v>
+        <v>45919.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45918.53125</v>
+        <v>45919.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45918.54166666666</v>
+        <v>45919.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45918.55208333334</v>
+        <v>45919.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45918.5625</v>
+        <v>45919.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45918.57291666666</v>
+        <v>45919.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45918.58333333334</v>
+        <v>45919.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45918.59375</v>
+        <v>45919.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45918.60416666666</v>
+        <v>45919.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45918.61458333334</v>
+        <v>45919.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45918.625</v>
+        <v>45919.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45918.63541666666</v>
+        <v>45919.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45918.64583333334</v>
+        <v>45919.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45918.65625</v>
+        <v>45919.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45918.66666666666</v>
+        <v>45919.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45918.67708333334</v>
+        <v>45919.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45918.6875</v>
+        <v>45919.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45918.69791666666</v>
+        <v>45919.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45918.70833333334</v>
+        <v>45919.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45918.71875</v>
+        <v>45919.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45918.72916666666</v>
+        <v>45919.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45918.73958333334</v>
+        <v>45919.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45918.75</v>
+        <v>45919.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45918.76041666666</v>
+        <v>45919.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45918.77083333334</v>
+        <v>45919.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45918.78125</v>
+        <v>45919.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45918.79166666666</v>
+        <v>45919.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45918.80208333334</v>
+        <v>45919.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45918.8125</v>
+        <v>45919.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45918.82291666666</v>
+        <v>45919.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45918.83333333334</v>
+        <v>45919.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45918.84375</v>
+        <v>45919.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45918.85416666666</v>
+        <v>45919.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45918.86458333334</v>
+        <v>45919.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45918.875</v>
+        <v>45919.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45918.88541666666</v>
+        <v>45919.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45918.89583333334</v>
+        <v>45919.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45918.90625</v>
+        <v>45919.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45918.91666666666</v>
+        <v>45919.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45918.92708333334</v>
+        <v>45919.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45918.9375</v>
+        <v>45919.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45918.94791666666</v>
+        <v>45919.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45918.95833333334</v>
+        <v>45919.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45918.96875</v>
+        <v>45919.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45918.97916666666</v>
+        <v>45919.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45918.98958333334</v>
+        <v>45919.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,143 +589,143 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B28">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45919.29166666666</v>
+        <v>45923.29166666666</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45919.30208333334</v>
+        <v>45923.30208333334</v>
       </c>
       <c r="B30">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45919.3125</v>
+        <v>45923.3125</v>
       </c>
       <c r="B31">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45919.32291666666</v>
+        <v>45923.32291666666</v>
       </c>
       <c r="B32">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45919.33333333334</v>
+        <v>45923.33333333334</v>
       </c>
       <c r="B33">
-        <v>542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45919.34375</v>
+        <v>45923.34375</v>
       </c>
       <c r="B34">
-        <v>663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45919.35416666666</v>
+        <v>45923.35416666666</v>
       </c>
       <c r="B35">
-        <v>771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45919.36458333334</v>
+        <v>45923.36458333334</v>
       </c>
       <c r="B36">
-        <v>822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45919.375</v>
+        <v>45923.375</v>
       </c>
       <c r="B37">
-        <v>901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45919.38541666666</v>
+        <v>45923.38541666666</v>
       </c>
       <c r="B38">
-        <v>1001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45919.39583333334</v>
+        <v>45923.39583333334</v>
       </c>
       <c r="B39">
-        <v>1082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45919.40625</v>
+        <v>45923.40625</v>
       </c>
       <c r="B40">
-        <v>1121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45919.41666666666</v>
+        <v>45923.41666666666</v>
       </c>
       <c r="B41">
-        <v>1159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45919.42708333334</v>
+        <v>45923.42708333334</v>
       </c>
       <c r="B42">
-        <v>1181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45919.4375</v>
+        <v>45923.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45919.44791666666</v>
+        <v>45923.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45919.45833333334</v>
+        <v>45923.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45919.46875</v>
+        <v>45923.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45919.47916666666</v>
+        <v>45923.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45919.48958333334</v>
+        <v>45923.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45919.5</v>
+        <v>45923.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45919.51041666666</v>
+        <v>45923.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45919.52083333334</v>
+        <v>45923.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45919.53125</v>
+        <v>45923.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45919.54166666666</v>
+        <v>45923.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45919.55208333334</v>
+        <v>45923.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45919.5625</v>
+        <v>45923.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45919.57291666666</v>
+        <v>45923.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45919.58333333334</v>
+        <v>45923.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45919.59375</v>
+        <v>45923.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45919.60416666666</v>
+        <v>45923.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45919.61458333334</v>
+        <v>45923.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45919.625</v>
+        <v>45923.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45919.63541666666</v>
+        <v>45923.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45919.64583333334</v>
+        <v>45923.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45919.65625</v>
+        <v>45923.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45919.66666666666</v>
+        <v>45923.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45919.67708333334</v>
+        <v>45923.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45919.6875</v>
+        <v>45923.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45919.69791666666</v>
+        <v>45923.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45919.70833333334</v>
+        <v>45923.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45919.71875</v>
+        <v>45923.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45919.72916666666</v>
+        <v>45923.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45919.73958333334</v>
+        <v>45923.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45919.75</v>
+        <v>45923.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45919.76041666666</v>
+        <v>45923.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45919.77083333334</v>
+        <v>45923.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45919.78125</v>
+        <v>45923.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45919.79166666666</v>
+        <v>45923.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45919.80208333334</v>
+        <v>45923.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45919.8125</v>
+        <v>45923.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45919.82291666666</v>
+        <v>45923.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45919.83333333334</v>
+        <v>45923.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45919.84375</v>
+        <v>45923.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45919.85416666666</v>
+        <v>45923.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45919.86458333334</v>
+        <v>45923.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45919.875</v>
+        <v>45923.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45919.88541666666</v>
+        <v>45923.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45919.89583333334</v>
+        <v>45923.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45919.90625</v>
+        <v>45923.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45919.91666666666</v>
+        <v>45923.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45919.92708333334</v>
+        <v>45923.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45919.9375</v>
+        <v>45923.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45919.94791666666</v>
+        <v>45923.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45919.95833333334</v>
+        <v>45923.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45919.96875</v>
+        <v>45923.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45919.97916666666</v>
+        <v>45923.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45919.98958333334</v>
+        <v>45923.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45920</v>
+        <v>45924</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,23 +597,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B28">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45923.29166666666</v>
+        <v>45932.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45923.30208333334</v>
+        <v>45932.30208333334</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45923.3125</v>
+        <v>45932.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45923.32291666666</v>
+        <v>45932.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45923.33333333334</v>
+        <v>45932.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45923.34375</v>
+        <v>45932.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45923.35416666666</v>
+        <v>45932.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45923.36458333334</v>
+        <v>45932.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45923.375</v>
+        <v>45932.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45923.38541666666</v>
+        <v>45932.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45923.39583333334</v>
+        <v>45932.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45923.40625</v>
+        <v>45932.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45923.41666666666</v>
+        <v>45932.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45923.42708333334</v>
+        <v>45932.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45923.4375</v>
+        <v>45932.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45923.44791666666</v>
+        <v>45932.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45923.45833333334</v>
+        <v>45932.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45923.46875</v>
+        <v>45932.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45923.47916666666</v>
+        <v>45932.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45923.48958333334</v>
+        <v>45932.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45923.5</v>
+        <v>45932.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45923.51041666666</v>
+        <v>45932.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45923.52083333334</v>
+        <v>45932.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45923.53125</v>
+        <v>45932.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45923.54166666666</v>
+        <v>45932.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45923.55208333334</v>
+        <v>45932.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45923.5625</v>
+        <v>45932.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45923.57291666666</v>
+        <v>45932.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45923.58333333334</v>
+        <v>45932.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45923.59375</v>
+        <v>45932.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45923.60416666666</v>
+        <v>45932.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45923.61458333334</v>
+        <v>45932.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45923.625</v>
+        <v>45932.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45923.63541666666</v>
+        <v>45932.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45923.64583333334</v>
+        <v>45932.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45923.65625</v>
+        <v>45932.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45923.66666666666</v>
+        <v>45932.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45923.67708333334</v>
+        <v>45932.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45923.6875</v>
+        <v>45932.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45923.69791666666</v>
+        <v>45932.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45923.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45923.71875</v>
+        <v>45932.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45923.72916666666</v>
+        <v>45932.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45923.73958333334</v>
+        <v>45932.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45923.75</v>
+        <v>45932.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45923.76041666666</v>
+        <v>45932.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45923.77083333334</v>
+        <v>45932.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45923.78125</v>
+        <v>45932.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45923.79166666666</v>
+        <v>45932.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45923.80208333334</v>
+        <v>45932.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45923.8125</v>
+        <v>45932.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45923.82291666666</v>
+        <v>45932.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45923.83333333334</v>
+        <v>45932.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45923.84375</v>
+        <v>45932.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45923.85416666666</v>
+        <v>45932.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45923.86458333334</v>
+        <v>45932.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45923.875</v>
+        <v>45932.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45923.88541666666</v>
+        <v>45932.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45923.89583333334</v>
+        <v>45932.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45923.90625</v>
+        <v>45932.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45923.91666666666</v>
+        <v>45932.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45923.92708333334</v>
+        <v>45932.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45923.9375</v>
+        <v>45932.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45923.94791666666</v>
+        <v>45932.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45923.95833333334</v>
+        <v>45932.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45923.96875</v>
+        <v>45932.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45923.97916666666</v>
+        <v>45932.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45923.98958333334</v>
+        <v>45932.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45932.01041666666</v>
+        <v>45946.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45932.02083333334</v>
+        <v>45946.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45932.03125</v>
+        <v>45946.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45932.04166666666</v>
+        <v>45946.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45932.05208333334</v>
+        <v>45946.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45932.0625</v>
+        <v>45946.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45932.07291666666</v>
+        <v>45946.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45932.08333333334</v>
+        <v>45946.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45932.09375</v>
+        <v>45946.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45932.10416666666</v>
+        <v>45946.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45932.11458333334</v>
+        <v>45946.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45932.125</v>
+        <v>45946.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45932.13541666666</v>
+        <v>45946.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45932.14583333334</v>
+        <v>45946.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45932.15625</v>
+        <v>45946.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45932.16666666666</v>
+        <v>45946.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45932.17708333334</v>
+        <v>45946.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45932.1875</v>
+        <v>45946.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45932.19791666666</v>
+        <v>45946.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45932.20833333334</v>
+        <v>45946.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45932.21875</v>
+        <v>45946.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45932.22916666666</v>
+        <v>45946.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45932.23958333334</v>
+        <v>45946.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45932.25</v>
+        <v>45946.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45932.26041666666</v>
+        <v>45946.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45932.27083333334</v>
+        <v>45946.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45932.28125</v>
+        <v>45946.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45932.29166666666</v>
+        <v>45946.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45932.30208333334</v>
+        <v>45946.30208333334</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45932.3125</v>
+        <v>45946.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45932.32291666666</v>
+        <v>45946.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45932.33333333334</v>
+        <v>45946.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45932.34375</v>
+        <v>45946.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45932.35416666666</v>
+        <v>45946.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45932.36458333334</v>
+        <v>45946.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45932.375</v>
+        <v>45946.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45932.38541666666</v>
+        <v>45946.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45932.39583333334</v>
+        <v>45946.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45932.40625</v>
+        <v>45946.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,31 +709,31 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45932.41666666666</v>
+        <v>45946.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45932.42708333334</v>
+        <v>45946.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45932.4375</v>
+        <v>45946.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45932.44791666666</v>
+        <v>45946.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45932.45833333334</v>
+        <v>45946.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45932.46875</v>
+        <v>45946.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45932.47916666666</v>
+        <v>45946.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45932.48958333334</v>
+        <v>45946.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45932.5</v>
+        <v>45946.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45932.51041666666</v>
+        <v>45946.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45932.52083333334</v>
+        <v>45946.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45932.53125</v>
+        <v>45946.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45932.54166666666</v>
+        <v>45946.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45932.55208333334</v>
+        <v>45946.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45932.5625</v>
+        <v>45946.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45932.57291666666</v>
+        <v>45946.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45932.58333333334</v>
+        <v>45946.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45932.59375</v>
+        <v>45946.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45932.60416666666</v>
+        <v>45946.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45932.61458333334</v>
+        <v>45946.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45932.625</v>
+        <v>45946.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45932.63541666666</v>
+        <v>45946.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45932.64583333334</v>
+        <v>45946.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45932.65625</v>
+        <v>45946.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45932.66666666666</v>
+        <v>45946.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45932.67708333334</v>
+        <v>45946.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45932.6875</v>
+        <v>45946.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45932.69791666666</v>
+        <v>45946.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45932.70833333334</v>
+        <v>45946.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45932.71875</v>
+        <v>45946.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45932.72916666666</v>
+        <v>45946.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45932.73958333334</v>
+        <v>45946.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45932.75</v>
+        <v>45946.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45932.76041666666</v>
+        <v>45946.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45932.77083333334</v>
+        <v>45946.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45932.78125</v>
+        <v>45946.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45932.79166666666</v>
+        <v>45946.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45932.80208333334</v>
+        <v>45946.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45932.8125</v>
+        <v>45946.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45932.82291666666</v>
+        <v>45946.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45932.83333333334</v>
+        <v>45946.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45932.84375</v>
+        <v>45946.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45932.85416666666</v>
+        <v>45946.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45932.86458333334</v>
+        <v>45946.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45932.875</v>
+        <v>45946.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45932.88541666666</v>
+        <v>45946.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45932.89583333334</v>
+        <v>45946.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45932.90625</v>
+        <v>45946.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45932.91666666666</v>
+        <v>45946.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45932.92708333334</v>
+        <v>45946.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45932.9375</v>
+        <v>45946.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45932.94791666666</v>
+        <v>45946.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45932.95833333334</v>
+        <v>45946.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45932.96875</v>
+        <v>45946.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45932.97916666666</v>
+        <v>45946.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45932.98958333334</v>
+        <v>45946.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45946.01041666666</v>
+        <v>45947.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45946.02083333334</v>
+        <v>45947.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45946.03125</v>
+        <v>45947.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45946.04166666666</v>
+        <v>45947.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45946.05208333334</v>
+        <v>45947.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45946.0625</v>
+        <v>45947.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45946.07291666666</v>
+        <v>45947.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45946.08333333334</v>
+        <v>45947.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45946.09375</v>
+        <v>45947.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45946.10416666666</v>
+        <v>45947.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45946.11458333334</v>
+        <v>45947.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45946.125</v>
+        <v>45947.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45946.13541666666</v>
+        <v>45947.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45946.14583333334</v>
+        <v>45947.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45946.15625</v>
+        <v>45947.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45946.16666666666</v>
+        <v>45947.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45946.17708333334</v>
+        <v>45947.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45946.1875</v>
+        <v>45947.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45946.19791666666</v>
+        <v>45947.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45946.20833333334</v>
+        <v>45947.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45946.21875</v>
+        <v>45947.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45946.22916666666</v>
+        <v>45947.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45946.23958333334</v>
+        <v>45947.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45946.25</v>
+        <v>45947.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45946.26041666666</v>
+        <v>45947.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45946.27083333334</v>
+        <v>45947.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45946.28125</v>
+        <v>45947.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,127 +613,127 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45946.29166666666</v>
+        <v>45947.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45946.30208333334</v>
+        <v>45947.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45946.3125</v>
+        <v>45947.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45946.32291666666</v>
+        <v>45947.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45946.33333333334</v>
+        <v>45947.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45946.34375</v>
+        <v>45947.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45946.35416666666</v>
+        <v>45947.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45946.36458333334</v>
+        <v>45947.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45946.375</v>
+        <v>45947.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45946.38541666666</v>
+        <v>45947.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45946.39583333334</v>
+        <v>45947.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>916</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45946.40625</v>
+        <v>45947.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45946.41666666666</v>
+        <v>45947.41666666666</v>
       </c>
       <c r="B41">
-        <v>759</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45946.42708333334</v>
+        <v>45947.42708333334</v>
       </c>
       <c r="B42">
-        <v>789</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45946.4375</v>
+        <v>45947.4375</v>
       </c>
       <c r="B43">
-        <v>846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45946.44791666666</v>
+        <v>45947.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45946.45833333334</v>
+        <v>45947.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45946.46875</v>
+        <v>45947.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45946.47916666666</v>
+        <v>45947.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45946.48958333334</v>
+        <v>45947.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45946.5</v>
+        <v>45947.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45946.51041666666</v>
+        <v>45947.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45946.52083333334</v>
+        <v>45947.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45946.53125</v>
+        <v>45947.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45946.54166666666</v>
+        <v>45947.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45946.55208333334</v>
+        <v>45947.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45946.5625</v>
+        <v>45947.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45946.57291666666</v>
+        <v>45947.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45946.58333333334</v>
+        <v>45947.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45946.59375</v>
+        <v>45947.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45946.60416666666</v>
+        <v>45947.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45946.61458333334</v>
+        <v>45947.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45946.625</v>
+        <v>45947.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45946.63541666666</v>
+        <v>45947.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45946.64583333334</v>
+        <v>45947.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45946.65625</v>
+        <v>45947.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45946.66666666666</v>
+        <v>45947.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45946.67708333334</v>
+        <v>45947.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45946.6875</v>
+        <v>45947.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45946.69791666666</v>
+        <v>45947.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45946.70833333334</v>
+        <v>45947.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45946.71875</v>
+        <v>45947.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45946.72916666666</v>
+        <v>45947.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45946.73958333334</v>
+        <v>45947.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45946.75</v>
+        <v>45947.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45946.76041666666</v>
+        <v>45947.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45946.77083333334</v>
+        <v>45947.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45946.78125</v>
+        <v>45947.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45946.79166666666</v>
+        <v>45947.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45946.80208333334</v>
+        <v>45947.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45946.8125</v>
+        <v>45947.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45946.82291666666</v>
+        <v>45947.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45946.83333333334</v>
+        <v>45947.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45946.84375</v>
+        <v>45947.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45946.85416666666</v>
+        <v>45947.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45946.86458333334</v>
+        <v>45947.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45946.875</v>
+        <v>45947.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45946.88541666666</v>
+        <v>45947.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45946.89583333334</v>
+        <v>45947.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45946.90625</v>
+        <v>45947.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45946.91666666666</v>
+        <v>45947.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45946.92708333334</v>
+        <v>45947.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45946.9375</v>
+        <v>45947.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45946.94791666666</v>
+        <v>45947.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45946.95833333334</v>
+        <v>45947.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45946.96875</v>
+        <v>45947.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45946.97916666666</v>
+        <v>45947.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45946.98958333334</v>
+        <v>45947.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45947.01041666666</v>
+        <v>45954.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45947.02083333334</v>
+        <v>45954.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45947.03125</v>
+        <v>45954.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45947.04166666666</v>
+        <v>45954.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45947.05208333334</v>
+        <v>45954.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45947.0625</v>
+        <v>45954.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45947.07291666666</v>
+        <v>45954.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45947.08333333334</v>
+        <v>45954.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45947.09375</v>
+        <v>45954.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45947.10416666666</v>
+        <v>45954.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45947.11458333334</v>
+        <v>45954.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45947.125</v>
+        <v>45954.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45947.13541666666</v>
+        <v>45954.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45947.14583333334</v>
+        <v>45954.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45947.15625</v>
+        <v>45954.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45947.16666666666</v>
+        <v>45954.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45947.17708333334</v>
+        <v>45954.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45947.1875</v>
+        <v>45954.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45947.19791666666</v>
+        <v>45954.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45947.20833333334</v>
+        <v>45954.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45947.21875</v>
+        <v>45954.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45947.22916666666</v>
+        <v>45954.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45947.23958333334</v>
+        <v>45954.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45947.25</v>
+        <v>45954.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45947.26041666666</v>
+        <v>45954.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45947.27083333334</v>
+        <v>45954.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45947.28125</v>
+        <v>45954.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,119 +613,119 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45947.29166666666</v>
+        <v>45954.29166666666</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45947.30208333334</v>
+        <v>45954.30208333334</v>
       </c>
       <c r="B30">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45947.3125</v>
+        <v>45954.3125</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45947.32291666666</v>
+        <v>45954.32291666666</v>
       </c>
       <c r="B32">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45947.33333333334</v>
+        <v>45954.33333333334</v>
       </c>
       <c r="B33">
-        <v>289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45947.34375</v>
+        <v>45954.34375</v>
       </c>
       <c r="B34">
-        <v>421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45947.35416666666</v>
+        <v>45954.35416666666</v>
       </c>
       <c r="B35">
-        <v>541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45947.36458333334</v>
+        <v>45954.36458333334</v>
       </c>
       <c r="B36">
-        <v>654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45947.375</v>
+        <v>45954.375</v>
       </c>
       <c r="B37">
-        <v>761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45947.38541666666</v>
+        <v>45954.38541666666</v>
       </c>
       <c r="B38">
-        <v>828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45947.39583333334</v>
+        <v>45954.39583333334</v>
       </c>
       <c r="B39">
-        <v>916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45947.40625</v>
+        <v>45954.40625</v>
       </c>
       <c r="B40">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45947.41666666666</v>
+        <v>45954.41666666666</v>
       </c>
       <c r="B41">
-        <v>1051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45947.42708333334</v>
+        <v>45954.42708333334</v>
       </c>
       <c r="B42">
-        <v>1124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45947.4375</v>
+        <v>45954.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45947.44791666666</v>
+        <v>45954.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45947.45833333334</v>
+        <v>45954.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45947.46875</v>
+        <v>45954.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45947.47916666666</v>
+        <v>45954.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45947.48958333334</v>
+        <v>45954.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45947.5</v>
+        <v>45954.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45947.51041666666</v>
+        <v>45954.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45947.52083333334</v>
+        <v>45954.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45947.53125</v>
+        <v>45954.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45947.54166666666</v>
+        <v>45954.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45947.55208333334</v>
+        <v>45954.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45947.5625</v>
+        <v>45954.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45947.57291666666</v>
+        <v>45954.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45947.58333333334</v>
+        <v>45954.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45947.59375</v>
+        <v>45954.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45947.60416666666</v>
+        <v>45954.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45947.61458333334</v>
+        <v>45954.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45947.625</v>
+        <v>45954.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45947.63541666666</v>
+        <v>45954.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45947.64583333334</v>
+        <v>45954.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45947.65625</v>
+        <v>45954.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45947.66666666666</v>
+        <v>45954.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45947.67708333334</v>
+        <v>45954.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45947.6875</v>
+        <v>45954.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45947.69791666666</v>
+        <v>45954.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45947.70833333334</v>
+        <v>45954.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45947.71875</v>
+        <v>45954.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45947.72916666666</v>
+        <v>45954.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45947.73958333334</v>
+        <v>45954.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45947.75</v>
+        <v>45954.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45947.76041666666</v>
+        <v>45954.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45947.77083333334</v>
+        <v>45954.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45947.78125</v>
+        <v>45954.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45947.79166666666</v>
+        <v>45954.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45947.80208333334</v>
+        <v>45954.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45947.8125</v>
+        <v>45954.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45947.82291666666</v>
+        <v>45954.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45947.83333333334</v>
+        <v>45954.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45947.84375</v>
+        <v>45954.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45947.85416666666</v>
+        <v>45954.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45947.86458333334</v>
+        <v>45954.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45947.875</v>
+        <v>45954.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45947.88541666666</v>
+        <v>45954.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45947.89583333334</v>
+        <v>45954.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45947.90625</v>
+        <v>45954.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45947.91666666666</v>
+        <v>45954.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45947.92708333334</v>
+        <v>45954.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45947.9375</v>
+        <v>45954.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45947.94791666666</v>
+        <v>45954.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45947.95833333334</v>
+        <v>45954.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45947.96875</v>
+        <v>45954.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45947.97916666666</v>
+        <v>45954.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45947.98958333334</v>
+        <v>45954.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45948</v>
+        <v>45955</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45954.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,39 +605,39 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45954.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B31">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45954.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45954.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45954.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45954.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45954.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45954.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45954.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45954.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45954.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45954.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45954.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45954.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45954.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45954.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45954.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45954.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45954.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45954.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45954.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45954.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45954.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45954.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45954.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45954.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45954.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45954.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45954.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45954.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45954.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45954.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45954.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45954.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45954.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45954.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45954.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45954.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45954.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45954.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45954.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45954.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45954.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45954.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45954.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45954.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45954.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45954.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45954.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45954.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45954.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45954.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45954.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45954.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45954.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45954.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45954.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45954.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45954.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45954.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45954.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45954.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45954.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45954.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45954.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45954.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45954.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45955</v>
+        <v>45970</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,39 +605,39 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45969.30208333334</v>
+        <v>45970.30208333334</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45969.3125</v>
+        <v>45970.3125</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45969.32291666666</v>
+        <v>45970.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45969.33333333334</v>
+        <v>45970.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45969.34375</v>
+        <v>45970.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45969.35416666666</v>
+        <v>45970.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45969.36458333334</v>
+        <v>45970.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45969.375</v>
+        <v>45970.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45969.38541666666</v>
+        <v>45970.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45969.39583333334</v>
+        <v>45970.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45969.40625</v>
+        <v>45970.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45969.41666666666</v>
+        <v>45970.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45969.42708333334</v>
+        <v>45970.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45969.4375</v>
+        <v>45970.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45969.44791666666</v>
+        <v>45970.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45969.45833333334</v>
+        <v>45970.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45969.46875</v>
+        <v>45970.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45969.47916666666</v>
+        <v>45970.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45969.48958333334</v>
+        <v>45970.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45969.5</v>
+        <v>45970.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45969.51041666666</v>
+        <v>45970.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45969.52083333334</v>
+        <v>45970.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45969.53125</v>
+        <v>45970.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45969.54166666666</v>
+        <v>45970.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45969.55208333334</v>
+        <v>45970.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45969.5625</v>
+        <v>45970.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45969.57291666666</v>
+        <v>45970.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45969.58333333334</v>
+        <v>45970.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45969.59375</v>
+        <v>45970.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45969.60416666666</v>
+        <v>45970.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45969.61458333334</v>
+        <v>45970.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45969.625</v>
+        <v>45970.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45969.63541666666</v>
+        <v>45970.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45969.64583333334</v>
+        <v>45970.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45969.65625</v>
+        <v>45970.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45969.66666666666</v>
+        <v>45970.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45969.67708333334</v>
+        <v>45970.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45969.6875</v>
+        <v>45970.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45969.69791666666</v>
+        <v>45970.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45969.70833333334</v>
+        <v>45970.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45969.71875</v>
+        <v>45970.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45969.72916666666</v>
+        <v>45970.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45969.73958333334</v>
+        <v>45970.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45969.75</v>
+        <v>45970.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45969.76041666666</v>
+        <v>45970.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45969.77083333334</v>
+        <v>45970.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45969.78125</v>
+        <v>45970.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45969.79166666666</v>
+        <v>45970.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45969.80208333334</v>
+        <v>45970.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45969.8125</v>
+        <v>45970.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45969.82291666666</v>
+        <v>45970.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45969.83333333334</v>
+        <v>45970.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45969.84375</v>
+        <v>45970.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45969.85416666666</v>
+        <v>45970.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45969.86458333334</v>
+        <v>45970.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45969.875</v>
+        <v>45970.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45969.88541666666</v>
+        <v>45970.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45969.89583333334</v>
+        <v>45970.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45969.90625</v>
+        <v>45970.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45969.91666666666</v>
+        <v>45970.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45969.92708333334</v>
+        <v>45970.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45969.9375</v>
+        <v>45970.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45969.94791666666</v>
+        <v>45970.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45969.95833333334</v>
+        <v>45970.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45969.96875</v>
+        <v>45970.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45969.97916666666</v>
+        <v>45970.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45969.98958333334</v>
+        <v>45970.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45970.01041666666</v>
+        <v>45972</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45970.02083333334</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45970.03125</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45970.04166666666</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45970.05208333334</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45970.0625</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45970.07291666666</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45970.08333333334</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45970.09375</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45970.10416666666</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45970.11458333334</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45970.125</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45970.13541666666</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45970.14583333334</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45970.15625</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45970.16666666666</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45970.17708333334</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45970.1875</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45970.19791666666</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45970.20833333334</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45970.21875</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45970.22916666666</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45970.23958333334</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45970.25</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45970.26041666666</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45970.27083333334</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,311 +605,311 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45970.28125</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45970.29166666666</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45970.30208333334</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45970.3125</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45970.32291666666</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45970.33333333334</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45970.34375</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45970.35416666666</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45970.36458333334</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45970.375</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45970.38541666666</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45970.39583333334</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45970.40625</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45970.41666666666</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45970.42708333334</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45970.4375</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45970.44791666666</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45970.45833333334</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45970.46875</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45970.47916666666</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45970.48958333334</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45970.5</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45970.51041666666</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45970.52083333334</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45970.53125</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45970.54166666666</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45970.55208333334</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45970.5625</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45970.57291666666</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45970.58333333334</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45970.59375</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45970.60416666666</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45970.61458333334</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45970.625</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45970.63541666666</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45970.64583333334</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45970.65625</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45970.66666666666</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45970.67708333334</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45970.6875</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45970.69791666666</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45970.70833333334</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45970.71875</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45970.72916666666</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45970.73958333334</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45970.75</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45970.76041666666</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45970.77083333334</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45970.78125</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45970.79166666666</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45970.80208333334</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45970.8125</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45970.82291666666</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45970.83333333334</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45970.84375</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45970.85416666666</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45970.86458333334</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45970.875</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45970.88541666666</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45970.89583333334</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45970.90625</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45970.91666666666</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45970.92708333334</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45970.9375</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45970.94791666666</v>
+        <v>45972.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45970.95833333334</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45970.96875</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45970.97916666666</v>
+        <v>45972.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45970.98958333334</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,9 +1157,1545 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45971</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45973</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>45973.01041666666</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>45973.02083333334</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>45973.03125</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>45973.04166666666</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>45973.05208333334</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>45973.0625</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>45973.07291666666</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>45973.08333333334</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>45973.09375</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>45973.10416666666</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>45973.11458333334</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>45973.125</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>45973.13541666666</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>45973.14583333334</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>45973.15625</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>45973.16666666666</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>45973.17708333334</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>45973.1875</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>45973.19791666666</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>45973.20833333334</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>45973.21875</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>45973.22916666666</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>45973.23958333334</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>45973.25</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>45973.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>45973.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>45973.28125</v>
+      </c>
+      <c r="B125">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>45973.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>45973.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>45973.3125</v>
+      </c>
+      <c r="B128">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>45973.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>45973.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>45973.34375</v>
+      </c>
+      <c r="B131">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>45973.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>45973.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>45973.375</v>
+      </c>
+      <c r="B134">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>45973.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>45973.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>45973.40625</v>
+      </c>
+      <c r="B137">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>45973.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>45973.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>45973.4375</v>
+      </c>
+      <c r="B140">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>45973.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>45973.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>45973.46875</v>
+      </c>
+      <c r="B143">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>45973.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>45973.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>45973.5</v>
+      </c>
+      <c r="B146">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>45973.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>45973.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>45973.53125</v>
+      </c>
+      <c r="B149">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>45973.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>45973.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>45973.5625</v>
+      </c>
+      <c r="B152">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>45973.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>45973.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>45973.59375</v>
+      </c>
+      <c r="B155">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>45973.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>45973.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>45973.625</v>
+      </c>
+      <c r="B158">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>45973.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>45973.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>45973.65625</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>45973.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>45973.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>45973.6875</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>45973.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>45973.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>45973.71875</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>45973.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>45973.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>45973.75</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>45973.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>45973.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>45973.78125</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>45973.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>45973.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>45973.8125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>45973.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>45973.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>45973.84375</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>45973.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>45973.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>45973.875</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>45973.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>45973.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>45973.90625</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>45973.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B220">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B221">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B222">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B223">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B224">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B225">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B226">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B227">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B228">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B229">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B230">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B231">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B232">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B233">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B234">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B235">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B236">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B237">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B238">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B239">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B240">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B241">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B242">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B243">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>45974.53125</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>45974.54166666666</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>45974.55208333334</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>45974.5625</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>45974.57291666666</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>45974.58333333334</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>45974.59375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>45974.60416666666</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>45974.61458333334</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>45974.625</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>45974.63541666666</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>45974.64583333334</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>45974.65625</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>45974.66666666666</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>45974.67708333334</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>45974.6875</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>45974.69791666666</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>45974.70833333334</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>45974.71875</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>45974.72916666666</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>45974.73958333334</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>45974.75</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>45974.76041666666</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>45974.77083333334</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>45974.78125</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>45974.79166666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>45974.80208333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>45974.8125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>45974.82291666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>45974.83333333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>45974.84375</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>45974.85416666666</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>45974.86458333334</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>45974.875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>45974.88541666666</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>45974.89583333334</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>45974.90625</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>45974.91666666666</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>45974.92708333334</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>45974.9375</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>45974.94791666666</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>45974.95833333334</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>45974.96875</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>45974.97916666666</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>45974.98958333334</v>
+      </c>
+      <c r="B289">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45982.01041666666</v>
+        <v>45984</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45982.02083333334</v>
+        <v>45984.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45982.03125</v>
+        <v>45984.02083333334</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45982.04166666666</v>
+        <v>45984.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45982.05208333334</v>
+        <v>45984.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45982.0625</v>
+        <v>45984.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45982.07291666666</v>
+        <v>45984.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45982.08333333334</v>
+        <v>45984.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45982.09375</v>
+        <v>45984.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45982.10416666666</v>
+        <v>45984.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45982.11458333334</v>
+        <v>45984.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45982.125</v>
+        <v>45984.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45982.13541666666</v>
+        <v>45984.125</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45982.14583333334</v>
+        <v>45984.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45982.15625</v>
+        <v>45984.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45982.16666666666</v>
+        <v>45984.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45982.17708333334</v>
+        <v>45984.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45982.1875</v>
+        <v>45984.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45982.19791666666</v>
+        <v>45984.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45982.20833333334</v>
+        <v>45984.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45982.21875</v>
+        <v>45984.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45982.22916666666</v>
+        <v>45984.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45982.23958333334</v>
+        <v>45984.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45982.25</v>
+        <v>45984.23958333334</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45982.26041666666</v>
+        <v>45984.25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45982.27083333334</v>
+        <v>45984.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,295 +605,295 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45982.28125</v>
+        <v>45984.27083333334</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45982.29166666666</v>
+        <v>45984.28125</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45982.30208333334</v>
+        <v>45984.29166666666</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45982.3125</v>
+        <v>45984.30208333334</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45982.32291666666</v>
+        <v>45984.3125</v>
       </c>
       <c r="B32">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45982.33333333334</v>
+        <v>45984.32291666666</v>
       </c>
       <c r="B33">
-        <v>205</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45982.34375</v>
+        <v>45984.33333333334</v>
       </c>
       <c r="B34">
-        <v>281</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45982.35416666666</v>
+        <v>45984.34375</v>
       </c>
       <c r="B35">
-        <v>318</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45982.36458333334</v>
+        <v>45984.35416666666</v>
       </c>
       <c r="B36">
-        <v>351</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45982.375</v>
+        <v>45984.36458333334</v>
       </c>
       <c r="B37">
-        <v>377</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45982.38541666666</v>
+        <v>45984.375</v>
       </c>
       <c r="B38">
-        <v>401</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45982.39583333334</v>
+        <v>45984.38541666666</v>
       </c>
       <c r="B39">
-        <v>431</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45982.40625</v>
+        <v>45984.39583333334</v>
       </c>
       <c r="B40">
-        <v>465</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45982.41666666666</v>
+        <v>45984.40625</v>
       </c>
       <c r="B41">
-        <v>517</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45982.42708333334</v>
+        <v>45984.41666666666</v>
       </c>
       <c r="B42">
-        <v>483</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45982.4375</v>
+        <v>45984.42708333334</v>
       </c>
       <c r="B43">
-        <v>471</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45982.44791666666</v>
+        <v>45984.4375</v>
       </c>
       <c r="B44">
-        <v>528</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45982.45833333334</v>
+        <v>45984.44791666666</v>
       </c>
       <c r="B45">
-        <v>580</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45982.46875</v>
+        <v>45984.45833333334</v>
       </c>
       <c r="B46">
-        <v>638</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45982.47916666666</v>
+        <v>45984.46875</v>
       </c>
       <c r="B47">
-        <v>553</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45982.48958333334</v>
+        <v>45984.47916666666</v>
       </c>
       <c r="B48">
-        <v>534</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45982.5</v>
+        <v>45984.48958333334</v>
       </c>
       <c r="B49">
-        <v>542</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45982.51041666666</v>
+        <v>45984.5</v>
       </c>
       <c r="B50">
-        <v>531</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45982.52083333334</v>
+        <v>45984.51041666666</v>
       </c>
       <c r="B51">
-        <v>485</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45982.53125</v>
+        <v>45984.52083333334</v>
       </c>
       <c r="B52">
-        <v>450</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45982.54166666666</v>
+        <v>45984.53125</v>
       </c>
       <c r="B53">
-        <v>440</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45982.55208333334</v>
+        <v>45984.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45982.5625</v>
+        <v>45984.55208333334</v>
       </c>
       <c r="B55">
-        <v>371</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45982.57291666666</v>
+        <v>45984.5625</v>
       </c>
       <c r="B56">
-        <v>318</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45982.58333333334</v>
+        <v>45984.57291666666</v>
       </c>
       <c r="B57">
-        <v>305</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45982.59375</v>
+        <v>45984.58333333334</v>
       </c>
       <c r="B58">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45982.60416666666</v>
+        <v>45984.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45982.61458333334</v>
+        <v>45984.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45982.625</v>
+        <v>45984.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45982.63541666666</v>
+        <v>45984.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45982.64583333334</v>
+        <v>45984.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45982.65625</v>
+        <v>45984.64583333334</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45982.66666666666</v>
+        <v>45984.65625</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45982.67708333334</v>
+        <v>45984.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45982.6875</v>
+        <v>45984.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45982.69791666666</v>
+        <v>45984.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45982.70833333334</v>
+        <v>45984.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45982.71875</v>
+        <v>45984.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45982.72916666666</v>
+        <v>45984.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45982.73958333334</v>
+        <v>45984.72916666666</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45982.75</v>
+        <v>45984.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45982.76041666666</v>
+        <v>45984.75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45982.77083333334</v>
+        <v>45984.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45982.78125</v>
+        <v>45984.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45982.79166666666</v>
+        <v>45984.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45982.80208333334</v>
+        <v>45984.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45982.8125</v>
+        <v>45984.80208333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45982.82291666666</v>
+        <v>45984.8125</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45982.83333333334</v>
+        <v>45984.82291666666</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45982.84375</v>
+        <v>45984.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45982.85416666666</v>
+        <v>45984.84375</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45982.86458333334</v>
+        <v>45984.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45982.875</v>
+        <v>45984.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45982.88541666666</v>
+        <v>45984.875</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45982.89583333334</v>
+        <v>45984.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45982.90625</v>
+        <v>45984.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45982.91666666666</v>
+        <v>45984.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45982.92708333334</v>
+        <v>45984.91666666666</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45982.9375</v>
+        <v>45984.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45982.94791666666</v>
+        <v>45984.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45982.95833333334</v>
+        <v>45984.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45982.96875</v>
+        <v>45984.95833333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45982.97916666666</v>
+        <v>45984.96875</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45982.98958333334</v>
+        <v>45984.97916666666</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,9 +1157,777 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45983</v>
+        <v>45984.98958333334</v>
       </c>
       <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45985</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>45985.01041666666</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>45985.02083333334</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>45985.03125</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>45985.04166666666</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>45985.05208333334</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>45985.0625</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>45985.07291666666</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>45985.08333333334</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>45985.09375</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>45985.10416666666</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>45985.11458333334</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>45985.125</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>45985.13541666666</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>45985.14583333334</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>45985.15625</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>45985.16666666666</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>45985.17708333334</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>45985.1875</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>45985.19791666666</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>45985.20833333334</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>45985.21875</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>45985.22916666666</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>45985.23958333334</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>45985.25</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>45985.26041666666</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>45985.27083333334</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>45985.28125</v>
+      </c>
+      <c r="B125">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>45985.29166666666</v>
+      </c>
+      <c r="B126">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>45985.30208333334</v>
+      </c>
+      <c r="B127">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>45985.3125</v>
+      </c>
+      <c r="B128">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>45985.32291666666</v>
+      </c>
+      <c r="B129">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>45985.33333333334</v>
+      </c>
+      <c r="B130">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>45985.34375</v>
+      </c>
+      <c r="B131">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>45985.35416666666</v>
+      </c>
+      <c r="B132">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>45985.36458333334</v>
+      </c>
+      <c r="B133">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>45985.375</v>
+      </c>
+      <c r="B134">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>45985.38541666666</v>
+      </c>
+      <c r="B135">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>45985.39583333334</v>
+      </c>
+      <c r="B136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>45985.40625</v>
+      </c>
+      <c r="B137">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>45985.41666666666</v>
+      </c>
+      <c r="B138">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>45985.42708333334</v>
+      </c>
+      <c r="B139">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>45985.4375</v>
+      </c>
+      <c r="B140">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>45985.44791666666</v>
+      </c>
+      <c r="B141">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>45985.45833333334</v>
+      </c>
+      <c r="B142">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>45985.46875</v>
+      </c>
+      <c r="B143">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>45985.47916666666</v>
+      </c>
+      <c r="B144">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>45985.48958333334</v>
+      </c>
+      <c r="B145">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>45985.5</v>
+      </c>
+      <c r="B146">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>45985.51041666666</v>
+      </c>
+      <c r="B147">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>45985.52083333334</v>
+      </c>
+      <c r="B148">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>45985.53125</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>45985.54166666666</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>45985.55208333334</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>45985.5625</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>45985.57291666666</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>45985.58333333334</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>45985.59375</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>45985.60416666666</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>45985.61458333334</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>45985.625</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>45985.63541666666</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>45985.64583333334</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>45985.65625</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>45985.66666666666</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>45985.67708333334</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>45985.6875</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>45985.69791666666</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>45985.70833333334</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>45985.71875</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>45985.72916666666</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>45985.73958333334</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>45985.75</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>45985.76041666666</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>45985.77083333334</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>45985.78125</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>45985.79166666666</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>45985.80208333334</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>45985.8125</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>45985.82291666666</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>45985.83333333334</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>45985.84375</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>45985.85416666666</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>45985.86458333334</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>45985.875</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>45985.88541666666</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>45985.89583333334</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>45985.90625</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>45985.91666666666</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>45985.92708333334</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>45985.9375</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>45985.94791666666</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>45985.95833333334</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>45985.96875</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>45985.97916666666</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>45985.98958333334</v>
+      </c>
+      <c r="B193">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45984</v>
+        <v>45993.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45984.01041666666</v>
+        <v>45993.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45984.02083333334</v>
+        <v>45993.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45984.03125</v>
+        <v>45993.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45984.04166666666</v>
+        <v>45993.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45984.05208333334</v>
+        <v>45993.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45984.0625</v>
+        <v>45993.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45984.07291666666</v>
+        <v>45993.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45984.08333333334</v>
+        <v>45993.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45984.09375</v>
+        <v>45993.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45984.10416666666</v>
+        <v>45993.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45984.11458333334</v>
+        <v>45993.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45984.125</v>
+        <v>45993.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45984.13541666666</v>
+        <v>45993.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45984.14583333334</v>
+        <v>45993.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45984.15625</v>
+        <v>45993.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45984.16666666666</v>
+        <v>45993.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45984.17708333334</v>
+        <v>45993.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45984.1875</v>
+        <v>45993.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45984.19791666666</v>
+        <v>45993.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45984.20833333334</v>
+        <v>45993.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45984.21875</v>
+        <v>45993.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45984.22916666666</v>
+        <v>45993.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45984.23958333334</v>
+        <v>45993.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45984.25</v>
+        <v>45993.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45984.26041666666</v>
+        <v>45993.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45984.27083333334</v>
+        <v>45993.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,287 +613,287 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45984.28125</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45984.29166666666</v>
+        <v>45993.30208333334</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45984.30208333334</v>
+        <v>45993.3125</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45984.3125</v>
+        <v>45993.32291666666</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45984.32291666666</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45984.33333333334</v>
+        <v>45993.34375</v>
       </c>
       <c r="B34">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45984.34375</v>
+        <v>45993.35416666666</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45984.35416666666</v>
+        <v>45993.36458333334</v>
       </c>
       <c r="B36">
-        <v>71</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45984.36458333334</v>
+        <v>45993.375</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45984.375</v>
+        <v>45993.38541666666</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45984.38541666666</v>
+        <v>45993.39583333334</v>
       </c>
       <c r="B39">
-        <v>133</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45984.39583333334</v>
+        <v>45993.40625</v>
       </c>
       <c r="B40">
-        <v>138</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45984.40625</v>
+        <v>45993.41666666666</v>
       </c>
       <c r="B41">
-        <v>154</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45984.41666666666</v>
+        <v>45993.42708333334</v>
       </c>
       <c r="B42">
-        <v>189</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45984.42708333334</v>
+        <v>45993.4375</v>
       </c>
       <c r="B43">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45984.4375</v>
+        <v>45993.44791666666</v>
       </c>
       <c r="B44">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45984.44791666666</v>
+        <v>45993.45833333334</v>
       </c>
       <c r="B45">
-        <v>209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45984.45833333334</v>
+        <v>45993.46875</v>
       </c>
       <c r="B46">
-        <v>205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45984.46875</v>
+        <v>45993.47916666666</v>
       </c>
       <c r="B47">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45984.47916666666</v>
+        <v>45993.48958333334</v>
       </c>
       <c r="B48">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45984.48958333334</v>
+        <v>45993.5</v>
       </c>
       <c r="B49">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45984.5</v>
+        <v>45993.51041666666</v>
       </c>
       <c r="B50">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45984.51041666666</v>
+        <v>45993.52083333334</v>
       </c>
       <c r="B51">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45984.52083333334</v>
+        <v>45993.53125</v>
       </c>
       <c r="B52">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45984.53125</v>
+        <v>45993.54166666666</v>
       </c>
       <c r="B53">
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45984.54166666666</v>
+        <v>45993.55208333334</v>
       </c>
       <c r="B54">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45984.55208333334</v>
+        <v>45993.5625</v>
       </c>
       <c r="B55">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45984.5625</v>
+        <v>45993.57291666666</v>
       </c>
       <c r="B56">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45984.57291666666</v>
+        <v>45993.58333333334</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45984.58333333334</v>
+        <v>45993.59375</v>
       </c>
       <c r="B58">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45984.59375</v>
+        <v>45993.60416666666</v>
       </c>
       <c r="B59">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45984.60416666666</v>
+        <v>45993.61458333334</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45984.61458333334</v>
+        <v>45993.625</v>
       </c>
       <c r="B61">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45984.625</v>
+        <v>45993.63541666666</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45984.63541666666</v>
+        <v>45993.64583333334</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45984.64583333334</v>
+        <v>45993.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45984.65625</v>
+        <v>45993.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45984.66666666666</v>
+        <v>45993.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45984.67708333334</v>
+        <v>45993.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45984.6875</v>
+        <v>45993.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45984.69791666666</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45984.70833333334</v>
+        <v>45993.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45984.71875</v>
+        <v>45993.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45984.72916666666</v>
+        <v>45993.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45984.73958333334</v>
+        <v>45993.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45984.75</v>
+        <v>45993.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45984.76041666666</v>
+        <v>45993.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45984.77083333334</v>
+        <v>45993.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45984.78125</v>
+        <v>45993.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45984.79166666666</v>
+        <v>45993.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45984.80208333334</v>
+        <v>45993.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45984.8125</v>
+        <v>45993.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45984.82291666666</v>
+        <v>45993.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45984.83333333334</v>
+        <v>45993.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45984.84375</v>
+        <v>45993.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45984.85416666666</v>
+        <v>45993.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45984.86458333334</v>
+        <v>45993.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45984.875</v>
+        <v>45993.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45984.88541666666</v>
+        <v>45993.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45984.89583333334</v>
+        <v>45993.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45984.90625</v>
+        <v>45993.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45984.91666666666</v>
+        <v>45993.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45984.92708333334</v>
+        <v>45993.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45984.9375</v>
+        <v>45993.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45984.94791666666</v>
+        <v>45993.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45984.95833333334</v>
+        <v>45993.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45984.96875</v>
+        <v>45993.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45984.97916666666</v>
+        <v>45993.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,777 +1157,9 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45984.98958333334</v>
+        <v>45994</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
-        <v>45985</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
-        <v>45985.01041666666</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
-        <v>45985.02083333334</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
-        <v>45985.03125</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2">
-        <v>45985.04166666666</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2">
-        <v>45985.05208333334</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2">
-        <v>45985.0625</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2">
-        <v>45985.07291666666</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2">
-        <v>45985.08333333334</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2">
-        <v>45985.09375</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2">
-        <v>45985.10416666666</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2">
-        <v>45985.11458333334</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2">
-        <v>45985.125</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2">
-        <v>45985.13541666666</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2">
-        <v>45985.14583333334</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2">
-        <v>45985.15625</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2">
-        <v>45985.16666666666</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2">
-        <v>45985.17708333334</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2">
-        <v>45985.1875</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2">
-        <v>45985.19791666666</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2">
-        <v>45985.20833333334</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2">
-        <v>45985.21875</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2">
-        <v>45985.22916666666</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2">
-        <v>45985.23958333334</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2">
-        <v>45985.25</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2">
-        <v>45985.26041666666</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2">
-        <v>45985.27083333334</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2">
-        <v>45985.28125</v>
-      </c>
-      <c r="B125">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2">
-        <v>45985.29166666666</v>
-      </c>
-      <c r="B126">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2">
-        <v>45985.30208333334</v>
-      </c>
-      <c r="B127">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2">
-        <v>45985.3125</v>
-      </c>
-      <c r="B128">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2">
-        <v>45985.32291666666</v>
-      </c>
-      <c r="B129">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2">
-        <v>45985.33333333334</v>
-      </c>
-      <c r="B130">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2">
-        <v>45985.34375</v>
-      </c>
-      <c r="B131">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2">
-        <v>45985.35416666666</v>
-      </c>
-      <c r="B132">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2">
-        <v>45985.36458333334</v>
-      </c>
-      <c r="B133">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2">
-        <v>45985.375</v>
-      </c>
-      <c r="B134">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2">
-        <v>45985.38541666666</v>
-      </c>
-      <c r="B135">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2">
-        <v>45985.39583333334</v>
-      </c>
-      <c r="B136">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2">
-        <v>45985.40625</v>
-      </c>
-      <c r="B137">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
-        <v>45985.41666666666</v>
-      </c>
-      <c r="B138">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2">
-        <v>45985.42708333334</v>
-      </c>
-      <c r="B139">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2">
-        <v>45985.4375</v>
-      </c>
-      <c r="B140">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2">
-        <v>45985.44791666666</v>
-      </c>
-      <c r="B141">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2">
-        <v>45985.45833333334</v>
-      </c>
-      <c r="B142">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2">
-        <v>45985.46875</v>
-      </c>
-      <c r="B143">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="2">
-        <v>45985.47916666666</v>
-      </c>
-      <c r="B144">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="2">
-        <v>45985.48958333334</v>
-      </c>
-      <c r="B145">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="2">
-        <v>45985.5</v>
-      </c>
-      <c r="B146">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="2">
-        <v>45985.51041666666</v>
-      </c>
-      <c r="B147">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="2">
-        <v>45985.52083333334</v>
-      </c>
-      <c r="B148">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="2">
-        <v>45985.53125</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="2">
-        <v>45985.54166666666</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="2">
-        <v>45985.55208333334</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="2">
-        <v>45985.5625</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="2">
-        <v>45985.57291666666</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="2">
-        <v>45985.58333333334</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="2">
-        <v>45985.59375</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="2">
-        <v>45985.60416666666</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="2">
-        <v>45985.61458333334</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="2">
-        <v>45985.625</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="2">
-        <v>45985.63541666666</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="2">
-        <v>45985.64583333334</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="2">
-        <v>45985.65625</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="2">
-        <v>45985.66666666666</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="2">
-        <v>45985.67708333334</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="2">
-        <v>45985.6875</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="2">
-        <v>45985.69791666666</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="2">
-        <v>45985.70833333334</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="2">
-        <v>45985.71875</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="2">
-        <v>45985.72916666666</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="2">
-        <v>45985.73958333334</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="2">
-        <v>45985.75</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2">
-        <v>45985.76041666666</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2">
-        <v>45985.77083333334</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2">
-        <v>45985.78125</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2">
-        <v>45985.79166666666</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2">
-        <v>45985.80208333334</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2">
-        <v>45985.8125</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2">
-        <v>45985.82291666666</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2">
-        <v>45985.83333333334</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="2">
-        <v>45985.84375</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="2">
-        <v>45985.85416666666</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="2">
-        <v>45985.86458333334</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="2">
-        <v>45985.875</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="2">
-        <v>45985.88541666666</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="2">
-        <v>45985.89583333334</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="2">
-        <v>45985.90625</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="2">
-        <v>45985.91666666666</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="2">
-        <v>45985.92708333334</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="2">
-        <v>45985.9375</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="2">
-        <v>45985.94791666666</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="2">
-        <v>45985.95833333334</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="2">
-        <v>45985.96875</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="2">
-        <v>45985.97916666666</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="2">
-        <v>45985.98958333334</v>
-      </c>
-      <c r="B193">
         <v>0</v>
       </c>
     </row>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45993.01041666666</v>
+        <v>45995.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45993.02083333334</v>
+        <v>45995.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45993.03125</v>
+        <v>45995.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45993.04166666666</v>
+        <v>45995.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45993.05208333334</v>
+        <v>45995.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45993.0625</v>
+        <v>45995.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45993.07291666666</v>
+        <v>45995.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45993.08333333334</v>
+        <v>45995.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45993.09375</v>
+        <v>45995.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45993.10416666666</v>
+        <v>45995.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45993.11458333334</v>
+        <v>45995.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45993.125</v>
+        <v>45995.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45993.13541666666</v>
+        <v>45995.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45993.14583333334</v>
+        <v>45995.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45993.15625</v>
+        <v>45995.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45993.16666666666</v>
+        <v>45995.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45993.17708333334</v>
+        <v>45995.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45993.1875</v>
+        <v>45995.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45993.19791666666</v>
+        <v>45995.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45993.20833333334</v>
+        <v>45995.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45993.21875</v>
+        <v>45995.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45993.22916666666</v>
+        <v>45995.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45993.23958333334</v>
+        <v>45995.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45993.25</v>
+        <v>45995.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45993.26041666666</v>
+        <v>45995.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45993.27083333334</v>
+        <v>45995.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45993.28125</v>
+        <v>45995.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,23 +613,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45993.29166666666</v>
+        <v>45995.29166666666</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45993.30208333334</v>
+        <v>45995.30208333334</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45993.3125</v>
+        <v>45995.3125</v>
       </c>
       <c r="B31">
         <v>34</v>
@@ -637,95 +637,95 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45993.32291666666</v>
+        <v>45995.32291666666</v>
       </c>
       <c r="B32">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45993.33333333334</v>
+        <v>45995.33333333334</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45993.34375</v>
+        <v>45995.34375</v>
       </c>
       <c r="B34">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45993.35416666666</v>
+        <v>45995.35416666666</v>
       </c>
       <c r="B35">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45993.36458333334</v>
+        <v>45995.36458333334</v>
       </c>
       <c r="B36">
-        <v>197</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45993.375</v>
+        <v>45995.375</v>
       </c>
       <c r="B37">
-        <v>219</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45993.38541666666</v>
+        <v>45995.38541666666</v>
       </c>
       <c r="B38">
-        <v>256</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45993.39583333334</v>
+        <v>45995.39583333334</v>
       </c>
       <c r="B39">
-        <v>282</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45993.40625</v>
+        <v>45995.40625</v>
       </c>
       <c r="B40">
-        <v>308</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45993.41666666666</v>
+        <v>45995.41666666666</v>
       </c>
       <c r="B41">
-        <v>324</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45993.42708333334</v>
+        <v>45995.42708333334</v>
       </c>
       <c r="B42">
-        <v>336</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45993.4375</v>
+        <v>45995.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45993.44791666666</v>
+        <v>45995.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45993.45833333334</v>
+        <v>45995.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45993.46875</v>
+        <v>45995.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45993.47916666666</v>
+        <v>45995.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45993.48958333334</v>
+        <v>45995.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45993.5</v>
+        <v>45995.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45993.51041666666</v>
+        <v>45995.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45993.52083333334</v>
+        <v>45995.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45993.53125</v>
+        <v>45995.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45993.54166666666</v>
+        <v>45995.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45993.55208333334</v>
+        <v>45995.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45993.5625</v>
+        <v>45995.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45993.57291666666</v>
+        <v>45995.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45993.58333333334</v>
+        <v>45995.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45993.59375</v>
+        <v>45995.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45993.60416666666</v>
+        <v>45995.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45993.61458333334</v>
+        <v>45995.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45993.625</v>
+        <v>45995.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45993.63541666666</v>
+        <v>45995.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45993.64583333334</v>
+        <v>45995.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45993.65625</v>
+        <v>45995.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45993.66666666666</v>
+        <v>45995.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45993.67708333334</v>
+        <v>45995.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45993.6875</v>
+        <v>45995.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45993.69791666666</v>
+        <v>45995.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45993.70833333334</v>
+        <v>45995.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45993.71875</v>
+        <v>45995.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45993.72916666666</v>
+        <v>45995.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45993.73958333334</v>
+        <v>45995.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45993.75</v>
+        <v>45995.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45993.76041666666</v>
+        <v>45995.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45993.77083333334</v>
+        <v>45995.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45993.78125</v>
+        <v>45995.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45993.79166666666</v>
+        <v>45995.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45993.80208333334</v>
+        <v>45995.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45993.8125</v>
+        <v>45995.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45993.82291666666</v>
+        <v>45995.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45993.83333333334</v>
+        <v>45995.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45993.84375</v>
+        <v>45995.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45993.85416666666</v>
+        <v>45995.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45993.86458333334</v>
+        <v>45995.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45993.875</v>
+        <v>45995.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45993.88541666666</v>
+        <v>45995.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45993.89583333334</v>
+        <v>45995.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45993.90625</v>
+        <v>45995.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45993.91666666666</v>
+        <v>45995.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45993.92708333334</v>
+        <v>45995.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45993.9375</v>
+        <v>45995.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45993.94791666666</v>
+        <v>45995.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45993.95833333334</v>
+        <v>45995.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45993.96875</v>
+        <v>45995.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45993.97916666666</v>
+        <v>45995.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45993.98958333334</v>
+        <v>45995.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45995.01041666666</v>
+        <v>46006.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45995.02083333334</v>
+        <v>46006.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45995.03125</v>
+        <v>46006.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45995.04166666666</v>
+        <v>46006.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45995.05208333334</v>
+        <v>46006.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45995.0625</v>
+        <v>46006.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45995.07291666666</v>
+        <v>46006.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45995.08333333334</v>
+        <v>46006.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45995.09375</v>
+        <v>46006.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45995.10416666666</v>
+        <v>46006.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45995.11458333334</v>
+        <v>46006.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45995.125</v>
+        <v>46006.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45995.13541666666</v>
+        <v>46006.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45995.14583333334</v>
+        <v>46006.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45995.15625</v>
+        <v>46006.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45995.16666666666</v>
+        <v>46006.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45995.17708333334</v>
+        <v>46006.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45995.1875</v>
+        <v>46006.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45995.19791666666</v>
+        <v>46006.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45995.20833333334</v>
+        <v>46006.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45995.21875</v>
+        <v>46006.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45995.22916666666</v>
+        <v>46006.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45995.23958333334</v>
+        <v>46006.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45995.25</v>
+        <v>46006.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45995.26041666666</v>
+        <v>46006.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45995.27083333334</v>
+        <v>46006.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45995.28125</v>
+        <v>46006.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45995.29166666666</v>
+        <v>46006.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,111 +621,111 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45995.30208333334</v>
+        <v>46006.30208333334</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45995.3125</v>
+        <v>46006.3125</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45995.32291666666</v>
+        <v>46006.32291666666</v>
       </c>
       <c r="B32">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45995.33333333334</v>
+        <v>46006.33333333334</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45995.34375</v>
+        <v>46006.34375</v>
       </c>
       <c r="B34">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45995.35416666666</v>
+        <v>46006.35416666666</v>
       </c>
       <c r="B35">
-        <v>227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45995.36458333334</v>
+        <v>46006.36458333334</v>
       </c>
       <c r="B36">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45995.375</v>
+        <v>46006.375</v>
       </c>
       <c r="B37">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45995.38541666666</v>
+        <v>46006.38541666666</v>
       </c>
       <c r="B38">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45995.39583333334</v>
+        <v>46006.39583333334</v>
       </c>
       <c r="B39">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45995.40625</v>
+        <v>46006.40625</v>
       </c>
       <c r="B40">
-        <v>487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45995.41666666666</v>
+        <v>46006.41666666666</v>
       </c>
       <c r="B41">
-        <v>542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45995.42708333334</v>
+        <v>46006.42708333334</v>
       </c>
       <c r="B42">
-        <v>539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45995.4375</v>
+        <v>46006.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45995.44791666666</v>
+        <v>46006.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45995.45833333334</v>
+        <v>46006.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45995.46875</v>
+        <v>46006.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45995.47916666666</v>
+        <v>46006.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45995.48958333334</v>
+        <v>46006.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45995.5</v>
+        <v>46006.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45995.51041666666</v>
+        <v>46006.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45995.52083333334</v>
+        <v>46006.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45995.53125</v>
+        <v>46006.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45995.54166666666</v>
+        <v>46006.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45995.55208333334</v>
+        <v>46006.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45995.5625</v>
+        <v>46006.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45995.57291666666</v>
+        <v>46006.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45995.58333333334</v>
+        <v>46006.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45995.59375</v>
+        <v>46006.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45995.60416666666</v>
+        <v>46006.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45995.61458333334</v>
+        <v>46006.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45995.625</v>
+        <v>46006.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45995.63541666666</v>
+        <v>46006.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45995.64583333334</v>
+        <v>46006.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45995.65625</v>
+        <v>46006.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45995.66666666666</v>
+        <v>46006.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45995.67708333334</v>
+        <v>46006.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45995.6875</v>
+        <v>46006.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45995.69791666666</v>
+        <v>46006.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45995.70833333334</v>
+        <v>46006.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45995.71875</v>
+        <v>46006.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45995.72916666666</v>
+        <v>46006.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45995.73958333334</v>
+        <v>46006.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45995.75</v>
+        <v>46006.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45995.76041666666</v>
+        <v>46006.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45995.77083333334</v>
+        <v>46006.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45995.78125</v>
+        <v>46006.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45995.79166666666</v>
+        <v>46006.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45995.80208333334</v>
+        <v>46006.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45995.8125</v>
+        <v>46006.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45995.82291666666</v>
+        <v>46006.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45995.83333333334</v>
+        <v>46006.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45995.84375</v>
+        <v>46006.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45995.85416666666</v>
+        <v>46006.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45995.86458333334</v>
+        <v>46006.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45995.875</v>
+        <v>46006.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45995.88541666666</v>
+        <v>46006.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45995.89583333334</v>
+        <v>46006.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45995.90625</v>
+        <v>46006.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45995.91666666666</v>
+        <v>46006.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45995.92708333334</v>
+        <v>46006.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45995.9375</v>
+        <v>46006.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45995.94791666666</v>
+        <v>46006.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45995.95833333334</v>
+        <v>46006.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45995.96875</v>
+        <v>46006.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45995.97916666666</v>
+        <v>46006.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45995.98958333334</v>
+        <v>46006.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46006.01041666666</v>
+        <v>46022.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46006.02083333334</v>
+        <v>46022.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46006.03125</v>
+        <v>46022.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46006.04166666666</v>
+        <v>46022.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46006.05208333334</v>
+        <v>46022.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46006.0625</v>
+        <v>46022.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46006.07291666666</v>
+        <v>46022.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46006.08333333334</v>
+        <v>46022.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46006.09375</v>
+        <v>46022.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46006.10416666666</v>
+        <v>46022.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46006.11458333334</v>
+        <v>46022.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46006.125</v>
+        <v>46022.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46006.13541666666</v>
+        <v>46022.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46006.14583333334</v>
+        <v>46022.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46006.15625</v>
+        <v>46022.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46006.16666666666</v>
+        <v>46022.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46006.17708333334</v>
+        <v>46022.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46006.1875</v>
+        <v>46022.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46006.19791666666</v>
+        <v>46022.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46006.20833333334</v>
+        <v>46022.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46006.21875</v>
+        <v>46022.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46006.22916666666</v>
+        <v>46022.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46006.23958333334</v>
+        <v>46022.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46006.25</v>
+        <v>46022.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46006.26041666666</v>
+        <v>46022.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46006.27083333334</v>
+        <v>46022.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46006.28125</v>
+        <v>46022.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46006.29166666666</v>
+        <v>46022.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,95 +621,95 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46006.30208333334</v>
+        <v>46022.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46006.3125</v>
+        <v>46022.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46006.32291666666</v>
+        <v>46022.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46006.33333333334</v>
+        <v>46022.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46006.34375</v>
+        <v>46022.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46006.35416666666</v>
+        <v>46022.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46006.36458333334</v>
+        <v>46022.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46006.375</v>
+        <v>46022.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46006.38541666666</v>
+        <v>46022.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46006.39583333334</v>
+        <v>46022.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46006.40625</v>
+        <v>46022.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46006.41666666666</v>
+        <v>46022.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46006.42708333334</v>
+        <v>46022.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46006.4375</v>
+        <v>46022.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46006.44791666666</v>
+        <v>46022.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46006.45833333334</v>
+        <v>46022.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46006.46875</v>
+        <v>46022.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46006.47916666666</v>
+        <v>46022.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46006.48958333334</v>
+        <v>46022.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46006.5</v>
+        <v>46022.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46006.51041666666</v>
+        <v>46022.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46006.52083333334</v>
+        <v>46022.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46006.53125</v>
+        <v>46022.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46006.54166666666</v>
+        <v>46022.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46006.55208333334</v>
+        <v>46022.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46006.5625</v>
+        <v>46022.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46006.57291666666</v>
+        <v>46022.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46006.58333333334</v>
+        <v>46022.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46006.59375</v>
+        <v>46022.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46006.60416666666</v>
+        <v>46022.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46006.61458333334</v>
+        <v>46022.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46006.625</v>
+        <v>46022.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46006.63541666666</v>
+        <v>46022.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46006.64583333334</v>
+        <v>46022.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46006.65625</v>
+        <v>46022.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46006.66666666666</v>
+        <v>46022.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46006.67708333334</v>
+        <v>46022.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46006.6875</v>
+        <v>46022.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46006.69791666666</v>
+        <v>46022.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46006.70833333334</v>
+        <v>46022.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46006.71875</v>
+        <v>46022.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46006.72916666666</v>
+        <v>46022.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46006.73958333334</v>
+        <v>46022.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46006.75</v>
+        <v>46022.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46006.76041666666</v>
+        <v>46022.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46006.77083333334</v>
+        <v>46022.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46006.78125</v>
+        <v>46022.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46006.79166666666</v>
+        <v>46022.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46006.80208333334</v>
+        <v>46022.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46006.8125</v>
+        <v>46022.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46006.82291666666</v>
+        <v>46022.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46006.83333333334</v>
+        <v>46022.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46006.84375</v>
+        <v>46022.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46006.85416666666</v>
+        <v>46022.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46006.86458333334</v>
+        <v>46022.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46006.875</v>
+        <v>46022.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46006.88541666666</v>
+        <v>46022.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46006.89583333334</v>
+        <v>46022.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46006.90625</v>
+        <v>46022.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46006.91666666666</v>
+        <v>46022.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46006.92708333334</v>
+        <v>46022.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46006.9375</v>
+        <v>46022.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46006.94791666666</v>
+        <v>46022.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46006.95833333334</v>
+        <v>46022.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46006.96875</v>
+        <v>46022.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46006.97916666666</v>
+        <v>46022.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46006.98958333334</v>
+        <v>46022.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46007</v>
+        <v>46023</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46022.01041666666</v>
+        <v>46044.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46022.02083333334</v>
+        <v>46044.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46022.03125</v>
+        <v>46044.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46022.04166666666</v>
+        <v>46044.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46022.05208333334</v>
+        <v>46044.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46022.0625</v>
+        <v>46044.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46022.07291666666</v>
+        <v>46044.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46022.08333333334</v>
+        <v>46044.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46022.09375</v>
+        <v>46044.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46022.10416666666</v>
+        <v>46044.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46022.11458333334</v>
+        <v>46044.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46022.125</v>
+        <v>46044.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46022.13541666666</v>
+        <v>46044.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46022.14583333334</v>
+        <v>46044.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46022.15625</v>
+        <v>46044.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46022.16666666666</v>
+        <v>46044.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46022.17708333334</v>
+        <v>46044.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46022.1875</v>
+        <v>46044.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46022.19791666666</v>
+        <v>46044.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46022.20833333334</v>
+        <v>46044.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46022.21875</v>
+        <v>46044.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46022.22916666666</v>
+        <v>46044.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46022.23958333334</v>
+        <v>46044.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46022.25</v>
+        <v>46044.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46022.26041666666</v>
+        <v>46044.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46022.27083333334</v>
+        <v>46044.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46022.28125</v>
+        <v>46044.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46022.29166666666</v>
+        <v>46044.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,95 +621,95 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46022.30208333334</v>
+        <v>46044.30208333334</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46022.3125</v>
+        <v>46044.3125</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46022.32291666666</v>
+        <v>46044.32291666666</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46022.33333333334</v>
+        <v>46044.33333333334</v>
       </c>
       <c r="B33">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46022.34375</v>
+        <v>46044.34375</v>
       </c>
       <c r="B34">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46022.35416666666</v>
+        <v>46044.35416666666</v>
       </c>
       <c r="B35">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46022.36458333334</v>
+        <v>46044.36458333334</v>
       </c>
       <c r="B36">
-        <v>538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46022.375</v>
+        <v>46044.375</v>
       </c>
       <c r="B37">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46022.38541666666</v>
+        <v>46044.38541666666</v>
       </c>
       <c r="B38">
-        <v>784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46022.39583333334</v>
+        <v>46044.39583333334</v>
       </c>
       <c r="B39">
-        <v>874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46022.40625</v>
+        <v>46044.40625</v>
       </c>
       <c r="B40">
-        <v>957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46022.41666666666</v>
+        <v>46044.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46022.42708333334</v>
+        <v>46044.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46022.4375</v>
+        <v>46044.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46022.44791666666</v>
+        <v>46044.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46022.45833333334</v>
+        <v>46044.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46022.46875</v>
+        <v>46044.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46022.47916666666</v>
+        <v>46044.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46022.48958333334</v>
+        <v>46044.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46022.5</v>
+        <v>46044.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46022.51041666666</v>
+        <v>46044.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46022.52083333334</v>
+        <v>46044.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46022.53125</v>
+        <v>46044.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46022.54166666666</v>
+        <v>46044.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46022.55208333334</v>
+        <v>46044.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46022.5625</v>
+        <v>46044.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46022.57291666666</v>
+        <v>46044.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46022.58333333334</v>
+        <v>46044.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46022.59375</v>
+        <v>46044.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46022.60416666666</v>
+        <v>46044.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46022.61458333334</v>
+        <v>46044.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46022.625</v>
+        <v>46044.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46022.63541666666</v>
+        <v>46044.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46022.64583333334</v>
+        <v>46044.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46022.65625</v>
+        <v>46044.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46022.66666666666</v>
+        <v>46044.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46022.67708333334</v>
+        <v>46044.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46022.6875</v>
+        <v>46044.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46022.69791666666</v>
+        <v>46044.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46022.70833333334</v>
+        <v>46044.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46022.71875</v>
+        <v>46044.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46022.72916666666</v>
+        <v>46044.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46022.73958333334</v>
+        <v>46044.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46022.75</v>
+        <v>46044.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46022.76041666666</v>
+        <v>46044.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46022.77083333334</v>
+        <v>46044.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46022.78125</v>
+        <v>46044.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46022.79166666666</v>
+        <v>46044.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46022.80208333334</v>
+        <v>46044.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46022.8125</v>
+        <v>46044.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46022.82291666666</v>
+        <v>46044.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46022.83333333334</v>
+        <v>46044.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46022.84375</v>
+        <v>46044.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46022.85416666666</v>
+        <v>46044.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46022.86458333334</v>
+        <v>46044.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46022.875</v>
+        <v>46044.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46022.88541666666</v>
+        <v>46044.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46022.89583333334</v>
+        <v>46044.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46022.90625</v>
+        <v>46044.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46022.91666666666</v>
+        <v>46044.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46022.92708333334</v>
+        <v>46044.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46022.9375</v>
+        <v>46044.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46022.94791666666</v>
+        <v>46044.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46022.95833333334</v>
+        <v>46044.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46022.96875</v>
+        <v>46044.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46022.97916666666</v>
+        <v>46044.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46022.98958333334</v>
+        <v>46044.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46023</v>
+        <v>46045</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46044.01041666666</v>
+        <v>46046.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46044.02083333334</v>
+        <v>46046.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46044.03125</v>
+        <v>46046.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46044.04166666666</v>
+        <v>46046.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46044.05208333334</v>
+        <v>46046.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46044.0625</v>
+        <v>46046.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46044.07291666666</v>
+        <v>46046.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46044.08333333334</v>
+        <v>46046.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46044.09375</v>
+        <v>46046.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46044.10416666666</v>
+        <v>46046.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46044.11458333334</v>
+        <v>46046.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46044.125</v>
+        <v>46046.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46044.13541666666</v>
+        <v>46046.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46044.14583333334</v>
+        <v>46046.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46044.15625</v>
+        <v>46046.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46044.16666666666</v>
+        <v>46046.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46044.17708333334</v>
+        <v>46046.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46044.1875</v>
+        <v>46046.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46044.19791666666</v>
+        <v>46046.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46044.20833333334</v>
+        <v>46046.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46044.21875</v>
+        <v>46046.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46044.22916666666</v>
+        <v>46046.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46044.23958333334</v>
+        <v>46046.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46044.25</v>
+        <v>46046.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46044.26041666666</v>
+        <v>46046.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46044.27083333334</v>
+        <v>46046.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46044.28125</v>
+        <v>46046.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46044.29166666666</v>
+        <v>46046.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46044.30208333334</v>
+        <v>46046.30208333334</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -629,15 +629,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46044.3125</v>
+        <v>46046.3125</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46044.32291666666</v>
+        <v>46046.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46044.33333333334</v>
+        <v>46046.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46044.34375</v>
+        <v>46046.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46044.35416666666</v>
+        <v>46046.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46044.36458333334</v>
+        <v>46046.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46044.375</v>
+        <v>46046.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46044.38541666666</v>
+        <v>46046.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46044.39583333334</v>
+        <v>46046.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46044.40625</v>
+        <v>46046.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46044.41666666666</v>
+        <v>46046.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46044.42708333334</v>
+        <v>46046.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46044.4375</v>
+        <v>46046.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46044.44791666666</v>
+        <v>46046.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46044.45833333334</v>
+        <v>46046.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46044.46875</v>
+        <v>46046.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46044.47916666666</v>
+        <v>46046.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46044.48958333334</v>
+        <v>46046.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46044.5</v>
+        <v>46046.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46044.51041666666</v>
+        <v>46046.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46044.52083333334</v>
+        <v>46046.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46044.53125</v>
+        <v>46046.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46044.54166666666</v>
+        <v>46046.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46044.55208333334</v>
+        <v>46046.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46044.5625</v>
+        <v>46046.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46044.57291666666</v>
+        <v>46046.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46044.58333333334</v>
+        <v>46046.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46044.59375</v>
+        <v>46046.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46044.60416666666</v>
+        <v>46046.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46044.61458333334</v>
+        <v>46046.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46044.625</v>
+        <v>46046.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46044.63541666666</v>
+        <v>46046.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46044.64583333334</v>
+        <v>46046.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46044.65625</v>
+        <v>46046.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46044.66666666666</v>
+        <v>46046.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46044.67708333334</v>
+        <v>46046.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46044.6875</v>
+        <v>46046.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46044.69791666666</v>
+        <v>46046.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46044.70833333334</v>
+        <v>46046.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46044.71875</v>
+        <v>46046.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46044.72916666666</v>
+        <v>46046.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46044.73958333334</v>
+        <v>46046.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46044.75</v>
+        <v>46046.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46044.76041666666</v>
+        <v>46046.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46044.77083333334</v>
+        <v>46046.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46044.78125</v>
+        <v>46046.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46044.79166666666</v>
+        <v>46046.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46044.80208333334</v>
+        <v>46046.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46044.8125</v>
+        <v>46046.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46044.82291666666</v>
+        <v>46046.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46044.83333333334</v>
+        <v>46046.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46044.84375</v>
+        <v>46046.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46044.85416666666</v>
+        <v>46046.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46044.86458333334</v>
+        <v>46046.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46044.875</v>
+        <v>46046.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46044.88541666666</v>
+        <v>46046.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46044.89583333334</v>
+        <v>46046.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46044.90625</v>
+        <v>46046.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46044.91666666666</v>
+        <v>46046.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46044.92708333334</v>
+        <v>46046.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46044.9375</v>
+        <v>46046.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46044.94791666666</v>
+        <v>46046.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46044.95833333334</v>
+        <v>46046.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46044.96875</v>
+        <v>46046.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46044.97916666666</v>
+        <v>46046.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46044.98958333334</v>
+        <v>46046.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46045</v>
+        <v>46047</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46046.01041666666</v>
+        <v>46048.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46046.02083333334</v>
+        <v>46048.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46046.03125</v>
+        <v>46048.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46046.04166666666</v>
+        <v>46048.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46046.05208333334</v>
+        <v>46048.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46046.0625</v>
+        <v>46048.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46046.07291666666</v>
+        <v>46048.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46046.08333333334</v>
+        <v>46048.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46046.09375</v>
+        <v>46048.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46046.10416666666</v>
+        <v>46048.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46046.11458333334</v>
+        <v>46048.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46046.125</v>
+        <v>46048.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46046.13541666666</v>
+        <v>46048.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46046.14583333334</v>
+        <v>46048.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46046.15625</v>
+        <v>46048.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46046.16666666666</v>
+        <v>46048.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46046.17708333334</v>
+        <v>46048.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46046.1875</v>
+        <v>46048.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46046.19791666666</v>
+        <v>46048.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46046.20833333334</v>
+        <v>46048.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46046.21875</v>
+        <v>46048.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46046.22916666666</v>
+        <v>46048.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46046.23958333334</v>
+        <v>46048.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46046.25</v>
+        <v>46048.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46046.26041666666</v>
+        <v>46048.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46046.27083333334</v>
+        <v>46048.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46046.28125</v>
+        <v>46048.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46046.29166666666</v>
+        <v>46048.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,119 +621,119 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46046.30208333334</v>
+        <v>46048.30208333334</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46046.3125</v>
+        <v>46048.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46046.32291666666</v>
+        <v>46048.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46046.33333333334</v>
+        <v>46048.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46046.34375</v>
+        <v>46048.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46046.35416666666</v>
+        <v>46048.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46046.36458333334</v>
+        <v>46048.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46046.375</v>
+        <v>46048.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46046.38541666666</v>
+        <v>46048.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46046.39583333334</v>
+        <v>46048.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46046.40625</v>
+        <v>46048.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46046.41666666666</v>
+        <v>46048.41666666666</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46046.42708333334</v>
+        <v>46048.42708333334</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46046.4375</v>
+        <v>46048.4375</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46046.44791666666</v>
+        <v>46048.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46046.45833333334</v>
+        <v>46048.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46046.46875</v>
+        <v>46048.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46046.47916666666</v>
+        <v>46048.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46046.48958333334</v>
+        <v>46048.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46046.5</v>
+        <v>46048.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46046.51041666666</v>
+        <v>46048.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46046.52083333334</v>
+        <v>46048.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46046.53125</v>
+        <v>46048.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46046.54166666666</v>
+        <v>46048.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46046.55208333334</v>
+        <v>46048.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46046.5625</v>
+        <v>46048.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46046.57291666666</v>
+        <v>46048.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46046.58333333334</v>
+        <v>46048.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46046.59375</v>
+        <v>46048.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46046.60416666666</v>
+        <v>46048.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46046.61458333334</v>
+        <v>46048.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46046.625</v>
+        <v>46048.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46046.63541666666</v>
+        <v>46048.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46046.64583333334</v>
+        <v>46048.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46046.65625</v>
+        <v>46048.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46046.66666666666</v>
+        <v>46048.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46046.67708333334</v>
+        <v>46048.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46046.6875</v>
+        <v>46048.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46046.69791666666</v>
+        <v>46048.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46046.70833333334</v>
+        <v>46048.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46046.71875</v>
+        <v>46048.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46046.72916666666</v>
+        <v>46048.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46046.73958333334</v>
+        <v>46048.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46046.75</v>
+        <v>46048.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46046.76041666666</v>
+        <v>46048.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46046.77083333334</v>
+        <v>46048.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46046.78125</v>
+        <v>46048.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46046.79166666666</v>
+        <v>46048.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46046.80208333334</v>
+        <v>46048.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46046.8125</v>
+        <v>46048.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46046.82291666666</v>
+        <v>46048.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46046.83333333334</v>
+        <v>46048.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46046.84375</v>
+        <v>46048.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46046.85416666666</v>
+        <v>46048.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46046.86458333334</v>
+        <v>46048.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46046.875</v>
+        <v>46048.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46046.88541666666</v>
+        <v>46048.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46046.89583333334</v>
+        <v>46048.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46046.90625</v>
+        <v>46048.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46046.91666666666</v>
+        <v>46048.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46046.92708333334</v>
+        <v>46048.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46046.9375</v>
+        <v>46048.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46046.94791666666</v>
+        <v>46048.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46046.95833333334</v>
+        <v>46048.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46046.96875</v>
+        <v>46048.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46046.97916666666</v>
+        <v>46048.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46046.98958333334</v>
+        <v>46048.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46047</v>
+        <v>46049</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46048.01041666666</v>
+        <v>46049.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46048.02083333334</v>
+        <v>46049.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46048.03125</v>
+        <v>46049.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46048.04166666666</v>
+        <v>46049.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46048.05208333334</v>
+        <v>46049.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46048.0625</v>
+        <v>46049.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46048.07291666666</v>
+        <v>46049.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46048.08333333334</v>
+        <v>46049.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46048.09375</v>
+        <v>46049.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46048.10416666666</v>
+        <v>46049.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46048.11458333334</v>
+        <v>46049.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46048.125</v>
+        <v>46049.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46048.13541666666</v>
+        <v>46049.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46048.14583333334</v>
+        <v>46049.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46048.15625</v>
+        <v>46049.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46048.16666666666</v>
+        <v>46049.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46048.17708333334</v>
+        <v>46049.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46048.1875</v>
+        <v>46049.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46048.19791666666</v>
+        <v>46049.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46048.20833333334</v>
+        <v>46049.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46048.21875</v>
+        <v>46049.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46048.22916666666</v>
+        <v>46049.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46048.23958333334</v>
+        <v>46049.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46048.25</v>
+        <v>46049.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46048.26041666666</v>
+        <v>46049.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46048.27083333334</v>
+        <v>46049.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46048.28125</v>
+        <v>46049.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46048.29166666666</v>
+        <v>46049.29166666666</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46048.30208333334</v>
+        <v>46049.30208333334</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -629,127 +629,127 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46048.3125</v>
+        <v>46049.3125</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46048.32291666666</v>
+        <v>46049.32291666666</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46048.33333333334</v>
+        <v>46049.33333333334</v>
       </c>
       <c r="B33">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46048.34375</v>
+        <v>46049.34375</v>
       </c>
       <c r="B34">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46048.35416666666</v>
+        <v>46049.35416666666</v>
       </c>
       <c r="B35">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46048.36458333334</v>
+        <v>46049.36458333334</v>
       </c>
       <c r="B36">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46048.375</v>
+        <v>46049.375</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46048.38541666666</v>
+        <v>46049.38541666666</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46048.39583333334</v>
+        <v>46049.39583333334</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46048.40625</v>
+        <v>46049.40625</v>
       </c>
       <c r="B40">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46048.41666666666</v>
+        <v>46049.41666666666</v>
       </c>
       <c r="B41">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46048.42708333334</v>
+        <v>46049.42708333334</v>
       </c>
       <c r="B42">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46048.4375</v>
+        <v>46049.4375</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46048.44791666666</v>
+        <v>46049.44791666666</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46048.45833333334</v>
+        <v>46049.45833333334</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46048.46875</v>
+        <v>46049.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46048.47916666666</v>
+        <v>46049.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46048.48958333334</v>
+        <v>46049.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46048.5</v>
+        <v>46049.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46048.51041666666</v>
+        <v>46049.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46048.52083333334</v>
+        <v>46049.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46048.53125</v>
+        <v>46049.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46048.54166666666</v>
+        <v>46049.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46048.55208333334</v>
+        <v>46049.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46048.5625</v>
+        <v>46049.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46048.57291666666</v>
+        <v>46049.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46048.58333333334</v>
+        <v>46049.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46048.59375</v>
+        <v>46049.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46048.60416666666</v>
+        <v>46049.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46048.61458333334</v>
+        <v>46049.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46048.625</v>
+        <v>46049.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46048.63541666666</v>
+        <v>46049.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46048.64583333334</v>
+        <v>46049.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46048.65625</v>
+        <v>46049.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46048.66666666666</v>
+        <v>46049.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46048.67708333334</v>
+        <v>46049.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46048.6875</v>
+        <v>46049.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46048.69791666666</v>
+        <v>46049.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46048.70833333334</v>
+        <v>46049.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46048.71875</v>
+        <v>46049.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46048.72916666666</v>
+        <v>46049.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46048.73958333334</v>
+        <v>46049.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46048.75</v>
+        <v>46049.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46048.76041666666</v>
+        <v>46049.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46048.77083333334</v>
+        <v>46049.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46048.78125</v>
+        <v>46049.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46048.79166666666</v>
+        <v>46049.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46048.80208333334</v>
+        <v>46049.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46048.8125</v>
+        <v>46049.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46048.82291666666</v>
+        <v>46049.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46048.83333333334</v>
+        <v>46049.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46048.84375</v>
+        <v>46049.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46048.85416666666</v>
+        <v>46049.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46048.86458333334</v>
+        <v>46049.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46048.875</v>
+        <v>46049.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46048.88541666666</v>
+        <v>46049.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46048.89583333334</v>
+        <v>46049.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46048.90625</v>
+        <v>46049.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46048.91666666666</v>
+        <v>46049.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46048.92708333334</v>
+        <v>46049.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46048.9375</v>
+        <v>46049.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46048.94791666666</v>
+        <v>46049.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46048.95833333334</v>
+        <v>46049.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46048.96875</v>
+        <v>46049.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46048.97916666666</v>
+        <v>46049.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46048.98958333334</v>
+        <v>46049.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46049.01041666666</v>
+        <v>46056.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46049.02083333334</v>
+        <v>46056.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46049.03125</v>
+        <v>46056.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46049.04166666666</v>
+        <v>46056.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46049.05208333334</v>
+        <v>46056.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46049.0625</v>
+        <v>46056.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46049.07291666666</v>
+        <v>46056.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46049.08333333334</v>
+        <v>46056.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46049.09375</v>
+        <v>46056.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46049.10416666666</v>
+        <v>46056.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46049.11458333334</v>
+        <v>46056.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46049.125</v>
+        <v>46056.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46049.13541666666</v>
+        <v>46056.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46049.14583333334</v>
+        <v>46056.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46049.15625</v>
+        <v>46056.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46049.16666666666</v>
+        <v>46056.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46049.17708333334</v>
+        <v>46056.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46049.1875</v>
+        <v>46056.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46049.19791666666</v>
+        <v>46056.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46049.20833333334</v>
+        <v>46056.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46049.21875</v>
+        <v>46056.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46049.22916666666</v>
+        <v>46056.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46049.23958333334</v>
+        <v>46056.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46049.25</v>
+        <v>46056.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46049.26041666666</v>
+        <v>46056.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46049.27083333334</v>
+        <v>46056.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46049.28125</v>
+        <v>46056.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,175 +613,175 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46049.29166666666</v>
+        <v>46056.29166666666</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46049.30208333334</v>
+        <v>46056.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46049.3125</v>
+        <v>46056.3125</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46049.32291666666</v>
+        <v>46056.32291666666</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46049.33333333334</v>
+        <v>46056.33333333334</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46049.34375</v>
+        <v>46056.34375</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46049.35416666666</v>
+        <v>46056.35416666666</v>
       </c>
       <c r="B35">
-        <v>67</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46049.36458333334</v>
+        <v>46056.36458333334</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46049.375</v>
+        <v>46056.375</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46049.38541666666</v>
+        <v>46056.38541666666</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46049.39583333334</v>
+        <v>46056.39583333334</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46049.40625</v>
+        <v>46056.40625</v>
       </c>
       <c r="B40">
-        <v>146</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46049.41666666666</v>
+        <v>46056.41666666666</v>
       </c>
       <c r="B41">
-        <v>150</v>
+        <v>911</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46049.42708333334</v>
+        <v>46056.42708333334</v>
       </c>
       <c r="B42">
-        <v>170</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46049.4375</v>
+        <v>46056.4375</v>
       </c>
       <c r="B43">
-        <v>184</v>
+        <v>996</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46049.44791666666</v>
+        <v>46056.44791666666</v>
       </c>
       <c r="B44">
-        <v>192</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46049.45833333334</v>
+        <v>46056.45833333334</v>
       </c>
       <c r="B45">
-        <v>199</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46049.46875</v>
+        <v>46056.46875</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46049.47916666666</v>
+        <v>46056.47916666666</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46049.48958333334</v>
+        <v>46056.48958333334</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46049.5</v>
+        <v>46056.5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46049.51041666666</v>
+        <v>46056.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46049.52083333334</v>
+        <v>46056.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46049.53125</v>
+        <v>46056.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46049.54166666666</v>
+        <v>46056.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46049.55208333334</v>
+        <v>46056.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46049.5625</v>
+        <v>46056.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46049.57291666666</v>
+        <v>46056.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46049.58333333334</v>
+        <v>46056.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46049.59375</v>
+        <v>46056.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46049.60416666666</v>
+        <v>46056.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46049.61458333334</v>
+        <v>46056.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46049.625</v>
+        <v>46056.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46049.63541666666</v>
+        <v>46056.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46049.64583333334</v>
+        <v>46056.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46049.65625</v>
+        <v>46056.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46049.66666666666</v>
+        <v>46056.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46049.67708333334</v>
+        <v>46056.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46049.6875</v>
+        <v>46056.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46049.69791666666</v>
+        <v>46056.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46049.70833333334</v>
+        <v>46056.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46049.71875</v>
+        <v>46056.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46049.72916666666</v>
+        <v>46056.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46049.73958333334</v>
+        <v>46056.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46049.75</v>
+        <v>46056.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46049.76041666666</v>
+        <v>46056.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46049.77083333334</v>
+        <v>46056.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46049.78125</v>
+        <v>46056.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46049.79166666666</v>
+        <v>46056.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46049.80208333334</v>
+        <v>46056.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46049.8125</v>
+        <v>46056.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46049.82291666666</v>
+        <v>46056.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46049.83333333334</v>
+        <v>46056.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46049.84375</v>
+        <v>46056.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46049.85416666666</v>
+        <v>46056.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46049.86458333334</v>
+        <v>46056.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46049.875</v>
+        <v>46056.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46049.88541666666</v>
+        <v>46056.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46049.89583333334</v>
+        <v>46056.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46049.90625</v>
+        <v>46056.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46049.91666666666</v>
+        <v>46056.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46049.92708333334</v>
+        <v>46056.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46049.9375</v>
+        <v>46056.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46049.94791666666</v>
+        <v>46056.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46049.95833333334</v>
+        <v>46056.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46049.96875</v>
+        <v>46056.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46049.97916666666</v>
+        <v>46056.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46049.98958333334</v>
+        <v>46056.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46056.01041666666</v>
+        <v>46069.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46056.02083333334</v>
+        <v>46069.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46056.03125</v>
+        <v>46069.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46056.04166666666</v>
+        <v>46069.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46056.05208333334</v>
+        <v>46069.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46056.0625</v>
+        <v>46069.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46056.07291666666</v>
+        <v>46069.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46056.08333333334</v>
+        <v>46069.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46056.09375</v>
+        <v>46069.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46056.10416666666</v>
+        <v>46069.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46056.11458333334</v>
+        <v>46069.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46056.125</v>
+        <v>46069.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46056.13541666666</v>
+        <v>46069.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46056.14583333334</v>
+        <v>46069.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46056.15625</v>
+        <v>46069.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46056.16666666666</v>
+        <v>46069.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46056.17708333334</v>
+        <v>46069.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46056.1875</v>
+        <v>46069.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46056.19791666666</v>
+        <v>46069.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46056.20833333334</v>
+        <v>46069.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46056.21875</v>
+        <v>46069.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46056.22916666666</v>
+        <v>46069.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46056.23958333334</v>
+        <v>46069.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46056.25</v>
+        <v>46069.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46056.26041666666</v>
+        <v>46069.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46056.27083333334</v>
+        <v>46069.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,183 +605,183 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46056.28125</v>
+        <v>46069.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46056.29166666666</v>
+        <v>46069.29166666666</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46056.30208333334</v>
+        <v>46069.30208333334</v>
       </c>
       <c r="B30">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46056.3125</v>
+        <v>46069.3125</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46056.32291666666</v>
+        <v>46069.32291666666</v>
       </c>
       <c r="B32">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46056.33333333334</v>
+        <v>46069.33333333334</v>
       </c>
       <c r="B33">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46056.34375</v>
+        <v>46069.34375</v>
       </c>
       <c r="B34">
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46056.35416666666</v>
+        <v>46069.35416666666</v>
       </c>
       <c r="B35">
-        <v>391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46056.36458333334</v>
+        <v>46069.36458333334</v>
       </c>
       <c r="B36">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46056.375</v>
+        <v>46069.375</v>
       </c>
       <c r="B37">
-        <v>563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46056.38541666666</v>
+        <v>46069.38541666666</v>
       </c>
       <c r="B38">
-        <v>648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46056.39583333334</v>
+        <v>46069.39583333334</v>
       </c>
       <c r="B39">
-        <v>757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46056.40625</v>
+        <v>46069.40625</v>
       </c>
       <c r="B40">
-        <v>836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46056.41666666666</v>
+        <v>46069.41666666666</v>
       </c>
       <c r="B41">
-        <v>911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46056.42708333334</v>
+        <v>46069.42708333334</v>
       </c>
       <c r="B42">
-        <v>974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46056.4375</v>
+        <v>46069.4375</v>
       </c>
       <c r="B43">
-        <v>996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46056.44791666666</v>
+        <v>46069.44791666666</v>
       </c>
       <c r="B44">
-        <v>1107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46056.45833333334</v>
+        <v>46069.45833333334</v>
       </c>
       <c r="B45">
-        <v>1097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46056.46875</v>
+        <v>46069.46875</v>
       </c>
       <c r="B46">
-        <v>1079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46056.47916666666</v>
+        <v>46069.47916666666</v>
       </c>
       <c r="B47">
-        <v>1083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46056.48958333334</v>
+        <v>46069.48958333334</v>
       </c>
       <c r="B48">
-        <v>1106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46056.5</v>
+        <v>46069.5</v>
       </c>
       <c r="B49">
-        <v>1083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46056.51041666666</v>
+        <v>46069.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46056.52083333334</v>
+        <v>46069.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46056.53125</v>
+        <v>46069.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46056.54166666666</v>
+        <v>46069.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46056.55208333334</v>
+        <v>46069.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46056.5625</v>
+        <v>46069.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46056.57291666666</v>
+        <v>46069.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46056.58333333334</v>
+        <v>46069.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46056.59375</v>
+        <v>46069.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46056.60416666666</v>
+        <v>46069.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46056.61458333334</v>
+        <v>46069.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46056.625</v>
+        <v>46069.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46056.63541666666</v>
+        <v>46069.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46056.64583333334</v>
+        <v>46069.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46056.65625</v>
+        <v>46069.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46056.66666666666</v>
+        <v>46069.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46056.67708333334</v>
+        <v>46069.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46056.6875</v>
+        <v>46069.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46056.69791666666</v>
+        <v>46069.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46056.70833333334</v>
+        <v>46069.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46056.71875</v>
+        <v>46069.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46056.72916666666</v>
+        <v>46069.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46056.73958333334</v>
+        <v>46069.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46056.75</v>
+        <v>46069.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46056.76041666666</v>
+        <v>46069.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46056.77083333334</v>
+        <v>46069.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46056.78125</v>
+        <v>46069.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46056.79166666666</v>
+        <v>46069.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46056.80208333334</v>
+        <v>46069.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46056.8125</v>
+        <v>46069.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46056.82291666666</v>
+        <v>46069.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46056.83333333334</v>
+        <v>46069.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46056.84375</v>
+        <v>46069.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46056.85416666666</v>
+        <v>46069.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46056.86458333334</v>
+        <v>46069.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46056.875</v>
+        <v>46069.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46056.88541666666</v>
+        <v>46069.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46056.89583333334</v>
+        <v>46069.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46056.90625</v>
+        <v>46069.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46056.91666666666</v>
+        <v>46069.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46056.92708333334</v>
+        <v>46069.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46056.9375</v>
+        <v>46069.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46056.94791666666</v>
+        <v>46069.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46056.95833333334</v>
+        <v>46069.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46056.96875</v>
+        <v>46069.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46056.97916666666</v>
+        <v>46069.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46056.98958333334</v>
+        <v>46069.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46057</v>
+        <v>46070</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46069.01041666666</v>
+        <v>46070.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46069.02083333334</v>
+        <v>46070.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46069.03125</v>
+        <v>46070.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46069.04166666666</v>
+        <v>46070.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46069.05208333334</v>
+        <v>46070.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46069.0625</v>
+        <v>46070.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46069.07291666666</v>
+        <v>46070.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46069.08333333334</v>
+        <v>46070.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46069.09375</v>
+        <v>46070.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46069.10416666666</v>
+        <v>46070.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46069.11458333334</v>
+        <v>46070.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46069.125</v>
+        <v>46070.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46069.13541666666</v>
+        <v>46070.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46069.14583333334</v>
+        <v>46070.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46069.15625</v>
+        <v>46070.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46069.16666666666</v>
+        <v>46070.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46069.17708333334</v>
+        <v>46070.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46069.1875</v>
+        <v>46070.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46069.19791666666</v>
+        <v>46070.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46069.20833333334</v>
+        <v>46070.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46069.21875</v>
+        <v>46070.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46069.22916666666</v>
+        <v>46070.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46069.23958333334</v>
+        <v>46070.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46069.25</v>
+        <v>46070.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46069.26041666666</v>
+        <v>46070.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46069.27083333334</v>
+        <v>46070.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,31 +605,31 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46069.28125</v>
+        <v>46070.28125</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46069.29166666666</v>
+        <v>46070.29166666666</v>
       </c>
       <c r="B29">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46069.30208333334</v>
+        <v>46070.30208333334</v>
       </c>
       <c r="B30">
-        <v>116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46069.3125</v>
+        <v>46070.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46069.32291666666</v>
+        <v>46070.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46069.33333333334</v>
+        <v>46070.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46069.34375</v>
+        <v>46070.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46069.35416666666</v>
+        <v>46070.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46069.36458333334</v>
+        <v>46070.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46069.375</v>
+        <v>46070.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46069.38541666666</v>
+        <v>46070.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46069.39583333334</v>
+        <v>46070.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46069.40625</v>
+        <v>46070.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46069.41666666666</v>
+        <v>46070.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46069.42708333334</v>
+        <v>46070.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46069.4375</v>
+        <v>46070.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46069.44791666666</v>
+        <v>46070.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46069.45833333334</v>
+        <v>46070.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46069.46875</v>
+        <v>46070.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46069.47916666666</v>
+        <v>46070.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46069.48958333334</v>
+        <v>46070.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46069.5</v>
+        <v>46070.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46069.51041666666</v>
+        <v>46070.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46069.52083333334</v>
+        <v>46070.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46069.53125</v>
+        <v>46070.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46069.54166666666</v>
+        <v>46070.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46069.55208333334</v>
+        <v>46070.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46069.5625</v>
+        <v>46070.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46069.57291666666</v>
+        <v>46070.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46069.58333333334</v>
+        <v>46070.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46069.59375</v>
+        <v>46070.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46069.60416666666</v>
+        <v>46070.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46069.61458333334</v>
+        <v>46070.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46069.625</v>
+        <v>46070.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46069.63541666666</v>
+        <v>46070.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46069.64583333334</v>
+        <v>46070.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46069.65625</v>
+        <v>46070.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46069.66666666666</v>
+        <v>46070.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46069.67708333334</v>
+        <v>46070.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46069.6875</v>
+        <v>46070.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46069.69791666666</v>
+        <v>46070.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46069.70833333334</v>
+        <v>46070.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46069.71875</v>
+        <v>46070.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46069.72916666666</v>
+        <v>46070.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46069.73958333334</v>
+        <v>46070.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46069.75</v>
+        <v>46070.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46069.76041666666</v>
+        <v>46070.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46069.77083333334</v>
+        <v>46070.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46069.78125</v>
+        <v>46070.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46069.79166666666</v>
+        <v>46070.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46069.80208333334</v>
+        <v>46070.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46069.8125</v>
+        <v>46070.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46069.82291666666</v>
+        <v>46070.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46069.83333333334</v>
+        <v>46070.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46069.84375</v>
+        <v>46070.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46069.85416666666</v>
+        <v>46070.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46069.86458333334</v>
+        <v>46070.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46069.875</v>
+        <v>46070.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46069.88541666666</v>
+        <v>46070.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46069.89583333334</v>
+        <v>46070.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46069.90625</v>
+        <v>46070.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46069.91666666666</v>
+        <v>46070.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46069.92708333334</v>
+        <v>46070.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46069.9375</v>
+        <v>46070.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46069.94791666666</v>
+        <v>46070.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46069.95833333334</v>
+        <v>46070.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46069.96875</v>
+        <v>46070.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46069.97916666666</v>
+        <v>46070.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46069.98958333334</v>
+        <v>46070.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46070</v>
+        <v>46071</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46070.01041666666</v>
+        <v>46071.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46070.02083333334</v>
+        <v>46071.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46070.03125</v>
+        <v>46071.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46070.04166666666</v>
+        <v>46071.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46070.05208333334</v>
+        <v>46071.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46070.0625</v>
+        <v>46071.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46070.07291666666</v>
+        <v>46071.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46070.08333333334</v>
+        <v>46071.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46070.09375</v>
+        <v>46071.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46070.10416666666</v>
+        <v>46071.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46070.11458333334</v>
+        <v>46071.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46070.125</v>
+        <v>46071.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46070.13541666666</v>
+        <v>46071.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46070.14583333334</v>
+        <v>46071.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46070.15625</v>
+        <v>46071.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46070.16666666666</v>
+        <v>46071.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46070.17708333334</v>
+        <v>46071.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46070.1875</v>
+        <v>46071.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46070.19791666666</v>
+        <v>46071.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46070.20833333334</v>
+        <v>46071.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46070.21875</v>
+        <v>46071.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46070.22916666666</v>
+        <v>46071.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46070.23958333334</v>
+        <v>46071.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46070.25</v>
+        <v>46071.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46070.26041666666</v>
+        <v>46071.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46070.27083333334</v>
+        <v>46071.27083333334</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46070.28125</v>
+        <v>46071.28125</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -613,23 +613,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46070.29166666666</v>
+        <v>46071.29166666666</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46070.30208333334</v>
+        <v>46071.30208333334</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46070.3125</v>
+        <v>46071.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46070.32291666666</v>
+        <v>46071.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46070.33333333334</v>
+        <v>46071.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46070.34375</v>
+        <v>46071.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46070.35416666666</v>
+        <v>46071.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46070.36458333334</v>
+        <v>46071.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46070.375</v>
+        <v>46071.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46070.38541666666</v>
+        <v>46071.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46070.39583333334</v>
+        <v>46071.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46070.40625</v>
+        <v>46071.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46070.41666666666</v>
+        <v>46071.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46070.42708333334</v>
+        <v>46071.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46070.4375</v>
+        <v>46071.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46070.44791666666</v>
+        <v>46071.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46070.45833333334</v>
+        <v>46071.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46070.46875</v>
+        <v>46071.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46070.47916666666</v>
+        <v>46071.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46070.48958333334</v>
+        <v>46071.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46070.5</v>
+        <v>46071.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46070.51041666666</v>
+        <v>46071.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46070.52083333334</v>
+        <v>46071.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46070.53125</v>
+        <v>46071.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46070.54166666666</v>
+        <v>46071.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46070.55208333334</v>
+        <v>46071.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46070.5625</v>
+        <v>46071.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46070.57291666666</v>
+        <v>46071.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46070.58333333334</v>
+        <v>46071.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46070.59375</v>
+        <v>46071.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46070.60416666666</v>
+        <v>46071.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46070.61458333334</v>
+        <v>46071.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46070.625</v>
+        <v>46071.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46070.63541666666</v>
+        <v>46071.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46070.64583333334</v>
+        <v>46071.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46070.65625</v>
+        <v>46071.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46070.66666666666</v>
+        <v>46071.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46070.67708333334</v>
+        <v>46071.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46070.6875</v>
+        <v>46071.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46070.69791666666</v>
+        <v>46071.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46070.70833333334</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46070.71875</v>
+        <v>46071.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46070.72916666666</v>
+        <v>46071.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46070.73958333334</v>
+        <v>46071.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46070.75</v>
+        <v>46071.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46070.76041666666</v>
+        <v>46071.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46070.77083333334</v>
+        <v>46071.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46070.78125</v>
+        <v>46071.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46070.79166666666</v>
+        <v>46071.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46070.80208333334</v>
+        <v>46071.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46070.8125</v>
+        <v>46071.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46070.82291666666</v>
+        <v>46071.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46070.83333333334</v>
+        <v>46071.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46070.84375</v>
+        <v>46071.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46070.85416666666</v>
+        <v>46071.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46070.86458333334</v>
+        <v>46071.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46070.875</v>
+        <v>46071.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46070.88541666666</v>
+        <v>46071.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46070.89583333334</v>
+        <v>46071.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46070.90625</v>
+        <v>46071.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46070.91666666666</v>
+        <v>46071.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46070.92708333334</v>
+        <v>46071.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46070.9375</v>
+        <v>46071.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46070.94791666666</v>
+        <v>46071.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46070.95833333334</v>
+        <v>46071.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46070.96875</v>
+        <v>46071.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46070.97916666666</v>
+        <v>46071.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46070.98958333334</v>
+        <v>46071.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46071.01041666666</v>
+        <v>46073.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46071.02083333334</v>
+        <v>46073.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46071.03125</v>
+        <v>46073.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46071.04166666666</v>
+        <v>46073.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46071.05208333334</v>
+        <v>46073.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46071.0625</v>
+        <v>46073.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46071.07291666666</v>
+        <v>46073.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46071.08333333334</v>
+        <v>46073.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46071.09375</v>
+        <v>46073.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46071.10416666666</v>
+        <v>46073.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46071.11458333334</v>
+        <v>46073.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46071.125</v>
+        <v>46073.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46071.13541666666</v>
+        <v>46073.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46071.14583333334</v>
+        <v>46073.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46071.15625</v>
+        <v>46073.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46071.16666666666</v>
+        <v>46073.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46071.17708333334</v>
+        <v>46073.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46071.1875</v>
+        <v>46073.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46071.19791666666</v>
+        <v>46073.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46071.20833333334</v>
+        <v>46073.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46071.21875</v>
+        <v>46073.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46071.22916666666</v>
+        <v>46073.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46071.23958333334</v>
+        <v>46073.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46071.25</v>
+        <v>46073.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46071.26041666666</v>
+        <v>46073.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,31 +597,31 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46071.27083333334</v>
+        <v>46073.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46071.28125</v>
+        <v>46073.28125</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46071.29166666666</v>
+        <v>46073.29166666666</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46071.30208333334</v>
+        <v>46073.30208333334</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46071.3125</v>
+        <v>46073.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46071.32291666666</v>
+        <v>46073.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46071.33333333334</v>
+        <v>46073.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46071.34375</v>
+        <v>46073.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46071.35416666666</v>
+        <v>46073.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46071.36458333334</v>
+        <v>46073.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46071.375</v>
+        <v>46073.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46071.38541666666</v>
+        <v>46073.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46071.39583333334</v>
+        <v>46073.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46071.40625</v>
+        <v>46073.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46071.41666666666</v>
+        <v>46073.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46071.42708333334</v>
+        <v>46073.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46071.4375</v>
+        <v>46073.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46071.44791666666</v>
+        <v>46073.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46071.45833333334</v>
+        <v>46073.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46071.46875</v>
+        <v>46073.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46071.47916666666</v>
+        <v>46073.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46071.48958333334</v>
+        <v>46073.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46071.5</v>
+        <v>46073.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46071.51041666666</v>
+        <v>46073.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46071.52083333334</v>
+        <v>46073.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46071.53125</v>
+        <v>46073.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46071.54166666666</v>
+        <v>46073.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46071.55208333334</v>
+        <v>46073.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46071.5625</v>
+        <v>46073.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46071.57291666666</v>
+        <v>46073.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46071.58333333334</v>
+        <v>46073.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46071.59375</v>
+        <v>46073.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46071.60416666666</v>
+        <v>46073.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46071.61458333334</v>
+        <v>46073.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46071.625</v>
+        <v>46073.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46071.63541666666</v>
+        <v>46073.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46071.64583333334</v>
+        <v>46073.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46071.65625</v>
+        <v>46073.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46071.66666666666</v>
+        <v>46073.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46071.67708333334</v>
+        <v>46073.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46071.6875</v>
+        <v>46073.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46071.69791666666</v>
+        <v>46073.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46071.70833333334</v>
+        <v>46073.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46071.71875</v>
+        <v>46073.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46071.72916666666</v>
+        <v>46073.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46071.73958333334</v>
+        <v>46073.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46071.75</v>
+        <v>46073.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46071.76041666666</v>
+        <v>46073.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46071.77083333334</v>
+        <v>46073.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46071.78125</v>
+        <v>46073.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46071.79166666666</v>
+        <v>46073.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46071.80208333334</v>
+        <v>46073.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46071.8125</v>
+        <v>46073.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46071.82291666666</v>
+        <v>46073.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46071.83333333334</v>
+        <v>46073.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46071.84375</v>
+        <v>46073.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46071.85416666666</v>
+        <v>46073.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46071.86458333334</v>
+        <v>46073.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46071.875</v>
+        <v>46073.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46071.88541666666</v>
+        <v>46073.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46071.89583333334</v>
+        <v>46073.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46071.90625</v>
+        <v>46073.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46071.91666666666</v>
+        <v>46073.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46071.92708333334</v>
+        <v>46073.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46071.9375</v>
+        <v>46073.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46071.94791666666</v>
+        <v>46073.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46071.95833333334</v>
+        <v>46073.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46071.96875</v>
+        <v>46073.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46071.97916666666</v>
+        <v>46073.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46071.98958333334</v>
+        <v>46073.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46073.01041666666</v>
+        <v>46074.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46073.02083333334</v>
+        <v>46074.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46073.03125</v>
+        <v>46074.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46073.04166666666</v>
+        <v>46074.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46073.05208333334</v>
+        <v>46074.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46073.0625</v>
+        <v>46074.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46073.07291666666</v>
+        <v>46074.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46073.08333333334</v>
+        <v>46074.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46073.09375</v>
+        <v>46074.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46073.10416666666</v>
+        <v>46074.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46073.11458333334</v>
+        <v>46074.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46073.125</v>
+        <v>46074.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46073.13541666666</v>
+        <v>46074.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46073.14583333334</v>
+        <v>46074.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46073.15625</v>
+        <v>46074.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46073.16666666666</v>
+        <v>46074.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46073.17708333334</v>
+        <v>46074.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46073.1875</v>
+        <v>46074.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46073.19791666666</v>
+        <v>46074.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46073.20833333334</v>
+        <v>46074.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46073.21875</v>
+        <v>46074.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46073.22916666666</v>
+        <v>46074.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46073.23958333334</v>
+        <v>46074.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46073.25</v>
+        <v>46074.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46073.26041666666</v>
+        <v>46074.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,39 +597,39 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46073.27083333334</v>
+        <v>46074.27083333334</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46073.28125</v>
+        <v>46074.28125</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46073.29166666666</v>
+        <v>46074.29166666666</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46073.30208333334</v>
+        <v>46074.30208333334</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46073.3125</v>
+        <v>46074.3125</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46073.32291666666</v>
+        <v>46074.32291666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46073.33333333334</v>
+        <v>46074.33333333334</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46073.34375</v>
+        <v>46074.34375</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46073.35416666666</v>
+        <v>46074.35416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46073.36458333334</v>
+        <v>46074.36458333334</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46073.375</v>
+        <v>46074.375</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46073.38541666666</v>
+        <v>46074.38541666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46073.39583333334</v>
+        <v>46074.39583333334</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46073.40625</v>
+        <v>46074.40625</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46073.41666666666</v>
+        <v>46074.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46073.42708333334</v>
+        <v>46074.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46073.4375</v>
+        <v>46074.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46073.44791666666</v>
+        <v>46074.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46073.45833333334</v>
+        <v>46074.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46073.46875</v>
+        <v>46074.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46073.47916666666</v>
+        <v>46074.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46073.48958333334</v>
+        <v>46074.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46073.5</v>
+        <v>46074.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46073.51041666666</v>
+        <v>46074.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46073.52083333334</v>
+        <v>46074.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46073.53125</v>
+        <v>46074.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46073.54166666666</v>
+        <v>46074.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46073.55208333334</v>
+        <v>46074.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46073.5625</v>
+        <v>46074.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46073.57291666666</v>
+        <v>46074.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46073.58333333334</v>
+        <v>46074.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46073.59375</v>
+        <v>46074.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46073.60416666666</v>
+        <v>46074.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46073.61458333334</v>
+        <v>46074.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46073.625</v>
+        <v>46074.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46073.63541666666</v>
+        <v>46074.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46073.64583333334</v>
+        <v>46074.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46073.65625</v>
+        <v>46074.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46073.66666666666</v>
+        <v>46074.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46073.67708333334</v>
+        <v>46074.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46073.6875</v>
+        <v>46074.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46073.69791666666</v>
+        <v>46074.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46073.70833333334</v>
+        <v>46074.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46073.71875</v>
+        <v>46074.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46073.72916666666</v>
+        <v>46074.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46073.73958333334</v>
+        <v>46074.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46073.75</v>
+        <v>46074.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46073.76041666666</v>
+        <v>46074.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46073.77083333334</v>
+        <v>46074.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46073.78125</v>
+        <v>46074.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46073.79166666666</v>
+        <v>46074.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46073.80208333334</v>
+        <v>46074.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46073.8125</v>
+        <v>46074.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46073.82291666666</v>
+        <v>46074.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46073.83333333334</v>
+        <v>46074.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46073.84375</v>
+        <v>46074.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46073.85416666666</v>
+        <v>46074.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46073.86458333334</v>
+        <v>46074.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46073.875</v>
+        <v>46074.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46073.88541666666</v>
+        <v>46074.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46073.89583333334</v>
+        <v>46074.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46073.90625</v>
+        <v>46074.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46073.91666666666</v>
+        <v>46074.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46073.92708333334</v>
+        <v>46074.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46073.9375</v>
+        <v>46074.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46073.94791666666</v>
+        <v>46074.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46073.95833333334</v>
+        <v>46074.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46073.96875</v>
+        <v>46074.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46073.97916666666</v>
+        <v>46074.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46073.98958333334</v>
+        <v>46074.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="B97">
         <v>0</v>

--- a/data_fetching/Entsoe/Actual_Production_Solar.xlsx
+++ b/data_fetching/Entsoe/Actual_Production_Solar.xlsx
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>46074.01041666666</v>
+        <v>46079.01041666666</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>46074.02083333334</v>
+        <v>46079.02083333334</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>46074.03125</v>
+        <v>46079.03125</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46074.04166666666</v>
+        <v>46079.04166666666</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46074.05208333334</v>
+        <v>46079.05208333334</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>46074.0625</v>
+        <v>46079.0625</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>46074.07291666666</v>
+        <v>46079.07291666666</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>46074.08333333334</v>
+        <v>46079.08333333334</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>46074.09375</v>
+        <v>46079.09375</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>46074.10416666666</v>
+        <v>46079.10416666666</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>46074.11458333334</v>
+        <v>46079.11458333334</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>46074.125</v>
+        <v>46079.125</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>46074.13541666666</v>
+        <v>46079.13541666666</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>46074.14583333334</v>
+        <v>46079.14583333334</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>46074.15625</v>
+        <v>46079.15625</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>46074.16666666666</v>
+        <v>46079.16666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>46074.17708333334</v>
+        <v>46079.17708333334</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>46074.1875</v>
+        <v>46079.1875</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>46074.19791666666</v>
+        <v>46079.19791666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46074.20833333334</v>
+        <v>46079.20833333334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>46074.21875</v>
+        <v>46079.21875</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>46074.22916666666</v>
+        <v>46079.22916666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>46074.23958333334</v>
+        <v>46079.23958333334</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>46074.25</v>
+        <v>46079.25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>46074.26041666666</v>
+        <v>46079.26041666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -597,119 +597,119 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>46074.27083333334</v>
+        <v>46079.27083333334</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>46074.28125</v>
+        <v>46079.28125</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>46074.29166666666</v>
+        <v>46079.29166666666</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>46074.30208333334</v>
+        <v>46079.30208333334</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>46074.3125</v>
+        <v>46079.3125</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>46074.32291666666</v>
+        <v>46079.32291666666</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>46074.33333333334</v>
+        <v>46079.33333333334</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>46074.34375</v>
+        <v>46079.34375</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>46074.35416666666</v>
+        <v>46079.35416666666</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>46074.36458333334</v>
+        <v>46079.36458333334</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>46074.375</v>
+        <v>46079.375</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>46074.38541666666</v>
+        <v>46079.38541666666</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>46074.39583333334</v>
+        <v>46079.39583333334</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>46074.40625</v>
+        <v>46079.40625</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>46074.41666666666</v>
+        <v>46079.41666666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>46074.42708333334</v>
+        <v>46079.42708333334</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>46074.4375</v>
+        <v>46079.4375</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>46074.44791666666</v>
+        <v>46079.44791666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>46074.45833333334</v>
+        <v>46079.45833333334</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>46074.46875</v>
+        <v>46079.46875</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>46074.47916666666</v>
+        <v>46079.47916666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>46074.48958333334</v>
+        <v>46079.48958333334</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>46074.5</v>
+        <v>46079.5</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>46074.51041666666</v>
+        <v>46079.51041666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>46074.52083333334</v>
+        <v>46079.52083333334</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>46074.53125</v>
+        <v>46079.53125</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>46074.54166666666</v>
+        <v>46079.54166666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>46074.55208333334</v>
+        <v>46079.55208333334</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>46074.5625</v>
+        <v>46079.5625</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>46074.57291666666</v>
+        <v>46079.57291666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>46074.58333333334</v>
+        <v>46079.58333333334</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>46074.59375</v>
+        <v>46079.59375</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>46074.60416666666</v>
+        <v>46079.60416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>46074.61458333334</v>
+        <v>46079.61458333334</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>46074.625</v>
+        <v>46079.625</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>46074.63541666666</v>
+        <v>46079.63541666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>46074.64583333334</v>
+        <v>46079.64583333334</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>46074.65625</v>
+        <v>46079.65625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>46074.66666666666</v>
+        <v>46079.66666666666</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>46074.67708333334</v>
+        <v>46079.67708333334</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>46074.6875</v>
+        <v>46079.6875</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>46074.69791666666</v>
+        <v>46079.69791666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>46074.70833333334</v>
+        <v>46079.70833333334</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>46074.71875</v>
+        <v>46079.71875</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>46074.72916666666</v>
+        <v>46079.72916666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>46074.73958333334</v>
+        <v>46079.73958333334</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>46074.75</v>
+        <v>46079.75</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>46074.76041666666</v>
+        <v>46079.76041666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>46074.77083333334</v>
+        <v>46079.77083333334</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>46074.78125</v>
+        <v>46079.78125</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>46074.79166666666</v>
+        <v>46079.79166666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>46074.80208333334</v>
+        <v>46079.80208333334</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>46074.8125</v>
+        <v>46079.8125</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>46074.82291666666</v>
+        <v>46079.82291666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>46074.83333333334</v>
+        <v>46079.83333333334</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>46074.84375</v>
+        <v>46079.84375</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>46074.85416666666</v>
+        <v>46079.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>46074.86458333334</v>
+        <v>46079.86458333334</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>46074.875</v>
+        <v>46079.875</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>46074.88541666666</v>
+        <v>46079.88541666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>46074.89583333334</v>
+        <v>46079.89583333334</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>46074.90625</v>
+        <v>46079.90625</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>46074.91666666666</v>
+        <v>46079.91666666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>46074.92708333334</v>
+        <v>46079.92708333334</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>46074.9375</v>
+        <v>46079.9375</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>46074.94791666666</v>
+        <v>46079.94791666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>46074.95833333334</v>
+        <v>46079.95833333334</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>46074.96875</v>
+        <v>46079.96875</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>46074.97916666666</v>
+        <v>46079.97916666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>46074.98958333334</v>
+        <v>46079.98958333334</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>46075</v>
+        <v>46080</v>
       </c>
       <c r="B97">
         <v>0</v>
